--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:L465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17638,6 +17638,316 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>397.85</v>
+      </c>
+      <c r="C458" t="n">
+        <v>313.29</v>
+      </c>
+      <c r="D458" t="n">
+        <v>320.4433333333333</v>
+      </c>
+      <c r="E458" t="n">
+        <v>326.9842857142857</v>
+      </c>
+      <c r="F458" t="n">
+        <v>333.4933333333333</v>
+      </c>
+      <c r="G458" t="n">
+        <v>322.4729411764706</v>
+      </c>
+      <c r="H458" t="n">
+        <v>330.1077777777778</v>
+      </c>
+      <c r="I458" t="n">
+        <v>322.055</v>
+      </c>
+      <c r="J458" t="n">
+        <v>316.8242857142857</v>
+      </c>
+      <c r="K458" t="n">
+        <v>309.7818181818182</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:27:21+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="n">
+        <v>316.1338461538461</v>
+      </c>
+      <c r="D459" t="n">
+        <v>310.8266666666667</v>
+      </c>
+      <c r="E459" t="n">
+        <v>325.5028571428572</v>
+      </c>
+      <c r="F459" t="n">
+        <v>322.8066666666667</v>
+      </c>
+      <c r="G459" t="n">
+        <v>322.4535294117647</v>
+      </c>
+      <c r="H459" t="n">
+        <v>349.2222222222222</v>
+      </c>
+      <c r="I459" t="n">
+        <v>340.16</v>
+      </c>
+      <c r="J459" t="n">
+        <v>318.2628571428572</v>
+      </c>
+      <c r="K459" t="n">
+        <v>320.0172727272728</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:31+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>409.8223076923077</v>
+      </c>
+      <c r="C460" t="n">
+        <v>310.9023076923077</v>
+      </c>
+      <c r="D460" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="E460" t="n">
+        <v>319.9142857142857</v>
+      </c>
+      <c r="F460" t="n">
+        <v>322.48</v>
+      </c>
+      <c r="G460" t="n">
+        <v>315.2088235294117</v>
+      </c>
+      <c r="H460" t="n">
+        <v>318.1966666666667</v>
+      </c>
+      <c r="I460" t="n">
+        <v>310.965</v>
+      </c>
+      <c r="J460" t="n">
+        <v>308.3442857142857</v>
+      </c>
+      <c r="K460" t="n">
+        <v>302.8509090909091</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:27:25+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>437.0492307692308</v>
+      </c>
+      <c r="C461" t="n">
+        <v>326.7892307692308</v>
+      </c>
+      <c r="D461" t="n">
+        <v>332.16</v>
+      </c>
+      <c r="E461" t="n">
+        <v>334.8728571428572</v>
+      </c>
+      <c r="F461" t="n">
+        <v>336.85</v>
+      </c>
+      <c r="G461" t="n">
+        <v>335.6658823529411</v>
+      </c>
+      <c r="H461" t="n">
+        <v>331.9533333333333</v>
+      </c>
+      <c r="I461" t="n">
+        <v>330.515</v>
+      </c>
+      <c r="J461" t="n">
+        <v>329.4428571428572</v>
+      </c>
+      <c r="K461" t="n">
+        <v>329.2036363636363</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>410.3415384615385</v>
+      </c>
+      <c r="C462" t="n">
+        <v>313.5315384615384</v>
+      </c>
+      <c r="D462" t="n">
+        <v>319.6966666666667</v>
+      </c>
+      <c r="E462" t="n">
+        <v>325.3614285714286</v>
+      </c>
+      <c r="F462" t="n">
+        <v>325.7866666666667</v>
+      </c>
+      <c r="G462" t="n">
+        <v>322.1835294117647</v>
+      </c>
+      <c r="H462" t="n">
+        <v>324.1488888888889</v>
+      </c>
+      <c r="I462" t="n">
+        <v>319.49</v>
+      </c>
+      <c r="J462" t="n">
+        <v>319.0614285714286</v>
+      </c>
+      <c r="K462" t="n">
+        <v>320.1318181818182</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:34+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="n">
+        <v>307.3976923076923</v>
+      </c>
+      <c r="D463" t="n">
+        <v>311.6866666666667</v>
+      </c>
+      <c r="E463" t="n">
+        <v>318.3342857142857</v>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:32+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>429</v>
+      </c>
+      <c r="C464" t="n">
+        <v>314.71</v>
+      </c>
+      <c r="D464" t="n">
+        <v>317.8533333333333</v>
+      </c>
+      <c r="E464" t="n">
+        <v>329.2071428571429</v>
+      </c>
+      <c r="F464" t="n">
+        <v>333.2933333333333</v>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:21:15+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>408.82</v>
+      </c>
+      <c r="C465" t="n">
+        <v>319.69</v>
+      </c>
+      <c r="D465" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="E465" t="n">
+        <v>323.3357142857143</v>
+      </c>
+      <c r="F465" t="n">
+        <v>328</v>
+      </c>
+      <c r="G465" t="n">
+        <v>325.6552941176471</v>
+      </c>
+      <c r="H465" t="n">
+        <v>328.9</v>
+      </c>
+      <c r="I465" t="n">
+        <v>323.845</v>
+      </c>
+      <c r="J465" t="n">
+        <v>320.2757142857143</v>
+      </c>
+      <c r="K465" t="n">
+        <v>315.9572727272728</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17649,7 +17959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22417,6 +22727,86 @@
       </c>
       <c r="B476" t="n">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-1.17</v>
       </c>
     </row>
   </sheetData>
@@ -22579,28 +22969,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.712584125229216</v>
+        <v>2.85790818208566</v>
       </c>
       <c r="J2" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1878498837158388</v>
+        <v>0.208424302371318</v>
       </c>
       <c r="M2" t="n">
-        <v>37.13388264698533</v>
+        <v>36.90177862786389</v>
       </c>
       <c r="N2" t="n">
-        <v>1855.774299951422</v>
+        <v>1843.391409636241</v>
       </c>
       <c r="O2" t="n">
-        <v>43.0786989120078</v>
+        <v>42.93473430261612</v>
       </c>
       <c r="P2" t="n">
-        <v>311.0935974767453</v>
+        <v>309.7156914924627</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22656,28 +23046,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02699611550874933</v>
+        <v>0.03734683415906928</v>
       </c>
       <c r="J3" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004215041051408575</v>
+        <v>0.0008327938927846779</v>
       </c>
       <c r="M3" t="n">
-        <v>7.860197951027476</v>
+        <v>7.782175276602875</v>
       </c>
       <c r="N3" t="n">
-        <v>97.83413981932651</v>
+        <v>96.48247777977377</v>
       </c>
       <c r="O3" t="n">
-        <v>9.891114184930155</v>
+        <v>9.822549454178063</v>
       </c>
       <c r="P3" t="n">
-        <v>311.9509099604591</v>
+        <v>311.8512092506367</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22733,28 +23123,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02136102136781145</v>
+        <v>0.02776669479852201</v>
       </c>
       <c r="J4" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K4" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000304801632360685</v>
+        <v>0.000530978574139529</v>
       </c>
       <c r="M4" t="n">
-        <v>7.471809519785485</v>
+        <v>7.404516942656256</v>
       </c>
       <c r="N4" t="n">
-        <v>85.37514422800254</v>
+        <v>84.41602120316774</v>
       </c>
       <c r="O4" t="n">
-        <v>9.239867110949298</v>
+        <v>9.187819175580664</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9830211824488</v>
+        <v>315.9225347580924</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22810,28 +23200,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01473392144465799</v>
+        <v>0.01317476014783842</v>
       </c>
       <c r="J5" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K5" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001652857014355913</v>
+        <v>0.0001368569633464212</v>
       </c>
       <c r="M5" t="n">
-        <v>6.934443530395989</v>
+        <v>6.864943889243761</v>
       </c>
       <c r="N5" t="n">
-        <v>75.15717432838647</v>
+        <v>74.02088263850159</v>
       </c>
       <c r="O5" t="n">
-        <v>8.66932375265721</v>
+        <v>8.603538960131557</v>
       </c>
       <c r="P5" t="n">
-        <v>325.4591518156249</v>
+        <v>325.4739665084522</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22887,28 +23277,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01944960343532361</v>
+        <v>-0.0248123276763557</v>
       </c>
       <c r="J6" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K6" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003121983005831552</v>
+        <v>0.0005221484820601141</v>
       </c>
       <c r="M6" t="n">
-        <v>6.640161743840452</v>
+        <v>6.608733100406877</v>
       </c>
       <c r="N6" t="n">
-        <v>69.57567568593993</v>
+        <v>68.82601468919698</v>
       </c>
       <c r="O6" t="n">
-        <v>8.341203491459726</v>
+        <v>8.296144567761401</v>
       </c>
       <c r="P6" t="n">
-        <v>331.0643814761587</v>
+        <v>331.1149050008904</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22964,28 +23354,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04508874039979354</v>
+        <v>0.03851857475132926</v>
       </c>
       <c r="J7" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001608521045820654</v>
+        <v>0.001199216790213731</v>
       </c>
       <c r="M7" t="n">
-        <v>6.572007291824304</v>
+        <v>6.554007830416345</v>
       </c>
       <c r="N7" t="n">
-        <v>72.74051044055149</v>
+        <v>72.255100098791</v>
       </c>
       <c r="O7" t="n">
-        <v>8.528804748647461</v>
+        <v>8.5003000005171</v>
       </c>
       <c r="P7" t="n">
-        <v>325.1147117131264</v>
+        <v>325.1762933123947</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23041,28 +23431,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07280467157536823</v>
+        <v>0.08524817242749383</v>
       </c>
       <c r="J8" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K8" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00468156517681606</v>
+        <v>0.006419476141008129</v>
       </c>
       <c r="M8" t="n">
-        <v>6.293850078413837</v>
+        <v>6.319249853325756</v>
       </c>
       <c r="N8" t="n">
-        <v>65.03692884490874</v>
+        <v>65.76210142025468</v>
       </c>
       <c r="O8" t="n">
-        <v>8.064547652838858</v>
+        <v>8.109383541321417</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0396101058015</v>
+        <v>323.9219563971902</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23118,28 +23508,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1852690077364816</v>
+        <v>0.1863813297932997</v>
       </c>
       <c r="J9" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K9" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02609960227399166</v>
+        <v>0.02669283849417703</v>
       </c>
       <c r="M9" t="n">
-        <v>6.685160862824834</v>
+        <v>6.69172420553325</v>
       </c>
       <c r="N9" t="n">
-        <v>74.36488646588036</v>
+        <v>74.49945841822355</v>
       </c>
       <c r="O9" t="n">
-        <v>8.623507781980623</v>
+        <v>8.631306877769065</v>
       </c>
       <c r="P9" t="n">
-        <v>319.383535586634</v>
+        <v>319.373196261591</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23195,28 +23585,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05222354721967093</v>
+        <v>0.05052408584808697</v>
       </c>
       <c r="J10" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K10" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001835303433201485</v>
+        <v>0.001754651116196326</v>
       </c>
       <c r="M10" t="n">
-        <v>7.287229307015806</v>
+        <v>7.240854126432462</v>
       </c>
       <c r="N10" t="n">
-        <v>87.10951428689498</v>
+        <v>86.35670123142803</v>
       </c>
       <c r="O10" t="n">
-        <v>9.333247788786869</v>
+        <v>9.292830636110185</v>
       </c>
       <c r="P10" t="n">
-        <v>318.0235561302935</v>
+        <v>318.0392944106018</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23272,28 +23662,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1051294170672878</v>
+        <v>0.08697663050819796</v>
       </c>
       <c r="J11" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K11" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005620896008352805</v>
+        <v>0.003907139345707855</v>
       </c>
       <c r="M11" t="n">
-        <v>8.338151933872298</v>
+        <v>8.339618111100004</v>
       </c>
       <c r="N11" t="n">
-        <v>115.8629021557366</v>
+        <v>115.8321584741261</v>
       </c>
       <c r="O11" t="n">
-        <v>10.76396312497105</v>
+        <v>10.76253494647641</v>
       </c>
       <c r="P11" t="n">
-        <v>320.445567637025</v>
+        <v>320.6122541791415</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23330,7 +23720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:L465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47648,6 +48038,450 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-46.77719304723962,168.5303265154623</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-46.776519795144466,168.5293230581426</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-46.77670397815049,168.52844023710273</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-46.77692226588417,168.52757253757332</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-46.77724690549829,168.52678326171346</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-46.77754242494018,168.525976760374</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-46.77800471345153,168.5253521004888</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-46.77842591445524,168.52467798762206</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-46.77892236266244,168.52411177648526</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-46.77942798174005,168.52358305310452</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:27:21+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-46.77654515245541,168.52932768182197</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-46.77661905072884,168.52841697746388</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-46.776909595727,168.52756659119314</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-46.77716298683153,168.52671529962018</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-46.77754228522307,168.52597660834877</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-46.778131030369515,168.52552152790173</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-46.77852971756616,168.52486034751809</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-46.77892959156149,168.5241273769437</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-46.77947673718335,168.5236965839454</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:31+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-46.7773001486671,168.53034136427846</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-46.776498505154336,168.52931917610562</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-46.776667387237495,168.52843021569763</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-46.776861798564966,168.52754415897036</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-46.777160421631564,168.52671322217952</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-46.77749014108955,168.52591987074496</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-46.77792599931285,168.52524652268366</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-46.778362330975504,168.52456628561143</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-46.778879750164336,168.5240198159748</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-46.779394967069244,168.52350617613638</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:27:25+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-46.777543714264,168.53037513299975</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-46.776640161778516,168.5293450059555</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-46.77680745124409,168.52846857605587</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-46.77698973416172,168.5276042019483</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-46.77727326422408,168.5268046085518</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-46.77763738173152,168.52608008242734</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-46.77801690972953,168.52536845916686</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-46.778474419007765,168.5247631996144</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-46.778985771596766,168.52424861759374</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-46.77952049530904,168.52379847853334</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-46.77730479358247,168.53034200826244</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-46.77652194883548,168.5293234508488</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-46.77669738413243,168.52843843115278</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-46.776908386136284,168.52756602350604</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-46.77718638773577,168.52673425097552</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-46.777540341885,168.52597449381614</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-46.777965334364964,168.52529928200178</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-46.77841120827614,168.5246521521018</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-46.778933604425156,168.5241360369816</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-46.779477282807214,168.52369785447556</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:34+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-46.77646725605784,168.5293134781202</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-46.77662664562491,168.52841905752604</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-46.77684828535853,168.52753781694273</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:32+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-46.77747170775514,168.5303651497611</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-46.77653245665274,168.52932536685523</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-46.77668110515024,168.5284339727154</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-46.77694127722853,168.5275814600156</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-46.777245334968335,168.52678198980715</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:21:15+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-46.77729118226005,168.53034012115117</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-46.776576861097006,168.5293334636148</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-46.776670919747225,168.52843118316986</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-46.776891060887195,168.52755789239478</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-46.77720376827146,168.5267483267129</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-46.777565330077046,168.52600168330838</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-46.77799673190061,168.52534139496413</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-46.77843617724369,168.5246960170969</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-46.7789397062739,168.5241492051991</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-46.77945739783999,168.52365155072582</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -22820,7 +22820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22911,35 +22911,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22992,27 +22997,28 @@
       <c r="P2" t="n">
         <v>309.7156914924627</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.52983310145044 -46.773633974681815, 168.53091654220677 -46.781448544348805)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.5298331014504</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.77363397468181</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.5309165422068</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.78144854434881</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.5303748218286</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.77754125951531</v>
       </c>
     </row>
@@ -23069,27 +23075,28 @@
       <c r="P3" t="n">
         <v>311.8512092506367</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.52881371566266 -46.77372632688558, 168.5302340365388 -46.78151543578436)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.5288137156627</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.77372632688558</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.5302340365388</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.78151543578436</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.5295238761007</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.77762088133497</v>
       </c>
     </row>
@@ -23146,27 +23153,28 @@
       <c r="P4" t="n">
         <v>315.9225347580924</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.52766522165203 -46.77387405349573, 168.5297781898134 -46.78158881825882)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.527665221652</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.77387405349573</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.5297781898134</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.78158881825882</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.5287217057327</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.77773143587727</v>
       </c>
     </row>
@@ -23223,27 +23231,28 @@
       <c r="P5" t="n">
         <v>325.4739665084522</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.5262601021064 -46.77412567431012, 168.52976691738994 -46.78159751208479)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.5262601021064</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.77412567431012</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.5297669173899</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.78159751208479</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.5280135097482</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.77786159319746</v>
       </c>
     </row>
@@ -23300,27 +23309,28 @@
       <c r="P6" t="n">
         <v>331.1149050008904</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.52466250017454 -46.774628082607954, 168.5302193317543 -46.78148934341939)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.5246625001745</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.77462808260795</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.5302193317543</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.78148934341939</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.5274409159644</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.77805871301367</v>
       </c>
     </row>
@@ -23377,27 +23387,28 @@
       <c r="P7" t="n">
         <v>325.1762933123947</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.52345138762493 -46.775221385828566, 168.53029531827445 -46.78151098829522)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.5234513876249</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.77522138582857</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.5302953182745</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.78151098829522</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.5268733529497</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.77836618706189</v>
       </c>
     </row>
@@ -23454,27 +23465,28 @@
       <c r="P8" t="n">
         <v>323.9219563971902</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.52242620220113 -46.775823175877676, 168.53017290302216 -46.7815985528625)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.5224262022011</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.77582317587768</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.5301729030222</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.7815985528625</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.5262995526116</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.77871086437008</v>
       </c>
     </row>
@@ -23531,27 +23543,28 @@
       <c r="P9" t="n">
         <v>319.373196261591</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.52143425552939 -46.77657940116897, 168.53023828248823 -46.78159064963804)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.5214342555294</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.77657940116897</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.5302382824882</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.78159064963804</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.5258362690088</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.7790850254035</v>
       </c>
     </row>
@@ -23608,27 +23621,28 @@
       <c r="P10" t="n">
         <v>318.0392944106018</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.52067610810747 -46.777330254944836, 168.5301558236376 -46.78172273970035)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.5206761081075</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.77733025494484</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.5301558236376</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.78172273970035</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.5254159658725</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.77952649732259</v>
       </c>
     </row>
@@ -23685,27 +23699,28 @@
       <c r="P11" t="n">
         <v>320.6122541791415</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (168.52014707765738 -46.77795232046933, 168.5298434187836 -46.78211618160175)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>168.5201470776574</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.77795232046933</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>168.5298434187836</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.78211618160175</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>168.5249952482205</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.78003425103554</v>
       </c>
     </row>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L465"/>
+  <dimension ref="A1:L470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17948,6 +17948,210 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>405.9169230769231</v>
+      </c>
+      <c r="C466" t="n">
+        <v>315.9069230769231</v>
+      </c>
+      <c r="D466" t="n">
+        <v>316.3633333333333</v>
+      </c>
+      <c r="E466" t="n">
+        <v>323.1657142857143</v>
+      </c>
+      <c r="F466" t="n">
+        <v>331.3633333333333</v>
+      </c>
+      <c r="G466" t="n">
+        <v>326.7188235294118</v>
+      </c>
+      <c r="H466" t="n">
+        <v>326.8777777777778</v>
+      </c>
+      <c r="I466" t="n">
+        <v>324.53</v>
+      </c>
+      <c r="J466" t="n">
+        <v>316.5857142857143</v>
+      </c>
+      <c r="K466" t="n">
+        <v>312.85</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>429.9792307692308</v>
+      </c>
+      <c r="C467" t="n">
+        <v>324.0092307692308</v>
+      </c>
+      <c r="D467" t="n">
+        <v>327.0166666666667</v>
+      </c>
+      <c r="E467" t="n">
+        <v>334.2657142857143</v>
+      </c>
+      <c r="F467" t="n">
+        <v>340.4366666666667</v>
+      </c>
+      <c r="G467" t="n">
+        <v>338.5864705882353</v>
+      </c>
+      <c r="H467" t="n">
+        <v>338.4488888888889</v>
+      </c>
+      <c r="I467" t="n">
+        <v>333.42</v>
+      </c>
+      <c r="J467" t="n">
+        <v>333.5657142857143</v>
+      </c>
+      <c r="K467" t="n">
+        <v>336.12</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>413.3623076923077</v>
+      </c>
+      <c r="C468" t="n">
+        <v>331.0723076923077</v>
+      </c>
+      <c r="D468" t="n">
+        <v>332.5966666666666</v>
+      </c>
+      <c r="E468" t="n">
+        <v>340.1614285714285</v>
+      </c>
+      <c r="F468" t="n">
+        <v>342.0666666666667</v>
+      </c>
+      <c r="G468" t="n">
+        <v>341.7341176470588</v>
+      </c>
+      <c r="H468" t="n">
+        <v>342.7422222222222</v>
+      </c>
+      <c r="I468" t="n">
+        <v>338.945</v>
+      </c>
+      <c r="J468" t="n">
+        <v>337.4714285714285</v>
+      </c>
+      <c r="K468" t="n">
+        <v>335.08</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="n">
+        <v>331.04</v>
+      </c>
+      <c r="F469" t="n">
+        <v>334.58</v>
+      </c>
+      <c r="G469" t="n">
+        <v>332.8717647058824</v>
+      </c>
+      <c r="H469" t="n">
+        <v>328.92</v>
+      </c>
+      <c r="I469" t="n">
+        <v>334.405</v>
+      </c>
+      <c r="J469" t="n">
+        <v>328.17</v>
+      </c>
+      <c r="K469" t="n">
+        <v>333.6645454545454</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>403.3653846153846</v>
+      </c>
+      <c r="C470" t="n">
+        <v>325.6653846153847</v>
+      </c>
+      <c r="D470" t="n">
+        <v>325.3533333333333</v>
+      </c>
+      <c r="E470" t="n">
+        <v>333.7228571428572</v>
+      </c>
+      <c r="F470" t="n">
+        <v>338.4633333333334</v>
+      </c>
+      <c r="G470" t="n">
+        <v>338.4388235294118</v>
+      </c>
+      <c r="H470" t="n">
+        <v>339.3277777777778</v>
+      </c>
+      <c r="I470" t="n">
+        <v>333.275</v>
+      </c>
+      <c r="J470" t="n">
+        <v>333.7428571428572</v>
+      </c>
+      <c r="K470" t="n">
+        <v>327.0581818181818</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17959,7 +18163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22807,6 +23011,56 @@
       </c>
       <c r="B484" t="n">
         <v>-1.17</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -22974,28 +23228,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.85790818208566</v>
+        <v>2.938442561261668</v>
       </c>
       <c r="J2" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.208424302371318</v>
+        <v>0.2210760817101006</v>
       </c>
       <c r="M2" t="n">
-        <v>36.90177862786389</v>
+        <v>36.66959307602979</v>
       </c>
       <c r="N2" t="n">
-        <v>1843.391409636241</v>
+        <v>1829.508715255718</v>
       </c>
       <c r="O2" t="n">
-        <v>42.93473430261612</v>
+        <v>42.77275669460315</v>
       </c>
       <c r="P2" t="n">
-        <v>309.7156914924627</v>
+        <v>308.9411730096775</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23052,28 +23306,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03734683415906928</v>
+        <v>0.05922450266752574</v>
       </c>
       <c r="J3" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K3" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008327938927846779</v>
+        <v>0.002096905051574782</v>
       </c>
       <c r="M3" t="n">
-        <v>7.782175276602875</v>
+        <v>7.818601722462748</v>
       </c>
       <c r="N3" t="n">
-        <v>96.48247777977377</v>
+        <v>97.1180565377024</v>
       </c>
       <c r="O3" t="n">
-        <v>9.822549454178063</v>
+        <v>9.854849391934025</v>
       </c>
       <c r="P3" t="n">
-        <v>311.8512092506367</v>
+        <v>311.637434613608</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23130,28 +23384,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02776669479852201</v>
+        <v>0.04428525944399458</v>
       </c>
       <c r="J4" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000530978574139529</v>
+        <v>0.001358660649668275</v>
       </c>
       <c r="M4" t="n">
-        <v>7.404516942656256</v>
+        <v>7.418764765460305</v>
       </c>
       <c r="N4" t="n">
-        <v>84.41602120316774</v>
+        <v>84.65982838901458</v>
       </c>
       <c r="O4" t="n">
-        <v>9.187819175580664</v>
+        <v>9.201077566731767</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9225347580924</v>
+        <v>315.7639237553124</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23208,28 +23462,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01317476014783842</v>
+        <v>0.02927068180407256</v>
       </c>
       <c r="J5" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001368569633464212</v>
+        <v>0.0006834637849725267</v>
       </c>
       <c r="M5" t="n">
-        <v>6.864943889243761</v>
+        <v>6.87029014718058</v>
       </c>
       <c r="N5" t="n">
-        <v>74.02088263850159</v>
+        <v>74.00862537481974</v>
       </c>
       <c r="O5" t="n">
-        <v>8.603538960131557</v>
+        <v>8.602826592162586</v>
       </c>
       <c r="P5" t="n">
-        <v>325.4739665084522</v>
+        <v>325.3193788604848</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23286,28 +23540,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0248123276763557</v>
+        <v>-0.008542605779501403</v>
       </c>
       <c r="J6" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K6" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005221484820601141</v>
+        <v>6.275076174866445e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.608733100406877</v>
+        <v>6.611571398042276</v>
       </c>
       <c r="N6" t="n">
-        <v>68.82601468919698</v>
+        <v>68.72391387036922</v>
       </c>
       <c r="O6" t="n">
-        <v>8.296144567761401</v>
+        <v>8.289988773838552</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1149050008904</v>
+        <v>330.9588988392417</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23364,28 +23618,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03851857475132926</v>
+        <v>0.06080051235305946</v>
       </c>
       <c r="J7" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K7" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001199216790213731</v>
+        <v>0.002995128310733564</v>
       </c>
       <c r="M7" t="n">
-        <v>6.554007830416345</v>
+        <v>6.589276029424978</v>
       </c>
       <c r="N7" t="n">
-        <v>72.255100098791</v>
+        <v>72.82016367513573</v>
       </c>
       <c r="O7" t="n">
-        <v>8.5003000005171</v>
+        <v>8.533473130861532</v>
       </c>
       <c r="P7" t="n">
-        <v>325.1762933123947</v>
+        <v>324.9634761925585</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23442,28 +23696,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08524817242749383</v>
+        <v>0.1060822050687324</v>
       </c>
       <c r="J8" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K8" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006419476141008129</v>
+        <v>0.009910218113197367</v>
       </c>
       <c r="M8" t="n">
-        <v>6.319249853325756</v>
+        <v>6.358928436529769</v>
       </c>
       <c r="N8" t="n">
-        <v>65.76210142025468</v>
+        <v>66.45937333512489</v>
       </c>
       <c r="O8" t="n">
-        <v>8.109383541321417</v>
+        <v>8.152261853935071</v>
       </c>
       <c r="P8" t="n">
-        <v>323.9219563971902</v>
+        <v>323.721150196658</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23520,28 +23774,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1863813297932997</v>
+        <v>0.206199937293552</v>
       </c>
       <c r="J9" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K9" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02669283849417703</v>
+        <v>0.03270664944487456</v>
       </c>
       <c r="M9" t="n">
-        <v>6.69172420553325</v>
+        <v>6.72355145112333</v>
       </c>
       <c r="N9" t="n">
-        <v>74.49945841822355</v>
+        <v>74.77440661980212</v>
       </c>
       <c r="O9" t="n">
-        <v>8.631306877769065</v>
+        <v>8.647219588966278</v>
       </c>
       <c r="P9" t="n">
-        <v>319.373196261591</v>
+        <v>319.1830798831668</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23598,28 +23852,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05052408584808697</v>
+        <v>0.07383287335280105</v>
       </c>
       <c r="J10" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K10" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001754651116196326</v>
+        <v>0.003738341729812134</v>
       </c>
       <c r="M10" t="n">
-        <v>7.240854126432462</v>
+        <v>7.299341150342786</v>
       </c>
       <c r="N10" t="n">
-        <v>86.35670123142803</v>
+        <v>87.30735243869053</v>
       </c>
       <c r="O10" t="n">
-        <v>9.292830636110185</v>
+        <v>9.343840347452996</v>
       </c>
       <c r="P10" t="n">
-        <v>318.0392944106018</v>
+        <v>317.8173032773892</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23676,28 +23930,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08697663050819796</v>
+        <v>0.1004889467518096</v>
       </c>
       <c r="J11" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K11" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003907139345707855</v>
+        <v>0.005270732021870783</v>
       </c>
       <c r="M11" t="n">
-        <v>8.339618111100004</v>
+        <v>8.364482348866742</v>
       </c>
       <c r="N11" t="n">
-        <v>115.8321584741261</v>
+        <v>115.7678974867057</v>
       </c>
       <c r="O11" t="n">
-        <v>10.76253494647641</v>
+        <v>10.75954913027055</v>
       </c>
       <c r="P11" t="n">
-        <v>320.6122541791415</v>
+        <v>320.4858793337909</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23735,7 +23989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L465"/>
+  <dimension ref="A1:L470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48497,6 +48751,304 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-46.77726521202194,168.5303365205677</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-46.7765431290833,168.52932731287802</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-46.77666794655153,168.52843036888072</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-46.77688960693469,168.5275572100239</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-46.77723017935375,168.52676971591492</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-46.777572984879576,168.5260100124563</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-46.77798336812428,168.5253234703577</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-46.77844010462295,168.52470291664633</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-46.778921163827945,168.52410918931926</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-46.77944259669222,168.52361708510904</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-46.777480467721325,168.53036636427294</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-46.776615373755746,168.5293404860678</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-46.77676202905876,168.52845613592905</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-46.7769845414749,168.52760176490125</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-46.777301429055484,168.52682741810548</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-46.77765840278645,168.52610295540234</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-46.77805983532455,168.52542603468135</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-46.778491074517305,168.52479245979646</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-46.77900648912091,168.52429332766604</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-46.779553440509446,168.523875194531</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-46.77733181666795,168.53034575481962</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-46.77667835206906,168.5293519696407</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-46.776811307566966,168.52846963221785</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-46.77703496551686,168.5276254300802</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-46.777314228870715,168.52683778416494</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-46.77768105810217,168.52612760663837</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-46.77808820761594,168.52546409011777</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-46.778522751500006,168.52484810959066</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-46.77902611547829,168.52433568297826</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-46.779548486607545,168.52386365889112</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-46.77695695303458,168.52758881702093</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-46.77725543871078,168.5267901724057</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-46.77761727095012,168.52605819994002</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-46.777996864069806,168.52534157224048</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-46.7784967219088,168.52480238106713</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-46.77897937543476,168.52423481417935</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-46.779541744275996,168.52384795872743</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-46.77724238656354,168.53033335598707</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-46.77663014094254,168.52934317873988</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-46.77674733970635,168.52845211284594</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-46.77697989860194,168.52759958589485</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-46.77728593316359,168.5268148686084</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-46.77765734009072,168.52610179908433</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-46.77806564342137,168.525433825012</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-46.778490243175334,168.524790999305</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-46.77900737927056,168.5242952486817</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-46.77951027570495,168.52377468126653</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L470"/>
+  <dimension ref="A1:L471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18152,6 +18152,46 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="n">
+        <v>327.8223076923077</v>
+      </c>
+      <c r="D471" t="n">
+        <v>328.1433333333334</v>
+      </c>
+      <c r="E471" t="n">
+        <v>335.6628571428571</v>
+      </c>
+      <c r="F471" t="n">
+        <v>336.9233333333333</v>
+      </c>
+      <c r="G471" t="n">
+        <v>334.9964705882353</v>
+      </c>
+      <c r="H471" t="n">
+        <v>335.7344444444445</v>
+      </c>
+      <c r="I471" t="n">
+        <v>328.485</v>
+      </c>
+      <c r="J471" t="n">
+        <v>329.7928571428571</v>
+      </c>
+      <c r="K471" t="n">
+        <v>321.9754545454546</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18163,7 +18203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23061,6 +23101,16 @@
       </c>
       <c r="B489" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -23231,7 +23281,7 @@
         <v>2.938442561261668</v>
       </c>
       <c r="J2" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
         <v>251</v>
@@ -23306,28 +23356,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05922450266752574</v>
+        <v>0.06628132964141148</v>
       </c>
       <c r="J3" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002096905051574782</v>
+        <v>0.002622310234516645</v>
       </c>
       <c r="M3" t="n">
-        <v>7.818601722462748</v>
+        <v>7.836976920646153</v>
       </c>
       <c r="N3" t="n">
-        <v>97.1180565377024</v>
+        <v>97.43533750544171</v>
       </c>
       <c r="O3" t="n">
-        <v>9.854849391934025</v>
+        <v>9.870933973309805</v>
       </c>
       <c r="P3" t="n">
-        <v>311.637434613608</v>
+        <v>311.5682017745058</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23384,28 +23434,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04428525944399458</v>
+        <v>0.0496172684027988</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001358660649668275</v>
+        <v>0.001706793520019678</v>
       </c>
       <c r="M4" t="n">
-        <v>7.418764765460305</v>
+        <v>7.428959755462657</v>
       </c>
       <c r="N4" t="n">
-        <v>84.65982838901458</v>
+        <v>84.76773380401845</v>
       </c>
       <c r="O4" t="n">
-        <v>9.201077566731767</v>
+        <v>9.206939437403639</v>
       </c>
       <c r="P4" t="n">
-        <v>315.7639237553124</v>
+        <v>315.7125228624612</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23462,28 +23512,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02927068180407256</v>
+        <v>0.03389902472462858</v>
       </c>
       <c r="J5" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006834637849725267</v>
+        <v>0.0009180410576344888</v>
       </c>
       <c r="M5" t="n">
-        <v>6.87029014718058</v>
+        <v>6.876133781588559</v>
       </c>
       <c r="N5" t="n">
-        <v>74.00862537481974</v>
+        <v>74.05571130446461</v>
       </c>
       <c r="O5" t="n">
-        <v>8.602826592162586</v>
+        <v>8.605562811604166</v>
       </c>
       <c r="P5" t="n">
-        <v>325.3193788604848</v>
+        <v>325.2747668026742</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23540,28 +23590,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.008542605779501403</v>
+        <v>-0.005631025009459221</v>
       </c>
       <c r="J6" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L6" t="n">
-        <v>6.275076174866445e-05</v>
+        <v>2.736177530604511e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.611571398042276</v>
+        <v>6.610238779023155</v>
       </c>
       <c r="N6" t="n">
-        <v>68.72391387036922</v>
+        <v>68.64208818935529</v>
       </c>
       <c r="O6" t="n">
-        <v>8.289988773838552</v>
+        <v>8.285052093339866</v>
       </c>
       <c r="P6" t="n">
-        <v>330.9588988392417</v>
+        <v>330.9308723972175</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23618,28 +23668,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06080051235305946</v>
+        <v>0.06476505099878729</v>
       </c>
       <c r="J7" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002995128310733564</v>
+        <v>0.003405202577754229</v>
       </c>
       <c r="M7" t="n">
-        <v>6.589276029424978</v>
+        <v>6.593618182998394</v>
       </c>
       <c r="N7" t="n">
-        <v>72.82016367513573</v>
+        <v>72.81574976618579</v>
       </c>
       <c r="O7" t="n">
-        <v>8.533473130861532</v>
+        <v>8.533214503701743</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9634761925585</v>
+        <v>324.9254716378151</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23696,28 +23746,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060822050687324</v>
+        <v>0.1103041792556903</v>
       </c>
       <c r="J8" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009910218113197367</v>
+        <v>0.01072096529075994</v>
       </c>
       <c r="M8" t="n">
-        <v>6.358928436529769</v>
+        <v>6.366915673162245</v>
       </c>
       <c r="N8" t="n">
-        <v>66.45937333512489</v>
+        <v>66.50882621489126</v>
       </c>
       <c r="O8" t="n">
-        <v>8.152261853935071</v>
+        <v>8.155294367151393</v>
       </c>
       <c r="P8" t="n">
-        <v>323.721150196658</v>
+        <v>323.6803010692569</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23774,28 +23824,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.206199937293552</v>
+        <v>0.2080047266385087</v>
       </c>
       <c r="J9" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K9" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03270664944487456</v>
+        <v>0.03339725703056184</v>
       </c>
       <c r="M9" t="n">
-        <v>6.72355145112333</v>
+        <v>6.716997610483939</v>
       </c>
       <c r="N9" t="n">
-        <v>74.77440661980212</v>
+        <v>74.62163583199339</v>
       </c>
       <c r="O9" t="n">
-        <v>8.647219588966278</v>
+        <v>8.638381551656154</v>
       </c>
       <c r="P9" t="n">
-        <v>319.1830798831668</v>
+        <v>319.1657022213359</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23852,28 +23902,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07383287335280105</v>
+        <v>0.07827045362902538</v>
       </c>
       <c r="J10" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K10" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003738341729812134</v>
+        <v>0.004206285971816826</v>
       </c>
       <c r="M10" t="n">
-        <v>7.299341150342786</v>
+        <v>7.306955435379895</v>
       </c>
       <c r="N10" t="n">
-        <v>87.30735243869053</v>
+        <v>87.34156497659966</v>
       </c>
       <c r="O10" t="n">
-        <v>9.343840347452996</v>
+        <v>9.345670921694154</v>
       </c>
       <c r="P10" t="n">
-        <v>317.8173032773892</v>
+        <v>317.7748871194802</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23930,28 +23980,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1004889467518096</v>
+        <v>0.1000035927096781</v>
       </c>
       <c r="J11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005270732021870783</v>
+        <v>0.005244723733402901</v>
       </c>
       <c r="M11" t="n">
-        <v>8.364482348866742</v>
+        <v>8.346066948996739</v>
       </c>
       <c r="N11" t="n">
-        <v>115.7678974867057</v>
+        <v>115.4793113609631</v>
       </c>
       <c r="O11" t="n">
-        <v>10.75954913027055</v>
+        <v>10.74613006439821</v>
       </c>
       <c r="P11" t="n">
-        <v>320.4858793337909</v>
+        <v>320.4904334330686</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23989,7 +24039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L470"/>
+  <dimension ref="A1:L471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49049,6 +49099,64 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-46.77664937326565,168.52934668559362</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-46.77677197896073,168.52845886098444</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-46.77699649076358,168.52760737297723</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-46.77727384008498,168.5268050749179</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-46.777632563612,168.52607483984258</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-46.77804189704025,168.52540197429016</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-46.77846278021385,168.52474275275102</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-46.778987530361576,168.52425241314597</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-46.77948606475141,168.52371830396504</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L471"/>
+  <dimension ref="A1:L472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18158,7 +18158,9 @@
           <t>2025-05-12 22:20:11+00:00</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr"/>
+      <c r="B471" t="n">
+        <v>314.4623076923077</v>
+      </c>
       <c r="C471" t="n">
         <v>327.8223076923077</v>
       </c>
@@ -18187,6 +18189,48 @@
         <v>321.9754545454546</v>
       </c>
       <c r="L471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>308.7338461538461</v>
+      </c>
+      <c r="C472" t="n">
+        <v>303.1538461538461</v>
+      </c>
+      <c r="D472" t="n">
+        <v>297.37</v>
+      </c>
+      <c r="E472" t="n">
+        <v>313.3585714285715</v>
+      </c>
+      <c r="F472" t="n">
+        <v>320.77</v>
+      </c>
+      <c r="G472" t="n">
+        <v>318.5447058823529</v>
+      </c>
+      <c r="H472" t="n">
+        <v>319.0333333333333</v>
+      </c>
+      <c r="I472" t="n">
+        <v>321.89</v>
+      </c>
+      <c r="J472" t="n">
+        <v>314.9385714285714</v>
+      </c>
+      <c r="K472" t="n">
+        <v>320.55</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18203,7 +18247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23111,6 +23155,16 @@
       </c>
       <c r="B490" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -23278,28 +23332,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.938442561261668</v>
+        <v>2.841423686275053</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2210760817101006</v>
+        <v>0.2082561186548998</v>
       </c>
       <c r="M2" t="n">
-        <v>36.66959307602979</v>
+        <v>37.09252005851531</v>
       </c>
       <c r="N2" t="n">
-        <v>1829.508715255718</v>
+        <v>1856.489806543913</v>
       </c>
       <c r="O2" t="n">
-        <v>42.77275669460315</v>
+        <v>43.08700275656121</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9411730096775</v>
+        <v>309.8807195487125</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23356,28 +23410,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06628132964141148</v>
+        <v>0.06141456149936446</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002622310234516645</v>
+        <v>0.002256987095374474</v>
       </c>
       <c r="M3" t="n">
-        <v>7.836976920646153</v>
+        <v>7.843172088736819</v>
       </c>
       <c r="N3" t="n">
-        <v>97.43533750544171</v>
+        <v>97.44708799145548</v>
       </c>
       <c r="O3" t="n">
-        <v>9.870933973309805</v>
+        <v>9.871529161758854</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5682017745058</v>
+        <v>311.6161167410784</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23434,28 +23488,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0496172684027988</v>
+        <v>0.04032296796705701</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001706793520019678</v>
+        <v>0.00112020406310287</v>
       </c>
       <c r="M4" t="n">
-        <v>7.428959755462657</v>
+        <v>7.460828324728323</v>
       </c>
       <c r="N4" t="n">
-        <v>84.76773380401845</v>
+        <v>85.55445488244355</v>
       </c>
       <c r="O4" t="n">
-        <v>9.206939437403639</v>
+        <v>9.249565118557928</v>
       </c>
       <c r="P4" t="n">
-        <v>315.7125228624612</v>
+        <v>315.8024294014861</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23512,28 +23566,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03389902472462858</v>
+        <v>0.02773633821339282</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009180410576344888</v>
+        <v>0.0006142312002003214</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876133781588559</v>
+        <v>6.894162643255135</v>
       </c>
       <c r="N5" t="n">
-        <v>74.05571130446461</v>
+        <v>74.29629914923821</v>
       </c>
       <c r="O5" t="n">
-        <v>8.605562811604166</v>
+        <v>8.619530100257101</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2747668026742</v>
+        <v>325.334376971378</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23590,28 +23644,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005631025009459221</v>
+        <v>-0.01033845409590495</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L6" t="n">
-        <v>2.736177530604511e-05</v>
+        <v>9.232919181156873e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.610238779023155</v>
+        <v>6.619390042989256</v>
       </c>
       <c r="N6" t="n">
-        <v>68.64208818935529</v>
+        <v>68.72406504930665</v>
       </c>
       <c r="O6" t="n">
-        <v>8.285052093339866</v>
+        <v>8.289997891996514</v>
       </c>
       <c r="P6" t="n">
-        <v>330.9308723972175</v>
+        <v>330.9763441610947</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23668,28 +23722,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06476505099878729</v>
+        <v>0.06100038150655623</v>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003405202577754229</v>
+        <v>0.003029995349242198</v>
       </c>
       <c r="M7" t="n">
-        <v>6.593618182998394</v>
+        <v>6.597855938301807</v>
       </c>
       <c r="N7" t="n">
-        <v>72.81574976618579</v>
+        <v>72.79356430144962</v>
       </c>
       <c r="O7" t="n">
-        <v>8.533214503701743</v>
+        <v>8.531914456993203</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9254716378151</v>
+        <v>324.9616857077399</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23746,28 +23800,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1103041792556903</v>
+        <v>0.1068987469998678</v>
       </c>
       <c r="J8" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01072096529075994</v>
+        <v>0.01010152074030735</v>
       </c>
       <c r="M8" t="n">
-        <v>6.366915673162245</v>
+        <v>6.369372585234609</v>
       </c>
       <c r="N8" t="n">
-        <v>66.50882621489126</v>
+        <v>66.48100460492921</v>
       </c>
       <c r="O8" t="n">
-        <v>8.155294367151393</v>
+        <v>8.153588449568032</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6803010692569</v>
+        <v>323.7133671501006</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23824,28 +23878,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2080047266385087</v>
+        <v>0.2068089544338664</v>
       </c>
       <c r="J9" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K9" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03339725703056184</v>
+        <v>0.03317097392137736</v>
       </c>
       <c r="M9" t="n">
-        <v>6.716997610483939</v>
+        <v>6.706074913855765</v>
       </c>
       <c r="N9" t="n">
-        <v>74.62163583199339</v>
+        <v>74.44678909915005</v>
       </c>
       <c r="O9" t="n">
-        <v>8.638381551656154</v>
+        <v>8.628255275497478</v>
       </c>
       <c r="P9" t="n">
-        <v>319.1657022213359</v>
+        <v>319.1772570810366</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23902,28 +23956,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07827045362902538</v>
+        <v>0.07613308353862898</v>
       </c>
       <c r="J10" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K10" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004206285971816826</v>
+        <v>0.003996264305260566</v>
       </c>
       <c r="M10" t="n">
-        <v>7.306955435379895</v>
+        <v>7.300321339693958</v>
       </c>
       <c r="N10" t="n">
-        <v>87.34156497659966</v>
+        <v>87.17934538597683</v>
       </c>
       <c r="O10" t="n">
-        <v>9.345670921694154</v>
+        <v>9.336988025373966</v>
       </c>
       <c r="P10" t="n">
-        <v>317.7748871194802</v>
+        <v>317.7953910736943</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23980,28 +24034,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1000035927096781</v>
+        <v>0.09889101341196338</v>
       </c>
       <c r="J11" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K11" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005244723733402901</v>
+        <v>0.005152837941554744</v>
       </c>
       <c r="M11" t="n">
-        <v>8.346066948996739</v>
+        <v>8.331129485167823</v>
       </c>
       <c r="N11" t="n">
-        <v>115.4793113609631</v>
+        <v>115.205038734123</v>
       </c>
       <c r="O11" t="n">
-        <v>10.74613006439821</v>
+        <v>10.73336101759943</v>
       </c>
       <c r="P11" t="n">
-        <v>320.4904334330686</v>
+        <v>320.5009100362433</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24039,7 +24093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L471"/>
+  <dimension ref="A1:L472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26294,7 +26348,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-46.776567073463106,168.52933167892496</t>
+          <t>-46.77656707346311,168.52933167892496</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -36971,7 +37025,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>-46.77793812217706,168.52526278282747</t>
+          <t>-46.777938122177055,168.52526278282747</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -40613,7 +40667,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>-46.7779965997314,168.52534121768775</t>
+          <t>-46.77799659973141,168.52534121768775</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -47359,7 +47413,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>-46.77727927751391,168.53033847064492</t>
+          <t>-46.77727927751393,168.53033847064492</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -49105,7 +49159,11 @@
           <t>2025-05-12 22:20:11+00:00</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr"/>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-46.77644708066902,168.5302230939621</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr">
         <is>
           <t>-46.77664937326565,168.52934668559362</t>
@@ -49152,6 +49210,68 @@
         </is>
       </c>
       <c r="L471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-46.776395835204816,168.53021598932125</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-46.77642941556918,168.52930657826218</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-46.776500211208514,168.52838443020133</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-46.776805729752816,168.5275178447358</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-46.77714699359454,168.52670234741672</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-46.777514151272975,168.52594599601173</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-46.777931528396536,168.52525393872654</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-46.778424968443886,168.52467632568758</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-46.77891288684338,168.52409132703275</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-46.779479274767255,168.5237024929193</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L472"/>
+  <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18158,9 +18158,7 @@
           <t>2025-05-12 22:20:11+00:00</t>
         </is>
       </c>
-      <c r="B471" t="n">
-        <v>314.4623076923077</v>
-      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="n">
         <v>327.8223076923077</v>
       </c>
@@ -18200,9 +18198,7 @@
           <t>2025-06-04 22:26:25+00:00</t>
         </is>
       </c>
-      <c r="B472" t="n">
-        <v>308.7338461538461</v>
-      </c>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="n">
         <v>303.1538461538461</v>
       </c>
@@ -18231,6 +18227,86 @@
         <v>320.55</v>
       </c>
       <c r="L472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>384.8276923076923</v>
+      </c>
+      <c r="C473" t="n">
+        <v>282.8176923076923</v>
+      </c>
+      <c r="D473" t="n">
+        <v>292.3366666666667</v>
+      </c>
+      <c r="E473" t="n">
+        <v>315.8128571428572</v>
+      </c>
+      <c r="F473" t="n">
+        <v>324.3266666666667</v>
+      </c>
+      <c r="G473" t="n">
+        <v>317.6888235294118</v>
+      </c>
+      <c r="H473" t="n">
+        <v>327.1855555555555</v>
+      </c>
+      <c r="I473" t="n">
+        <v>322.23</v>
+      </c>
+      <c r="J473" t="n">
+        <v>359.6228571428572</v>
+      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>313.9138461538461</v>
+      </c>
+      <c r="D474" t="n">
+        <v>309.1166666666667</v>
+      </c>
+      <c r="E474" t="n">
+        <v>322.8428571428572</v>
+      </c>
+      <c r="F474" t="n">
+        <v>329.3266666666667</v>
+      </c>
+      <c r="G474" t="n">
+        <v>325.4435294117647</v>
+      </c>
+      <c r="H474" t="n">
+        <v>328.8022222222222</v>
+      </c>
+      <c r="I474" t="n">
+        <v>324.42</v>
+      </c>
+      <c r="J474" t="n">
+        <v>320.4528571428572</v>
+      </c>
+      <c r="K474" t="n">
+        <v>327.3372727272728</v>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18247,7 +18323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23165,6 +23241,26 @@
       </c>
       <c r="B491" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -23332,28 +23428,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.841423686275053</v>
+        <v>2.938397745963085</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2082561186548998</v>
+        <v>0.2222711695458621</v>
       </c>
       <c r="M2" t="n">
-        <v>37.09252005851531</v>
+        <v>36.52440329495538</v>
       </c>
       <c r="N2" t="n">
-        <v>1856.489806543913</v>
+        <v>1822.248777388414</v>
       </c>
       <c r="O2" t="n">
-        <v>43.08700275656121</v>
+        <v>42.68780595660093</v>
       </c>
       <c r="P2" t="n">
-        <v>309.8807195487125</v>
+        <v>308.9416084123866</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23410,28 +23506,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06141456149936446</v>
+        <v>0.04733502624104623</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002256987095374474</v>
+        <v>0.001321445531157539</v>
       </c>
       <c r="M3" t="n">
-        <v>7.843172088736819</v>
+        <v>7.885803363770304</v>
       </c>
       <c r="N3" t="n">
-        <v>97.44708799145548</v>
+        <v>99.40434820627925</v>
       </c>
       <c r="O3" t="n">
-        <v>9.871529161758854</v>
+        <v>9.970172927601569</v>
       </c>
       <c r="P3" t="n">
-        <v>311.6161167410784</v>
+        <v>311.75492010942</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23488,28 +23584,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04032296796705701</v>
+        <v>0.02524428023923626</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00112020406310287</v>
+        <v>0.0004349806618089147</v>
       </c>
       <c r="M4" t="n">
-        <v>7.460828324728323</v>
+        <v>7.506620987561722</v>
       </c>
       <c r="N4" t="n">
-        <v>85.55445488244355</v>
+        <v>86.82132873867283</v>
       </c>
       <c r="O4" t="n">
-        <v>9.249565118557928</v>
+        <v>9.317796345631988</v>
       </c>
       <c r="P4" t="n">
-        <v>315.8024294014861</v>
+        <v>315.9485218702451</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23566,28 +23662,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02773633821339282</v>
+        <v>0.02133963038430806</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006142312002003214</v>
+        <v>0.0003658322688617766</v>
       </c>
       <c r="M5" t="n">
-        <v>6.894162643255135</v>
+        <v>6.895058388757136</v>
       </c>
       <c r="N5" t="n">
-        <v>74.29629914923821</v>
+        <v>74.20182866370703</v>
       </c>
       <c r="O5" t="n">
-        <v>8.619530100257101</v>
+        <v>8.61404833186505</v>
       </c>
       <c r="P5" t="n">
-        <v>325.334376971378</v>
+        <v>325.396350929555</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23644,28 +23740,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01033845409590495</v>
+        <v>-0.01394271165478079</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K6" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L6" t="n">
-        <v>9.232919181156873e-05</v>
+        <v>0.000169301645976172</v>
       </c>
       <c r="M6" t="n">
-        <v>6.619390042989256</v>
+        <v>6.604825189875883</v>
       </c>
       <c r="N6" t="n">
-        <v>68.72406504930665</v>
+        <v>68.47273367629253</v>
       </c>
       <c r="O6" t="n">
-        <v>8.289997891996514</v>
+        <v>8.274825295816978</v>
       </c>
       <c r="P6" t="n">
-        <v>330.9763441610947</v>
+        <v>331.0112136690668</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23722,28 +23818,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06100038150655623</v>
+        <v>0.05640916340850676</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K7" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003029995349242198</v>
+        <v>0.002610422917267208</v>
       </c>
       <c r="M7" t="n">
-        <v>6.597855938301807</v>
+        <v>6.589587222134156</v>
       </c>
       <c r="N7" t="n">
-        <v>72.79356430144962</v>
+        <v>72.61912360047555</v>
       </c>
       <c r="O7" t="n">
-        <v>8.531914456993203</v>
+        <v>8.52168549058668</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9616857077399</v>
+        <v>325.005915409987</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23800,28 +23896,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1068987469998678</v>
+        <v>0.1082617994084919</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K8" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01010152074030735</v>
+        <v>0.01045283715133793</v>
       </c>
       <c r="M8" t="n">
-        <v>6.369372585234609</v>
+        <v>6.344428006567444</v>
       </c>
       <c r="N8" t="n">
-        <v>66.48100460492921</v>
+        <v>66.15335918832911</v>
       </c>
       <c r="O8" t="n">
-        <v>8.153588449568032</v>
+        <v>8.133471533627514</v>
       </c>
       <c r="P8" t="n">
-        <v>323.7133671501006</v>
+        <v>323.7001028765905</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23878,28 +23974,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2068089544338664</v>
+        <v>0.2057380002101194</v>
       </c>
       <c r="J9" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K9" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03317097392137736</v>
+        <v>0.03313365726123141</v>
       </c>
       <c r="M9" t="n">
-        <v>6.706074913855765</v>
+        <v>6.677333645878764</v>
       </c>
       <c r="N9" t="n">
-        <v>74.44678909915005</v>
+        <v>74.07746648568386</v>
       </c>
       <c r="O9" t="n">
-        <v>8.628255275497478</v>
+        <v>8.606826737287317</v>
       </c>
       <c r="P9" t="n">
-        <v>319.1772570810366</v>
+        <v>319.1876206608717</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23956,28 +24052,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07613308353862898</v>
+        <v>0.09376416305354898</v>
       </c>
       <c r="J10" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K10" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003996264305260566</v>
+        <v>0.005837953145220509</v>
       </c>
       <c r="M10" t="n">
-        <v>7.300321339693958</v>
+        <v>7.368359929362152</v>
       </c>
       <c r="N10" t="n">
-        <v>87.17934538597683</v>
+        <v>90.72300533724267</v>
       </c>
       <c r="O10" t="n">
-        <v>9.336988025373966</v>
+        <v>9.524862483901941</v>
       </c>
       <c r="P10" t="n">
-        <v>317.7953910736943</v>
+        <v>317.6260139604307</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24034,28 +24130,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09889101341196338</v>
+        <v>0.1007717837598751</v>
       </c>
       <c r="J11" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005152837941554744</v>
+        <v>0.005372797336562818</v>
       </c>
       <c r="M11" t="n">
-        <v>8.331129485167823</v>
+        <v>8.321409187502539</v>
       </c>
       <c r="N11" t="n">
-        <v>115.205038734123</v>
+        <v>114.9618479172713</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73336101759943</v>
+        <v>10.72202629717309</v>
       </c>
       <c r="P11" t="n">
-        <v>320.5009100362433</v>
+        <v>320.4831561097649</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24093,7 +24189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L472"/>
+  <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49159,11 +49255,7 @@
           <t>2025-05-12 22:20:11+00:00</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>-46.77644708066902,168.5302230939621</t>
-        </is>
-      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr">
         <is>
           <t>-46.77664937326565,168.52934668559362</t>
@@ -49221,11 +49313,7 @@
           <t>2025-06-04 22:26:25+00:00</t>
         </is>
       </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>-46.776395835204816,168.53021598932125</t>
-        </is>
-      </c>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr">
         <is>
           <t>-46.77642941556918,168.52930657826218</t>
@@ -49272,6 +49360,122 @@
         </is>
       </c>
       <c r="L472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-46.77707655275948,168.53031036441897</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-46.77624808712638,168.5292735148308</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-46.776455760457466,168.52837225625117</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-46.7768267204309,168.52752769608196</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-46.77717492286355,168.52672496608133</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-46.777507991016584,168.52593929308887</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-46.77798540206182,168.52532619844283</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-46.778426917800594,168.52467975027992</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-46.77913742694024,168.52457590357093</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-46.776525357703086,168.52932407242525</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-46.776603949249385,168.52841284152785</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-46.776886845646715,168.5275559140927</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-46.77721418612196,168.52675676368014</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-46.77756380589064,168.52600002484996</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-46.77799608574005,168.52534052827966</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-46.778439473948936,168.52470180868943</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-46.778940596425834,168.52415112620994</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-46.77951160511982,168.52377777692743</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L474"/>
+  <dimension ref="A1:L477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18312,6 +18312,132 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>386.2984615384616</v>
+      </c>
+      <c r="C475" t="n">
+        <v>295.0684615384615</v>
+      </c>
+      <c r="D475" t="n">
+        <v>294.4433333333333</v>
+      </c>
+      <c r="E475" t="n">
+        <v>313.5557142857143</v>
+      </c>
+      <c r="F475" t="n">
+        <v>321.3033333333333</v>
+      </c>
+      <c r="G475" t="n">
+        <v>323.12</v>
+      </c>
+      <c r="H475" t="n">
+        <v>325.2144444444444</v>
+      </c>
+      <c r="I475" t="n">
+        <v>323.56</v>
+      </c>
+      <c r="J475" t="n">
+        <v>321.8157142857143</v>
+      </c>
+      <c r="K475" t="n">
+        <v>319.2963636363637</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:21:01+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>386.73</v>
+      </c>
+      <c r="C476" t="n">
+        <v>296.14</v>
+      </c>
+      <c r="D476" t="n">
+        <v>293.5633333333333</v>
+      </c>
+      <c r="E476" t="n">
+        <v>306.0042857142857</v>
+      </c>
+      <c r="F476" t="n">
+        <v>325.9233333333333</v>
+      </c>
+      <c r="G476" t="n">
+        <v>322.4329411764706</v>
+      </c>
+      <c r="H476" t="n">
+        <v>326.1777777777777</v>
+      </c>
+      <c r="I476" t="n">
+        <v>329.155</v>
+      </c>
+      <c r="J476" t="n">
+        <v>326.1642857142857</v>
+      </c>
+      <c r="K476" t="n">
+        <v>326.7718181818182</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:21:03+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>397.3830769230769</v>
+      </c>
+      <c r="C477" t="n">
+        <v>308.1230769230769</v>
+      </c>
+      <c r="D477" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="E477" t="n">
+        <v>327.3871428571428</v>
+      </c>
+      <c r="F477" t="n">
+        <v>333.99</v>
+      </c>
+      <c r="G477" t="n">
+        <v>338.2558823529412</v>
+      </c>
+      <c r="H477" t="n">
+        <v>340.4466666666667</v>
+      </c>
+      <c r="I477" t="n">
+        <v>336.88</v>
+      </c>
+      <c r="J477" t="n">
+        <v>341.9171428571428</v>
+      </c>
+      <c r="K477" t="n">
+        <v>342.7909090909091</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18323,7 +18449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23261,6 +23387,36 @@
       </c>
       <c r="B493" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -23428,28 +23584,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.938397745963085</v>
+        <v>2.948298303200081</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2222711695458621</v>
+        <v>0.226970614339807</v>
       </c>
       <c r="M2" t="n">
-        <v>36.52440329495538</v>
+        <v>36.13850003787436</v>
       </c>
       <c r="N2" t="n">
-        <v>1822.248777388414</v>
+        <v>1801.39789926078</v>
       </c>
       <c r="O2" t="n">
-        <v>42.68780595660093</v>
+        <v>42.44287807466383</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9416084123866</v>
+        <v>308.8448431792848</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23506,28 +23662,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04733502624104623</v>
+        <v>0.02883605828883448</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001321445531157539</v>
+        <v>0.0004898168754821075</v>
       </c>
       <c r="M3" t="n">
-        <v>7.885803363770304</v>
+        <v>7.930657101040535</v>
       </c>
       <c r="N3" t="n">
-        <v>99.40434820627925</v>
+        <v>100.2596849289564</v>
       </c>
       <c r="O3" t="n">
-        <v>9.970172927601569</v>
+        <v>10.01297582784241</v>
       </c>
       <c r="P3" t="n">
-        <v>311.75492010942</v>
+        <v>311.9380147612671</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23584,28 +23740,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02524428023923626</v>
+        <v>-0.001411695429934142</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004349806618089147</v>
+        <v>1.334274936093394e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>7.506620987561722</v>
+        <v>7.601607343561766</v>
       </c>
       <c r="N4" t="n">
-        <v>86.82132873867283</v>
+        <v>89.16538436024186</v>
       </c>
       <c r="O4" t="n">
-        <v>9.317796345631988</v>
+        <v>9.442742417340519</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9485218702451</v>
+        <v>316.2077858550453</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23662,28 +23818,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02133963038430806</v>
+        <v>0.006886327492329687</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003658322688617766</v>
+        <v>3.792509741684658e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.895058388757136</v>
+        <v>6.934359257292222</v>
       </c>
       <c r="N5" t="n">
-        <v>74.20182866370703</v>
+        <v>75.07183032942322</v>
       </c>
       <c r="O5" t="n">
-        <v>8.61404833186505</v>
+        <v>8.664400171357693</v>
       </c>
       <c r="P5" t="n">
-        <v>325.396350929555</v>
+        <v>325.5368823949426</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23740,28 +23896,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01394271165478079</v>
+        <v>-0.01883184493133802</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000169301645976172</v>
+        <v>0.0003119096208668015</v>
       </c>
       <c r="M6" t="n">
-        <v>6.604825189875883</v>
+        <v>6.5983164566094</v>
       </c>
       <c r="N6" t="n">
-        <v>68.47273367629253</v>
+        <v>68.24915780744455</v>
       </c>
       <c r="O6" t="n">
-        <v>8.274825295816978</v>
+        <v>8.26130484895967</v>
       </c>
       <c r="P6" t="n">
-        <v>331.0112136690668</v>
+        <v>331.0586150205227</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23818,28 +23974,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05640916340850676</v>
+        <v>0.05843031878235112</v>
       </c>
       <c r="J7" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002610422917267208</v>
+        <v>0.002824594133975511</v>
       </c>
       <c r="M7" t="n">
-        <v>6.589587222134156</v>
+        <v>6.58798507480453</v>
       </c>
       <c r="N7" t="n">
-        <v>72.61912360047555</v>
+        <v>72.48541565636536</v>
       </c>
       <c r="O7" t="n">
-        <v>8.52168549058668</v>
+        <v>8.513836717741619</v>
       </c>
       <c r="P7" t="n">
-        <v>325.005915409987</v>
+        <v>324.9862532775948</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23896,28 +24052,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1082617994084919</v>
+        <v>0.1137324600021745</v>
       </c>
       <c r="J8" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K8" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01045283715133793</v>
+        <v>0.01159685579849501</v>
       </c>
       <c r="M8" t="n">
-        <v>6.344428006567444</v>
+        <v>6.336173241471386</v>
       </c>
       <c r="N8" t="n">
-        <v>66.15335918832911</v>
+        <v>66.14425844057634</v>
       </c>
       <c r="O8" t="n">
-        <v>8.133471533627514</v>
+        <v>8.132912051693189</v>
       </c>
       <c r="P8" t="n">
-        <v>323.7001028765905</v>
+        <v>323.6465582067743</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23974,28 +24130,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2057380002101194</v>
+        <v>0.2128099603979194</v>
       </c>
       <c r="J9" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K9" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03313365726123141</v>
+        <v>0.03564124569190297</v>
       </c>
       <c r="M9" t="n">
-        <v>6.677333645878764</v>
+        <v>6.675318399432942</v>
       </c>
       <c r="N9" t="n">
-        <v>74.07746648568386</v>
+        <v>73.95211013868679</v>
       </c>
       <c r="O9" t="n">
-        <v>8.606826737287317</v>
+        <v>8.599541274898725</v>
       </c>
       <c r="P9" t="n">
-        <v>319.1876206608717</v>
+        <v>319.11877186653</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24052,28 +24208,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09376416305354898</v>
+        <v>0.1065412408699708</v>
       </c>
       <c r="J10" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K10" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005837953145220509</v>
+        <v>0.007520699202973047</v>
       </c>
       <c r="M10" t="n">
-        <v>7.368359929362152</v>
+        <v>7.389342555645255</v>
       </c>
       <c r="N10" t="n">
-        <v>90.72300533724267</v>
+        <v>91.32395082011041</v>
       </c>
       <c r="O10" t="n">
-        <v>9.524862483901941</v>
+        <v>9.556356566187263</v>
       </c>
       <c r="P10" t="n">
-        <v>317.6260139604307</v>
+        <v>317.5025548990878</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24130,28 +24286,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1007717837598751</v>
+        <v>0.109269455955067</v>
       </c>
       <c r="J11" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K11" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005372797336562818</v>
+        <v>0.006343483790170579</v>
       </c>
       <c r="M11" t="n">
-        <v>8.321409187502539</v>
+        <v>8.328635892600452</v>
       </c>
       <c r="N11" t="n">
-        <v>114.9618479172713</v>
+        <v>115.131160441735</v>
       </c>
       <c r="O11" t="n">
-        <v>10.72202629717309</v>
+        <v>10.72991893919684</v>
       </c>
       <c r="P11" t="n">
-        <v>320.4831561097649</v>
+        <v>320.402493911267</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24189,7 +24345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L474"/>
+  <dimension ref="A1:L477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49481,6 +49637,192 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-46.77708970991272,168.5303121885522</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-46.77635732178987,168.5292934326597</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-46.77647436501032,168.52837735157124</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-46.77680741584921,168.52751863605437</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-46.77715118167635,168.52670573915503</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-46.77754708217728,168.52598182788205</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-46.77797237604921,168.5253087268831</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-46.778434543224485,168.5246931464817</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-46.77894744485179,168.52416590560173</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-46.779473303216975,168.52368858767267</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:21:01+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-46.77709357035362,168.53031272377132</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-46.77636687622191,168.52929517481618</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-46.77646659348825,168.528375223146</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-46.7767428310233,168.52748832514519</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-46.77718746093154,168.52673512010966</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-46.77754213703825,168.5259764471099</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-46.777978742201114,168.5253172656883</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-46.77846662158956,168.52474950122217</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-46.77896929663084,168.5242130633513</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-46.77950891164728,168.52377150493712</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:21:03+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-46.77718887025639,168.53032593635552</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-46.77647372398981,168.52931465748767</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-46.77655787943328,168.5284002241137</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-46.77692571138491,168.5275741546222</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-46.77725080564759,168.5267864202811</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-46.777656023364116,168.52610036635573</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-46.77807303754645,168.5254437426667</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-46.77851091205147,168.5248273101576</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-46.77904845533754,168.52438389433027</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-46.77958521647308,168.52394918804885</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L477"/>
+  <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18438,6 +18438,170 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="n">
+        <v>303.5423076923077</v>
+      </c>
+      <c r="D478" t="n">
+        <v>301.0966666666666</v>
+      </c>
+      <c r="E478" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="F478" t="n">
+        <v>329.6966666666667</v>
+      </c>
+      <c r="G478" t="n">
+        <v>331.6658823529411</v>
+      </c>
+      <c r="H478" t="n">
+        <v>332.8888888888889</v>
+      </c>
+      <c r="I478" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="J478" t="n">
+        <v>333.91</v>
+      </c>
+      <c r="K478" t="n">
+        <v>337.5490909090909</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>303.5776923076923</v>
+      </c>
+      <c r="D479" t="n">
+        <v>304.9933333333333</v>
+      </c>
+      <c r="E479" t="n">
+        <v>320.52</v>
+      </c>
+      <c r="F479" t="n">
+        <v>330.0133333333333</v>
+      </c>
+      <c r="G479" t="n">
+        <v>327.4141176470588</v>
+      </c>
+      <c r="H479" t="n">
+        <v>334.9411111111111</v>
+      </c>
+      <c r="I479" t="n">
+        <v>331.69</v>
+      </c>
+      <c r="J479" t="n">
+        <v>328.32</v>
+      </c>
+      <c r="K479" t="n">
+        <v>330.7809090909091</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>422.6761538461539</v>
+      </c>
+      <c r="C480" t="n">
+        <v>310.3761538461538</v>
+      </c>
+      <c r="D480" t="n">
+        <v>317.9966666666667</v>
+      </c>
+      <c r="E480" t="n">
+        <v>327.2071428571429</v>
+      </c>
+      <c r="F480" t="n">
+        <v>332.0766666666667</v>
+      </c>
+      <c r="G480" t="n">
+        <v>332.5323529411764</v>
+      </c>
+      <c r="H480" t="n">
+        <v>332.2988888888889</v>
+      </c>
+      <c r="I480" t="n">
+        <v>332.055</v>
+      </c>
+      <c r="J480" t="n">
+        <v>328.4471428571428</v>
+      </c>
+      <c r="K480" t="n">
+        <v>329.0181818181818</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>393.9215384615384</v>
+      </c>
+      <c r="C481" t="n">
+        <v>310.1915384615385</v>
+      </c>
+      <c r="D481" t="n">
+        <v>317.4766666666666</v>
+      </c>
+      <c r="E481" t="n">
+        <v>322.34</v>
+      </c>
+      <c r="F481" t="n">
+        <v>329.4666666666666</v>
+      </c>
+      <c r="G481" t="n">
+        <v>324.3352941176471</v>
+      </c>
+      <c r="H481" t="n">
+        <v>327.3355555555555</v>
+      </c>
+      <c r="I481" t="n">
+        <v>324.335</v>
+      </c>
+      <c r="J481" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="K481" t="n">
+        <v>318.420909090909</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18449,7 +18613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23417,6 +23581,46 @@
       </c>
       <c r="B496" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -23584,28 +23788,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.948298303200081</v>
+        <v>2.977808198511144</v>
       </c>
       <c r="J2" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.226970614339807</v>
+        <v>0.2323340446794512</v>
       </c>
       <c r="M2" t="n">
-        <v>36.13850003787436</v>
+        <v>35.98685485978603</v>
       </c>
       <c r="N2" t="n">
-        <v>1801.39789926078</v>
+        <v>1792.922528934288</v>
       </c>
       <c r="O2" t="n">
-        <v>42.44287807466383</v>
+        <v>42.34291592385069</v>
       </c>
       <c r="P2" t="n">
-        <v>308.8448431792848</v>
+        <v>308.5551481975074</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23662,28 +23866,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02883605828883448</v>
+        <v>0.01830249575006717</v>
       </c>
       <c r="J3" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K3" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004898168754821075</v>
+        <v>0.0002002572592690877</v>
       </c>
       <c r="M3" t="n">
-        <v>7.930657101040535</v>
+        <v>7.907768758518885</v>
       </c>
       <c r="N3" t="n">
-        <v>100.2596849289564</v>
+        <v>99.65666162709181</v>
       </c>
       <c r="O3" t="n">
-        <v>10.01297582784241</v>
+        <v>9.982818320849669</v>
       </c>
       <c r="P3" t="n">
-        <v>311.9380147612671</v>
+        <v>312.0427284213536</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23740,28 +23944,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.001411695429934142</v>
+        <v>-0.01179928142815463</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>1.334274936093394e-06</v>
+        <v>9.404805775437008e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.601607343561766</v>
+        <v>7.601693126683873</v>
       </c>
       <c r="N4" t="n">
-        <v>89.16538436024186</v>
+        <v>89.15675535437813</v>
       </c>
       <c r="O4" t="n">
-        <v>9.442742417340519</v>
+        <v>9.442285494221096</v>
       </c>
       <c r="P4" t="n">
-        <v>316.2077858550453</v>
+        <v>316.3091279568553</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23818,28 +24022,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006886327492329687</v>
+        <v>0.0009885216244899632</v>
       </c>
       <c r="J5" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L5" t="n">
-        <v>3.792509741684658e-05</v>
+        <v>7.948164174598205e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>6.934359257292222</v>
+        <v>6.904038314449263</v>
       </c>
       <c r="N5" t="n">
-        <v>75.07183032942322</v>
+        <v>74.46789676455145</v>
       </c>
       <c r="O5" t="n">
-        <v>8.664400171357693</v>
+        <v>8.629478359932971</v>
       </c>
       <c r="P5" t="n">
-        <v>325.5368823949426</v>
+        <v>325.5944859926651</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23896,28 +24100,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01883184493133802</v>
+        <v>-0.01928832743201951</v>
       </c>
       <c r="J6" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003119096208668015</v>
+        <v>0.0003334555550164042</v>
       </c>
       <c r="M6" t="n">
-        <v>6.5983164566094</v>
+        <v>6.540342835412726</v>
       </c>
       <c r="N6" t="n">
-        <v>68.24915780744455</v>
+        <v>67.55370156929166</v>
       </c>
       <c r="O6" t="n">
-        <v>8.26130484895967</v>
+        <v>8.219105886244055</v>
       </c>
       <c r="P6" t="n">
-        <v>331.0586150205227</v>
+        <v>331.0630665049226</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23974,28 +24178,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05843031878235112</v>
+        <v>0.06283801872733762</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002824594133975511</v>
+        <v>0.003320158402367546</v>
       </c>
       <c r="M7" t="n">
-        <v>6.58798507480453</v>
+        <v>6.556688901779107</v>
       </c>
       <c r="N7" t="n">
-        <v>72.48541565636536</v>
+        <v>71.91578914993607</v>
       </c>
       <c r="O7" t="n">
-        <v>8.513836717741619</v>
+        <v>8.480317750528931</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9862532775948</v>
+        <v>324.9434615701599</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24052,28 +24256,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1137324600021745</v>
+        <v>0.1228471382626401</v>
       </c>
       <c r="J8" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01159685579849501</v>
+        <v>0.01367768407212022</v>
       </c>
       <c r="M8" t="n">
-        <v>6.336173241471386</v>
+        <v>6.3251422646284</v>
       </c>
       <c r="N8" t="n">
-        <v>66.14425844057634</v>
+        <v>65.8260556666346</v>
       </c>
       <c r="O8" t="n">
-        <v>8.132912051693189</v>
+        <v>8.113325807992343</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6465582067743</v>
+        <v>323.5571755657259</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24130,28 +24334,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2128099603979194</v>
+        <v>0.2232386401145016</v>
       </c>
       <c r="J9" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03564124569190297</v>
+        <v>0.03950650892506324</v>
       </c>
       <c r="M9" t="n">
-        <v>6.675318399432942</v>
+        <v>6.676019660626817</v>
       </c>
       <c r="N9" t="n">
-        <v>73.95211013868679</v>
+        <v>73.71663771852111</v>
       </c>
       <c r="O9" t="n">
-        <v>8.599541274898725</v>
+        <v>8.585839371809906</v>
       </c>
       <c r="P9" t="n">
-        <v>319.11877186653</v>
+        <v>319.0170134578871</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24208,28 +24412,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1065412408699708</v>
+        <v>0.1209011832461722</v>
       </c>
       <c r="J10" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007520699202973047</v>
+        <v>0.009749053674008246</v>
       </c>
       <c r="M10" t="n">
-        <v>7.389342555645255</v>
+        <v>7.402385303555532</v>
       </c>
       <c r="N10" t="n">
-        <v>91.32395082011041</v>
+        <v>91.23209114168684</v>
       </c>
       <c r="O10" t="n">
-        <v>9.556356566187263</v>
+        <v>9.551549148786643</v>
       </c>
       <c r="P10" t="n">
-        <v>317.5025548990878</v>
+        <v>317.3633929674923</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24286,28 +24490,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.109269455955067</v>
+        <v>0.1189016249163595</v>
       </c>
       <c r="J11" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006343483790170579</v>
+        <v>0.007589872173486056</v>
       </c>
       <c r="M11" t="n">
-        <v>8.328635892600452</v>
+        <v>8.32831217708913</v>
       </c>
       <c r="N11" t="n">
-        <v>115.131160441735</v>
+        <v>114.7715987203304</v>
       </c>
       <c r="O11" t="n">
-        <v>10.72991893919684</v>
+        <v>10.71315073731022</v>
       </c>
       <c r="P11" t="n">
-        <v>320.402493911267</v>
+        <v>320.3109902510344</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24345,7 +24549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L477"/>
+  <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49823,6 +50027,246 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-46.776432879307954,168.5293072098421</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-46.7765331224263,168.528393443773</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-46.77686167638407,168.52754410162834</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-46.7772170916028,168.52675911670423</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-46.777608591559115,168.52604875592417</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-46.77802309230914,168.52537675176868</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-46.7784987572629,168.52480595675405</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-46.779008219169825,168.524297061253</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-46.77956024779245,168.52389104595574</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-46.776433194816825,168.52930726737216</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-46.77656753496032,168.52840286852864</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-46.776866979034615,168.52754659027286</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-46.77721957827554,168.52676113055387</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-46.777577989291125,168.5260154577302</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-46.778036654331636,168.52539494231638</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-46.778481155746526,168.52477503462558</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-46.77898012919131,168.52423644084416</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-46.779528008447215,168.52381597356376</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-46.77741513612729,168.5303573064832</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-46.77649381367454,168.52931832065707</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-46.776682370966206,168.52843431939309</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-46.77692417190587,168.52757343211098</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-46.77723578091091,168.52677425237863</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-46.77761482801916,168.52605554179476</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-46.77801919331897,168.52537152211102</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-46.778483248435364,168.52477871103392</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-46.778980768089696,168.5242378196363</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-46.77951961191973,168.5237964214811</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-46.77715790415336,168.53032164314436</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-46.77649216754128,168.5293180204997</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-46.776677778703586,168.52843306167873</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-46.77688254487956,168.52755389565147</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-46.77721528549309,168.52675765401355</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-46.777555829314764,168.5259913455859</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-46.77798639333101,168.52532752801508</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-46.77843898660992,168.52470095254088</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-46.77896143602255,168.5241960995703</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-46.77946913309064,168.52367887719413</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L481"/>
+  <dimension ref="A1:L482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18602,6 +18602,48 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>420.6692307692308</v>
+      </c>
+      <c r="C482" t="n">
+        <v>318.3792307692308</v>
+      </c>
+      <c r="D482" t="n">
+        <v>323.72</v>
+      </c>
+      <c r="E482" t="n">
+        <v>327.8828571428572</v>
+      </c>
+      <c r="F482" t="n">
+        <v>332.77</v>
+      </c>
+      <c r="G482" t="n">
+        <v>328.7458823529412</v>
+      </c>
+      <c r="H482" t="n">
+        <v>323.0033333333333</v>
+      </c>
+      <c r="I482" t="n">
+        <v>326.105</v>
+      </c>
+      <c r="J482" t="n">
+        <v>325.8228571428572</v>
+      </c>
+      <c r="K482" t="n">
+        <v>324.9336363636364</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18613,7 +18655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23621,6 +23663,16 @@
       </c>
       <c r="B500" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -23788,28 +23840,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2.977808198511144</v>
+        <v>3.000079625223843</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2323340446794512</v>
+        <v>0.235739966997799</v>
       </c>
       <c r="M2" t="n">
-        <v>35.98685485978603</v>
+        <v>35.94445061802671</v>
       </c>
       <c r="N2" t="n">
-        <v>1792.922528934288</v>
+        <v>1790.535959823517</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34291592385069</v>
+        <v>42.31472509450483</v>
       </c>
       <c r="P2" t="n">
-        <v>308.5551481975074</v>
+        <v>308.3359595584295</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23866,28 +23918,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01830249575006717</v>
+        <v>0.02097707095637374</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002002572592690877</v>
+        <v>0.0002640474611007582</v>
       </c>
       <c r="M3" t="n">
-        <v>7.907768758518885</v>
+        <v>7.902188987410628</v>
       </c>
       <c r="N3" t="n">
-        <v>99.65666162709181</v>
+        <v>99.48271977988068</v>
       </c>
       <c r="O3" t="n">
-        <v>9.982818320849669</v>
+        <v>9.974102454851799</v>
       </c>
       <c r="P3" t="n">
-        <v>312.0427284213536</v>
+        <v>312.0160344795769</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23944,28 +23996,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01179928142815463</v>
+        <v>-0.008328389391381957</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>9.404805775437008e-05</v>
+        <v>4.70007304682607e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.601693126683873</v>
+        <v>7.600891601111743</v>
       </c>
       <c r="N4" t="n">
-        <v>89.15675535437813</v>
+        <v>89.07938920428104</v>
       </c>
       <c r="O4" t="n">
-        <v>9.442285494221096</v>
+        <v>9.438187813573167</v>
       </c>
       <c r="P4" t="n">
-        <v>316.3091279568553</v>
+        <v>316.2751013219126</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24022,28 +24074,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009885216244899632</v>
+        <v>0.002022379150438681</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K5" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L5" t="n">
-        <v>7.948164174598205e-07</v>
+        <v>3.342144961449023e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>6.904038314449263</v>
+        <v>6.891468940671514</v>
       </c>
       <c r="N5" t="n">
-        <v>74.46789676455145</v>
+        <v>74.28384752708071</v>
       </c>
       <c r="O5" t="n">
-        <v>8.629478359932971</v>
+        <v>8.618807778752274</v>
       </c>
       <c r="P5" t="n">
-        <v>325.5944859926651</v>
+        <v>325.584348561037</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24100,28 +24152,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01928832743201951</v>
+        <v>-0.01830163135459793</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003334555550164042</v>
+        <v>0.0003015821328412605</v>
       </c>
       <c r="M6" t="n">
-        <v>6.540342835412726</v>
+        <v>6.52923599336902</v>
       </c>
       <c r="N6" t="n">
-        <v>67.55370156929166</v>
+        <v>67.3916697652857</v>
       </c>
       <c r="O6" t="n">
-        <v>8.219105886244055</v>
+        <v>8.209242947147178</v>
       </c>
       <c r="P6" t="n">
-        <v>331.0630665049226</v>
+        <v>331.0534052122086</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24178,28 +24230,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06283801872733762</v>
+        <v>0.06379931612133763</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K7" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003320158402367546</v>
+        <v>0.003437710613057976</v>
       </c>
       <c r="M7" t="n">
-        <v>6.556688901779107</v>
+        <v>6.545352866211007</v>
       </c>
       <c r="N7" t="n">
-        <v>71.91578914993607</v>
+        <v>71.74375580663026</v>
       </c>
       <c r="O7" t="n">
-        <v>8.480317750528931</v>
+        <v>8.470168581948665</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9434615701599</v>
+        <v>324.9340890016333</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24256,28 +24308,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1228471382626401</v>
+        <v>0.1212212821349121</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K8" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01367768407212022</v>
+        <v>0.01337524586360417</v>
       </c>
       <c r="M8" t="n">
-        <v>6.3251422646284</v>
+        <v>6.318607399567379</v>
       </c>
       <c r="N8" t="n">
-        <v>65.8260556666346</v>
+        <v>65.69520521701307</v>
       </c>
       <c r="O8" t="n">
-        <v>8.113325807992343</v>
+        <v>8.105257874800349</v>
       </c>
       <c r="P8" t="n">
-        <v>323.5571755657259</v>
+        <v>323.5731810860573</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24334,28 +24386,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2232386401145016</v>
+        <v>0.2237847763809472</v>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K9" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03950650892506324</v>
+        <v>0.03986235655768966</v>
       </c>
       <c r="M9" t="n">
-        <v>6.676019660626817</v>
+        <v>6.662668656012255</v>
       </c>
       <c r="N9" t="n">
-        <v>73.71663771852111</v>
+        <v>73.53498019053994</v>
       </c>
       <c r="O9" t="n">
-        <v>8.585839371809906</v>
+        <v>8.575253943210075</v>
       </c>
       <c r="P9" t="n">
-        <v>319.0170134578871</v>
+        <v>319.0116625744618</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24412,28 +24464,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1209011832461722</v>
+        <v>0.1231298590309172</v>
       </c>
       <c r="J10" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K10" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009749053674008246</v>
+        <v>0.01014466008525094</v>
       </c>
       <c r="M10" t="n">
-        <v>7.402385303555532</v>
+        <v>7.397665202508513</v>
       </c>
       <c r="N10" t="n">
-        <v>91.23209114168684</v>
+        <v>91.07552847473389</v>
       </c>
       <c r="O10" t="n">
-        <v>9.551549148786643</v>
+        <v>9.543349960822662</v>
       </c>
       <c r="P10" t="n">
-        <v>317.3633929674923</v>
+        <v>317.3417114087417</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24490,28 +24542,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1189016249163595</v>
+        <v>0.1195460468463666</v>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K11" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007589872173486056</v>
+        <v>0.007706100504581537</v>
       </c>
       <c r="M11" t="n">
-        <v>8.32831217708913</v>
+        <v>8.311688176127033</v>
       </c>
       <c r="N11" t="n">
-        <v>114.7715987203304</v>
+        <v>114.4952655726964</v>
       </c>
       <c r="O11" t="n">
-        <v>10.71315073731022</v>
+        <v>10.70024605196985</v>
       </c>
       <c r="P11" t="n">
-        <v>320.3109902510344</v>
+        <v>320.3048383234835</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24549,7 +24601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L481"/>
+  <dimension ref="A1:L482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50267,6 +50319,68 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-46.77739718266937,168.5303548173589</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-46.77656517355099,168.5293313324926</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-46.77673291529206,168.5284481623253</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-46.776929951061355,168.52757614439537</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-46.77724122541493,168.52677866165263</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-46.77758757472849,168.52602588759768</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-46.77795776400289,168.5252891280184</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-46.77844913472707,168.52471878057779</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-46.778967580936644,168.52420936075393</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-46.77950015569411,168.52375111593136</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L482"/>
+  <dimension ref="A1:L484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18644,6 +18644,80 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:59+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>425.1446153846153</v>
+      </c>
+      <c r="C483" t="n">
+        <v>314.1046153846154</v>
+      </c>
+      <c r="D483" t="n">
+        <v>316.75</v>
+      </c>
+      <c r="E483" t="n">
+        <v>324.9585714285714</v>
+      </c>
+      <c r="F483" t="n">
+        <v>330.94</v>
+      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:37+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>435.6392307692308</v>
+      </c>
+      <c r="C484" t="n">
+        <v>326.0292307692308</v>
+      </c>
+      <c r="D484" t="n">
+        <v>323.8066666666667</v>
+      </c>
+      <c r="E484" t="n">
+        <v>332.1771428571428</v>
+      </c>
+      <c r="F484" t="n">
+        <v>336.9866666666667</v>
+      </c>
+      <c r="G484" t="n">
+        <v>333.7047058823529</v>
+      </c>
+      <c r="H484" t="n">
+        <v>327.6722222222222</v>
+      </c>
+      <c r="I484" t="n">
+        <v>327.885</v>
+      </c>
+      <c r="J484" t="n">
+        <v>326.9971428571428</v>
+      </c>
+      <c r="K484" t="n">
+        <v>328.6909090909091</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18655,7 +18729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23673,6 +23747,26 @@
       </c>
       <c r="B501" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -24601,7 +24695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L482"/>
+  <dimension ref="A1:L484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50381,6 +50475,110 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:59+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.7774372183988,168.53036036804104</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.77652705870744,168.52932438258813</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.77667136131094,168.52843130410392</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.77690494063544,168.52756440645817</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.77722685506508,168.52676702371494</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:37+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.77753110073856,168.53037338421427</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.77663338519675,168.52934377030243</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.77673368066915,168.52844837194473</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.776966678631915,168.5275933814627</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.777274337419406,168.52680547768864</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.777623266080276,168.526064723223</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.77798861817956,168.5253305121663</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.778459340175615,168.52473670934486</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-46.77897348177568,168.52422209521126</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-46.77951805299731,168.52379279138907</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -23934,28 +23934,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>3.000079625223843</v>
+        <v>3.055657217138875</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.235739966997799</v>
+        <v>0.2433402133730566</v>
       </c>
       <c r="M2" t="n">
-        <v>35.94445061802671</v>
+        <v>35.91478886964162</v>
       </c>
       <c r="N2" t="n">
-        <v>1790.535959823517</v>
+        <v>1791.328888935172</v>
       </c>
       <c r="O2" t="n">
-        <v>42.31472509450483</v>
+        <v>42.32409348037087</v>
       </c>
       <c r="P2" t="n">
-        <v>308.3359595584295</v>
+        <v>307.7868149584509</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24012,28 +24012,28 @@
         <v>0.0767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02097707095637374</v>
+        <v>0.02777955468863554</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002640474611007582</v>
+        <v>0.0004650899113060047</v>
       </c>
       <c r="M3" t="n">
-        <v>7.902188987410628</v>
+        <v>7.899141306233497</v>
       </c>
       <c r="N3" t="n">
-        <v>99.48271977988068</v>
+        <v>99.43801992678684</v>
       </c>
       <c r="O3" t="n">
-        <v>9.974102454851799</v>
+        <v>9.971861407319439</v>
       </c>
       <c r="P3" t="n">
-        <v>312.0160344795769</v>
+        <v>311.9478326292177</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24090,28 +24090,28 @@
         <v>0.0849</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.008328389391381957</v>
+        <v>-0.0045584179920997</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L4" t="n">
-        <v>4.70007304682607e-05</v>
+        <v>1.419041061534454e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.600891601111743</v>
+        <v>7.58213047234428</v>
       </c>
       <c r="N4" t="n">
-        <v>89.07938920428104</v>
+        <v>88.77645208370069</v>
       </c>
       <c r="O4" t="n">
-        <v>9.438187813573167</v>
+        <v>9.422125666944837</v>
       </c>
       <c r="P4" t="n">
-        <v>316.2751013219126</v>
+        <v>316.237976249525</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24168,28 +24168,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002022379150438681</v>
+        <v>0.004683735397695229</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K5" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L5" t="n">
-        <v>3.342144961449023e-06</v>
+        <v>1.807056140235019e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.891468940671514</v>
+        <v>6.873486842497262</v>
       </c>
       <c r="N5" t="n">
-        <v>74.28384752708071</v>
+        <v>74.00524290371916</v>
       </c>
       <c r="O5" t="n">
-        <v>8.618807778752274</v>
+        <v>8.602629999233907</v>
       </c>
       <c r="P5" t="n">
-        <v>325.584348561037</v>
+        <v>325.558120934586</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24246,28 +24246,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01830163135459793</v>
+        <v>-0.0152959821493257</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K6" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003015821328412605</v>
+        <v>0.0002123324865804799</v>
       </c>
       <c r="M6" t="n">
-        <v>6.52923599336902</v>
+        <v>6.513083631261854</v>
       </c>
       <c r="N6" t="n">
-        <v>67.3916697652857</v>
+        <v>67.15035746515206</v>
       </c>
       <c r="O6" t="n">
-        <v>8.209242947147178</v>
+        <v>8.19453216877889</v>
       </c>
       <c r="P6" t="n">
-        <v>331.0534052122086</v>
+        <v>331.0238387725657</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24324,28 +24324,28 @@
         <v>0.1026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06379931612133763</v>
+        <v>0.0669558785703897</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K7" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003437710613057976</v>
+        <v>0.003796148984871128</v>
       </c>
       <c r="M7" t="n">
-        <v>6.545352866211007</v>
+        <v>6.546305108641166</v>
       </c>
       <c r="N7" t="n">
-        <v>71.74375580663026</v>
+        <v>71.68847510265549</v>
       </c>
       <c r="O7" t="n">
-        <v>8.470168581948665</v>
+        <v>8.466904694317487</v>
       </c>
       <c r="P7" t="n">
-        <v>324.9340890016333</v>
+        <v>324.9031678384014</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24402,28 +24402,28 @@
         <v>0.1055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1212212821349121</v>
+        <v>0.1216237775347262</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01337524586360417</v>
+        <v>0.01352312627501151</v>
       </c>
       <c r="M8" t="n">
-        <v>6.318607399567379</v>
+        <v>6.305026834173144</v>
       </c>
       <c r="N8" t="n">
-        <v>65.69520521701307</v>
+        <v>65.53188408764356</v>
       </c>
       <c r="O8" t="n">
-        <v>8.105257874800349</v>
+        <v>8.095176593975177</v>
       </c>
       <c r="P8" t="n">
-        <v>323.5731810860573</v>
+        <v>323.5691997465709</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24480,28 +24480,28 @@
         <v>0.0931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2237847763809472</v>
+        <v>0.225086465843524</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K9" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03986235655768966</v>
+        <v>0.04047245935907318</v>
       </c>
       <c r="M9" t="n">
-        <v>6.662668656012255</v>
+        <v>6.654164909449209</v>
       </c>
       <c r="N9" t="n">
-        <v>73.53498019053994</v>
+        <v>73.37298749635943</v>
       </c>
       <c r="O9" t="n">
-        <v>8.575253943210075</v>
+        <v>8.56580337717131</v>
       </c>
       <c r="P9" t="n">
-        <v>319.0116625744618</v>
+        <v>318.9988474414349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24558,28 +24558,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1231298590309172</v>
+        <v>0.1258351205997734</v>
       </c>
       <c r="J10" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K10" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01014466008525094</v>
+        <v>0.01062538602445562</v>
       </c>
       <c r="M10" t="n">
-        <v>7.397665202508513</v>
+        <v>7.395817449770337</v>
       </c>
       <c r="N10" t="n">
-        <v>91.07552847473389</v>
+        <v>90.95220266806317</v>
       </c>
       <c r="O10" t="n">
-        <v>9.543349960822662</v>
+        <v>9.536886424198579</v>
       </c>
       <c r="P10" t="n">
-        <v>317.3417114087417</v>
+        <v>317.3152648460055</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24636,28 +24636,28 @@
         <v>0.0604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1195460468463666</v>
+        <v>0.1217731389494911</v>
       </c>
       <c r="J11" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K11" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007706100504581537</v>
+        <v>0.008025308705653544</v>
       </c>
       <c r="M11" t="n">
-        <v>8.311688176127033</v>
+        <v>8.304445528303736</v>
       </c>
       <c r="N11" t="n">
-        <v>114.4952655726964</v>
+        <v>114.2819697083817</v>
       </c>
       <c r="O11" t="n">
-        <v>10.70024605196985</v>
+        <v>10.6902745384944</v>
       </c>
       <c r="P11" t="n">
-        <v>320.3048383234835</v>
+        <v>320.2834758840542</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -23930,9 +23930,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>3.055641430630409</v>
       </c>
@@ -24003,13 +24009,13 @@
         <v>0.1111742475755792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.054</v>
+        <v>0.1147</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0767</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.02776603944112842</v>
@@ -24081,13 +24087,13 @@
         <v>0.2224392500288581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0639</v>
+        <v>0.083</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0849</v>
+        <v>0.1288</v>
       </c>
       <c r="I4" t="n">
         <v>-0.004572504571612732</v>
@@ -24159,13 +24165,13 @@
         <v>0.3336307083999409</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.1696</v>
       </c>
       <c r="I5" t="n">
         <v>0.004644609537603984</v>
@@ -24237,13 +24243,13 @@
         <v>0.4446242022417521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0669</v>
+        <v>0.093</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.1808</v>
       </c>
       <c r="I6" t="n">
         <v>-0.01531175009631657</v>
@@ -24315,13 +24321,13 @@
         <v>0.555889204692975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0759</v>
+        <v>0.1136</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1026</v>
+        <v>0.1876</v>
       </c>
       <c r="I7" t="n">
         <v>0.06697795366119404</v>
@@ -24393,13 +24399,13 @@
         <v>0.6670533947566197</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0775</v>
+        <v>0.1512</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1055</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.1216132573607093</v>
@@ -24471,13 +24477,13 @@
         <v>0.7775196013618835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.1435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0931</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.22509945297752</v>
@@ -24549,13 +24555,13 @@
         <v>0.8887846038123444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.064</v>
+        <v>0.0907</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="I10" t="n">
         <v>0.1258084066732349</v>
@@ -24627,13 +24633,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0493</v>
+        <v>0.066</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0604</v>
+        <v>0.0828</v>
       </c>
       <c r="I11" t="n">
         <v>0.1217492667517464</v>

--- a/data/nzd0561/nzd0561.xlsx
+++ b/data/nzd0561/nzd0561.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L486"/>
+  <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,7 @@
         <v>316.43</v>
       </c>
       <c r="J2" t="n">
-        <v>326.42</v>
+        <v>326.1</v>
       </c>
       <c r="K2" t="n">
         <v>333.05</v>
@@ -571,7 +571,7 @@
         <v>318.12</v>
       </c>
       <c r="J3" t="n">
-        <v>321.3</v>
+        <v>321.38</v>
       </c>
       <c r="K3" t="n">
         <v>321.11</v>
@@ -613,7 +613,7 @@
         <v>317.75</v>
       </c>
       <c r="J4" t="n">
-        <v>320.23</v>
+        <v>320.24</v>
       </c>
       <c r="K4" t="n">
         <v>320.54</v>
@@ -655,7 +655,7 @@
         <v>316.81</v>
       </c>
       <c r="J5" t="n">
-        <v>317.91</v>
+        <v>317.98</v>
       </c>
       <c r="K5" t="n">
         <v>316.73</v>
@@ -697,7 +697,7 @@
         <v>316.52</v>
       </c>
       <c r="J6" t="n">
-        <v>316.44</v>
+        <v>316.5</v>
       </c>
       <c r="K6" t="n">
         <v>316.34</v>
@@ -739,7 +739,7 @@
         <v>317.25</v>
       </c>
       <c r="J7" t="n">
-        <v>316.87</v>
+        <v>316.95</v>
       </c>
       <c r="K7" t="n">
         <v>317.34</v>
@@ -781,7 +781,7 @@
         <v>312</v>
       </c>
       <c r="J8" t="n">
-        <v>314.33</v>
+        <v>314.45</v>
       </c>
       <c r="K8" t="n">
         <v>314.29</v>
@@ -823,7 +823,7 @@
         <v>310.62</v>
       </c>
       <c r="J9" t="n">
-        <v>311.46</v>
+        <v>311.58</v>
       </c>
       <c r="K9" t="n">
         <v>310.95</v>
@@ -865,7 +865,7 @@
         <v>311.63</v>
       </c>
       <c r="J10" t="n">
-        <v>311.69</v>
+        <v>311.84</v>
       </c>
       <c r="K10" t="n">
         <v>312.13</v>
@@ -907,7 +907,7 @@
         <v>305.64</v>
       </c>
       <c r="J11" t="n">
-        <v>309.26</v>
+        <v>309.38</v>
       </c>
       <c r="K11" t="n">
         <v>311.65</v>
@@ -949,7 +949,7 @@
         <v>315.3</v>
       </c>
       <c r="J12" t="n">
-        <v>314.61</v>
+        <v>314.57</v>
       </c>
       <c r="K12" t="n">
         <v>318.68</v>
@@ -991,7 +991,7 @@
         <v>319.05</v>
       </c>
       <c r="J13" t="n">
-        <v>317.51</v>
+        <v>317.46</v>
       </c>
       <c r="K13" t="n">
         <v>319.33</v>
@@ -1033,7 +1033,7 @@
         <v>320.36</v>
       </c>
       <c r="J14" t="n">
-        <v>318.63</v>
+        <v>318.62</v>
       </c>
       <c r="K14" t="n">
         <v>319.36</v>
@@ -1075,7 +1075,7 @@
         <v>318.6</v>
       </c>
       <c r="J15" t="n">
-        <v>317.12</v>
+        <v>317.07</v>
       </c>
       <c r="K15" t="n">
         <v>318.71</v>
@@ -1117,7 +1117,7 @@
         <v>320.6</v>
       </c>
       <c r="J16" t="n">
-        <v>319.08</v>
+        <v>319.07</v>
       </c>
       <c r="K16" t="n">
         <v>318.19</v>
@@ -1159,7 +1159,7 @@
         <v>320.6</v>
       </c>
       <c r="J17" t="n">
-        <v>317.45</v>
+        <v>317.4</v>
       </c>
       <c r="K17" t="n">
         <v>317.62</v>
@@ -1201,7 +1201,7 @@
         <v>320.77</v>
       </c>
       <c r="J18" t="n">
-        <v>316.53</v>
+        <v>316.51</v>
       </c>
       <c r="K18" t="n">
         <v>316.07</v>
@@ -1243,7 +1243,7 @@
         <v>319.35</v>
       </c>
       <c r="J19" t="n">
-        <v>315.13</v>
+        <v>315.15</v>
       </c>
       <c r="K19" t="n">
         <v>314.56</v>
@@ -1285,7 +1285,7 @@
         <v>318.21</v>
       </c>
       <c r="J20" t="n">
-        <v>313.74</v>
+        <v>313.84</v>
       </c>
       <c r="K20" t="n">
         <v>312.06</v>
@@ -1327,7 +1327,7 @@
         <v>317.09</v>
       </c>
       <c r="J21" t="n">
-        <v>313.23</v>
+        <v>313.3</v>
       </c>
       <c r="K21" t="n">
         <v>311.88</v>
@@ -1369,7 +1369,7 @@
         <v>314.66</v>
       </c>
       <c r="J22" t="n">
-        <v>311.25</v>
+        <v>311.33</v>
       </c>
       <c r="K22" t="n">
         <v>312.8</v>
@@ -1411,7 +1411,7 @@
         <v>314.32</v>
       </c>
       <c r="J23" t="n">
-        <v>310.19</v>
+        <v>310.32</v>
       </c>
       <c r="K23" t="n">
         <v>312.41</v>
@@ -1453,7 +1453,7 @@
         <v>313.8</v>
       </c>
       <c r="J24" t="n">
-        <v>310.12</v>
+        <v>310.15</v>
       </c>
       <c r="K24" t="n">
         <v>313.69</v>
@@ -1495,7 +1495,7 @@
         <v>317.28</v>
       </c>
       <c r="J25" t="n">
-        <v>313.22</v>
+        <v>313.3</v>
       </c>
       <c r="K25" t="n">
         <v>318.58</v>
@@ -1537,7 +1537,7 @@
         <v>315.73</v>
       </c>
       <c r="J26" t="n">
-        <v>313.07</v>
+        <v>313.05</v>
       </c>
       <c r="K26" t="n">
         <v>319.22</v>
@@ -1579,7 +1579,7 @@
         <v>320.1</v>
       </c>
       <c r="J27" t="n">
-        <v>317.18</v>
+        <v>317.21</v>
       </c>
       <c r="K27" t="n">
         <v>322.12</v>
@@ -1621,7 +1621,7 @@
         <v>320.65</v>
       </c>
       <c r="J28" t="n">
-        <v>318.19</v>
+        <v>318.14</v>
       </c>
       <c r="K28" t="n">
         <v>322.71</v>
@@ -1663,7 +1663,7 @@
         <v>319.59</v>
       </c>
       <c r="J29" t="n">
-        <v>316.92</v>
+        <v>316.93</v>
       </c>
       <c r="K29" t="n">
         <v>319.84</v>
@@ -1705,7 +1705,7 @@
         <v>319.35</v>
       </c>
       <c r="J30" t="n">
-        <v>318.08</v>
+        <v>318.17</v>
       </c>
       <c r="K30" t="n">
         <v>315.43</v>
@@ -1747,7 +1747,7 @@
         <v>318.45</v>
       </c>
       <c r="J31" t="n">
-        <v>316.53</v>
+        <v>316.54</v>
       </c>
       <c r="K31" t="n">
         <v>315.77</v>
@@ -1789,7 +1789,7 @@
         <v>320.27</v>
       </c>
       <c r="J32" t="n">
-        <v>317.41</v>
+        <v>317.42</v>
       </c>
       <c r="K32" t="n">
         <v>317.61</v>
@@ -1831,7 +1831,7 @@
         <v>326.64</v>
       </c>
       <c r="J33" t="n">
-        <v>321.75</v>
+        <v>321.72</v>
       </c>
       <c r="K33" t="n">
         <v>326.77</v>
@@ -1873,7 +1873,7 @@
         <v>324.27</v>
       </c>
       <c r="J34" t="n">
-        <v>324.06</v>
+        <v>323.88</v>
       </c>
       <c r="K34" t="n">
         <v>328.75</v>
@@ -1915,7 +1915,7 @@
         <v>319.86</v>
       </c>
       <c r="J35" t="n">
-        <v>317.54</v>
+        <v>317.56</v>
       </c>
       <c r="K35" t="n">
         <v>319.58</v>
@@ -1957,7 +1957,7 @@
         <v>312.99</v>
       </c>
       <c r="J36" t="n">
-        <v>310.05</v>
+        <v>310.19</v>
       </c>
       <c r="K36" t="n">
         <v>311.34</v>
@@ -1999,7 +1999,7 @@
         <v>316.88</v>
       </c>
       <c r="J37" t="n">
-        <v>314.14</v>
+        <v>314.35</v>
       </c>
       <c r="K37" t="n">
         <v>313.43</v>
@@ -2041,7 +2041,7 @@
         <v>317.75</v>
       </c>
       <c r="J38" t="n">
-        <v>316</v>
+        <v>316.11</v>
       </c>
       <c r="K38" t="n">
         <v>316.03</v>
@@ -2083,7 +2083,7 @@
         <v>318.59</v>
       </c>
       <c r="J39" t="n">
-        <v>316.35</v>
+        <v>316.47</v>
       </c>
       <c r="K39" t="n">
         <v>315.84</v>
@@ -2125,7 +2125,7 @@
         <v>324.5</v>
       </c>
       <c r="J40" t="n">
-        <v>321.68</v>
+        <v>321.63</v>
       </c>
       <c r="K40" t="n">
         <v>321.38</v>
@@ -2167,7 +2167,7 @@
         <v>327.01</v>
       </c>
       <c r="J41" t="n">
-        <v>324.27</v>
+        <v>324.28</v>
       </c>
       <c r="K41" t="n">
         <v>324.34</v>
@@ -2209,7 +2209,7 @@
         <v>326.53</v>
       </c>
       <c r="J42" t="n">
-        <v>323.35</v>
+        <v>323.41</v>
       </c>
       <c r="K42" t="n">
         <v>324.26</v>
@@ -2251,7 +2251,7 @@
         <v>326.11</v>
       </c>
       <c r="J43" t="n">
-        <v>322.58</v>
+        <v>322.56</v>
       </c>
       <c r="K43" t="n">
         <v>326.09</v>
@@ -2293,7 +2293,7 @@
         <v>327.54</v>
       </c>
       <c r="J44" t="n">
-        <v>323.69</v>
+        <v>323.65</v>
       </c>
       <c r="K44" t="n">
         <v>328.18</v>
@@ -2335,7 +2335,7 @@
         <v>326.87</v>
       </c>
       <c r="J45" t="n">
-        <v>321.95</v>
+        <v>321.96</v>
       </c>
       <c r="K45" t="n">
         <v>327.06</v>
@@ -2377,7 +2377,7 @@
         <v>326.6</v>
       </c>
       <c r="J46" t="n">
-        <v>321.55</v>
+        <v>321.65</v>
       </c>
       <c r="K46" t="n">
         <v>325.87</v>
@@ -2419,7 +2419,7 @@
         <v>324.7</v>
       </c>
       <c r="J47" t="n">
-        <v>319.19</v>
+        <v>319.31</v>
       </c>
       <c r="K47" t="n">
         <v>323.03</v>
@@ -2461,7 +2461,7 @@
         <v>323.2</v>
       </c>
       <c r="J48" t="n">
-        <v>319.48</v>
+        <v>319.64</v>
       </c>
       <c r="K48" t="n">
         <v>322.45</v>
@@ -2503,7 +2503,7 @@
         <v>323.58</v>
       </c>
       <c r="J49" t="n">
-        <v>320.27</v>
+        <v>320.4</v>
       </c>
       <c r="K49" t="n">
         <v>323.21</v>
@@ -2545,7 +2545,7 @@
         <v>318.85</v>
       </c>
       <c r="J50" t="n">
-        <v>317.14</v>
+        <v>317.26</v>
       </c>
       <c r="K50" t="n">
         <v>320.73</v>
@@ -2587,7 +2587,7 @@
         <v>318.85</v>
       </c>
       <c r="J51" t="n">
-        <v>317.14</v>
+        <v>317.26</v>
       </c>
       <c r="K51" t="n">
         <v>320.48</v>
@@ -2629,7 +2629,7 @@
         <v>319.37</v>
       </c>
       <c r="J52" t="n">
-        <v>317.77</v>
+        <v>317.85</v>
       </c>
       <c r="K52" t="n">
         <v>320.29</v>
@@ -2671,7 +2671,7 @@
         <v>319.36</v>
       </c>
       <c r="J53" t="n">
-        <v>317.94</v>
+        <v>318.07</v>
       </c>
       <c r="K53" t="n">
         <v>319.95</v>
@@ -2713,7 +2713,7 @@
         <v>319.92</v>
       </c>
       <c r="J54" t="n">
-        <v>318.53</v>
+        <v>318.63</v>
       </c>
       <c r="K54" t="n">
         <v>319.79</v>
@@ -2755,7 +2755,7 @@
         <v>321.56</v>
       </c>
       <c r="J55" t="n">
-        <v>320.27</v>
+        <v>320.38</v>
       </c>
       <c r="K55" t="n">
         <v>321.29</v>
@@ -2797,7 +2797,7 @@
         <v>322.06</v>
       </c>
       <c r="J56" t="n">
-        <v>319.77</v>
+        <v>319.87</v>
       </c>
       <c r="K56" t="n">
         <v>320.91</v>
@@ -2839,7 +2839,7 @@
         <v>324.53</v>
       </c>
       <c r="J57" t="n">
-        <v>322.99</v>
+        <v>323.03</v>
       </c>
       <c r="K57" t="n">
         <v>323.76</v>
@@ -2881,7 +2881,7 @@
         <v>326.12</v>
       </c>
       <c r="J58" t="n">
-        <v>324.22</v>
+        <v>324.26</v>
       </c>
       <c r="K58" t="n">
         <v>326.09</v>
@@ -2923,7 +2923,7 @@
         <v>325.28</v>
       </c>
       <c r="J59" t="n">
-        <v>323.07</v>
+        <v>323.09</v>
       </c>
       <c r="K59" t="n">
         <v>325.59</v>
@@ -2965,7 +2965,7 @@
         <v>325.41</v>
       </c>
       <c r="J60" t="n">
-        <v>323.7</v>
+        <v>323.74</v>
       </c>
       <c r="K60" t="n">
         <v>325.93</v>
@@ -3007,7 +3007,7 @@
         <v>325.8</v>
       </c>
       <c r="J61" t="n">
-        <v>324.37</v>
+        <v>324.43</v>
       </c>
       <c r="K61" t="n">
         <v>326.74</v>
@@ -3049,7 +3049,7 @@
         <v>325.54</v>
       </c>
       <c r="J62" t="n">
-        <v>323.74</v>
+        <v>323.78</v>
       </c>
       <c r="K62" t="n">
         <v>326.38</v>
@@ -3091,7 +3091,7 @@
         <v>325.54</v>
       </c>
       <c r="J63" t="n">
-        <v>323.74</v>
+        <v>323.78</v>
       </c>
       <c r="K63" t="n">
         <v>326.38</v>
@@ -3133,7 +3133,7 @@
         <v>326.73</v>
       </c>
       <c r="J64" t="n">
-        <v>325.08</v>
+        <v>325.12</v>
       </c>
       <c r="K64" t="n">
         <v>327.67</v>
@@ -3175,7 +3175,7 @@
         <v>326.73</v>
       </c>
       <c r="J65" t="n">
-        <v>325.08</v>
+        <v>325.12</v>
       </c>
       <c r="K65" t="n">
         <v>328.44</v>
@@ -3217,7 +3217,7 @@
         <v>326.73</v>
       </c>
       <c r="J66" t="n">
-        <v>325.08</v>
+        <v>325.12</v>
       </c>
       <c r="K66" t="n">
         <v>327.64</v>
@@ -3259,7 +3259,7 @@
         <v>326.98</v>
       </c>
       <c r="J67" t="n">
-        <v>325.31</v>
+        <v>325.4</v>
       </c>
       <c r="K67" t="n">
         <v>327.59</v>
@@ -3301,7 +3301,7 @@
         <v>326.21</v>
       </c>
       <c r="J68" t="n">
-        <v>324.24</v>
+        <v>324.34</v>
       </c>
       <c r="K68" t="n">
         <v>327.17</v>
@@ -3343,7 +3343,7 @@
         <v>323.37</v>
       </c>
       <c r="J69" t="n">
-        <v>322.53</v>
+        <v>322.59</v>
       </c>
       <c r="K69" t="n">
         <v>325.5</v>
@@ -3385,7 +3385,7 @@
         <v>323.99</v>
       </c>
       <c r="J70" t="n">
-        <v>322.86</v>
+        <v>322.95</v>
       </c>
       <c r="K70" t="n">
         <v>325.86</v>
@@ -3427,7 +3427,7 @@
         <v>323.31</v>
       </c>
       <c r="J71" t="n">
-        <v>322.82</v>
+        <v>322.9</v>
       </c>
       <c r="K71" t="n">
         <v>325.55</v>
@@ -3469,7 +3469,7 @@
         <v>323.31</v>
       </c>
       <c r="J72" t="n">
-        <v>322.82</v>
+        <v>322.9</v>
       </c>
       <c r="K72" t="n">
         <v>325.55</v>
@@ -3511,7 +3511,7 @@
         <v>322.9</v>
       </c>
       <c r="J73" t="n">
-        <v>322.28</v>
+        <v>322.44</v>
       </c>
       <c r="K73" t="n">
         <v>325.16</v>
@@ -3553,7 +3553,7 @@
         <v>321.6</v>
       </c>
       <c r="J74" t="n">
-        <v>319.9</v>
+        <v>320.08</v>
       </c>
       <c r="K74" t="n">
         <v>322.61</v>
@@ -3595,7 +3595,7 @@
         <v>321.6</v>
       </c>
       <c r="J75" t="n">
-        <v>319.9</v>
+        <v>320.08</v>
       </c>
       <c r="K75" t="n">
         <v>322.61</v>
@@ -3637,7 +3637,7 @@
         <v>318.56</v>
       </c>
       <c r="J76" t="n">
-        <v>316.93</v>
+        <v>317.03</v>
       </c>
       <c r="K76" t="n">
         <v>320.7</v>
@@ -3679,7 +3679,7 @@
         <v>318.56</v>
       </c>
       <c r="J77" t="n">
-        <v>316.93</v>
+        <v>317.03</v>
       </c>
       <c r="K77" t="n">
         <v>320.7</v>
@@ -3721,7 +3721,7 @@
         <v>320.66</v>
       </c>
       <c r="J78" t="n">
-        <v>318.08</v>
+        <v>318.21</v>
       </c>
       <c r="K78" t="n">
         <v>321.91</v>
@@ -3763,7 +3763,7 @@
         <v>320.08</v>
       </c>
       <c r="J79" t="n">
-        <v>317.76</v>
+        <v>317.89</v>
       </c>
       <c r="K79" t="n">
         <v>323.75</v>
@@ -3805,7 +3805,7 @@
         <v>322.41</v>
       </c>
       <c r="J80" t="n">
-        <v>320.62</v>
+        <v>320.73</v>
       </c>
       <c r="K80" t="n">
         <v>327.51</v>
@@ -3847,7 +3847,7 @@
         <v>323.95</v>
       </c>
       <c r="J81" t="n">
-        <v>322.5</v>
+        <v>322.64</v>
       </c>
       <c r="K81" t="n">
         <v>330.13</v>
@@ -3889,7 +3889,7 @@
         <v>323.96</v>
       </c>
       <c r="J82" t="n">
-        <v>321.71</v>
+        <v>321.74</v>
       </c>
       <c r="K82" t="n">
         <v>329.45</v>
@@ -3931,7 +3931,7 @@
         <v>326.16</v>
       </c>
       <c r="J83" t="n">
-        <v>323.37</v>
+        <v>323.46</v>
       </c>
       <c r="K83" t="n">
         <v>332.18</v>
@@ -3973,7 +3973,7 @@
         <v>327.84</v>
       </c>
       <c r="J84" t="n">
-        <v>326.04</v>
+        <v>326.12</v>
       </c>
       <c r="K84" t="n">
         <v>334.21</v>
@@ -4015,7 +4015,7 @@
         <v>327.84</v>
       </c>
       <c r="J85" t="n">
-        <v>326.04</v>
+        <v>326.12</v>
       </c>
       <c r="K85" t="n">
         <v>335.58</v>
@@ -4057,7 +4057,7 @@
         <v>327</v>
       </c>
       <c r="J86" t="n">
-        <v>324.89</v>
+        <v>324.95</v>
       </c>
       <c r="K86" t="n">
         <v>334.31</v>
@@ -4099,7 +4099,7 @@
         <v>326.8</v>
       </c>
       <c r="J87" t="n">
-        <v>324.96</v>
+        <v>325.03</v>
       </c>
       <c r="K87" t="n">
         <v>332.93</v>
@@ -4141,7 +4141,7 @@
         <v>326.92</v>
       </c>
       <c r="J88" t="n">
-        <v>325.03</v>
+        <v>325.1</v>
       </c>
       <c r="K88" t="n">
         <v>332.08</v>
@@ -4183,7 +4183,7 @@
         <v>327.58</v>
       </c>
       <c r="J89" t="n">
-        <v>325.59</v>
+        <v>325.66</v>
       </c>
       <c r="K89" t="n">
         <v>332.2</v>
@@ -4225,7 +4225,7 @@
         <v>327.99</v>
       </c>
       <c r="J90" t="n">
-        <v>325.97</v>
+        <v>326.03</v>
       </c>
       <c r="K90" t="n">
         <v>332.28</v>
@@ -4267,7 +4267,7 @@
         <v>329</v>
       </c>
       <c r="J91" t="n">
-        <v>326.06</v>
+        <v>326.1</v>
       </c>
       <c r="K91" t="n">
         <v>332.54</v>
@@ -4309,7 +4309,7 @@
         <v>328.72</v>
       </c>
       <c r="J92" t="n">
-        <v>325.58</v>
+        <v>325.61</v>
       </c>
       <c r="K92" t="n">
         <v>330.79</v>
@@ -4351,7 +4351,7 @@
         <v>329.45</v>
       </c>
       <c r="J93" t="n">
-        <v>326.3</v>
+        <v>326.36</v>
       </c>
       <c r="K93" t="n">
         <v>331.19</v>
@@ -4393,7 +4393,7 @@
         <v>328.89</v>
       </c>
       <c r="J94" t="n">
-        <v>326.73</v>
+        <v>326.72</v>
       </c>
       <c r="K94" t="n">
         <v>330.69</v>
@@ -4435,7 +4435,7 @@
         <v>327.05</v>
       </c>
       <c r="J95" t="n">
-        <v>324.81</v>
+        <v>324.76</v>
       </c>
       <c r="K95" t="n">
         <v>330.12</v>
@@ -4477,7 +4477,7 @@
         <v>328.13</v>
       </c>
       <c r="J96" t="n">
-        <v>325.76</v>
+        <v>325.74</v>
       </c>
       <c r="K96" t="n">
         <v>329.57</v>
@@ -4519,7 +4519,7 @@
         <v>329.12</v>
       </c>
       <c r="J97" t="n">
-        <v>326.99</v>
+        <v>326.95</v>
       </c>
       <c r="K97" t="n">
         <v>331.49</v>
@@ -4561,7 +4561,7 @@
         <v>328.11</v>
       </c>
       <c r="J98" t="n">
-        <v>326.66</v>
+        <v>326.61</v>
       </c>
       <c r="K98" t="n">
         <v>330.35</v>
@@ -4603,7 +4603,7 @@
         <v>327.52</v>
       </c>
       <c r="J99" t="n">
-        <v>326.13</v>
+        <v>326.05</v>
       </c>
       <c r="K99" t="n">
         <v>330.82</v>
@@ -4645,7 +4645,7 @@
         <v>327.52</v>
       </c>
       <c r="J100" t="n">
-        <v>326.13</v>
+        <v>326.05</v>
       </c>
       <c r="K100" t="n">
         <v>329.32</v>
@@ -4729,7 +4729,7 @@
         <v>329.4</v>
       </c>
       <c r="J102" t="n">
-        <v>329.89</v>
+        <v>329.9</v>
       </c>
       <c r="K102" t="n">
         <v>330.36</v>
@@ -4771,7 +4771,7 @@
         <v>330.23</v>
       </c>
       <c r="J103" t="n">
-        <v>330.1</v>
+        <v>330.14</v>
       </c>
       <c r="K103" t="n">
         <v>330.76</v>
@@ -4813,7 +4813,7 @@
         <v>328.5</v>
       </c>
       <c r="J104" t="n">
-        <v>327.98</v>
+        <v>328.03</v>
       </c>
       <c r="K104" t="n">
         <v>329.16</v>
@@ -4855,7 +4855,7 @@
         <v>328.34</v>
       </c>
       <c r="J105" t="n">
-        <v>327.97</v>
+        <v>328.02</v>
       </c>
       <c r="K105" t="n">
         <v>329.16</v>
@@ -4939,7 +4939,7 @@
         <v>326.5</v>
       </c>
       <c r="J107" t="n">
-        <v>324.45</v>
+        <v>324.56</v>
       </c>
       <c r="K107" t="n">
         <v>323.67</v>
@@ -4981,7 +4981,7 @@
         <v>325.99</v>
       </c>
       <c r="J108" t="n">
-        <v>322.99</v>
+        <v>323.12</v>
       </c>
       <c r="K108" t="n">
         <v>324.23</v>
@@ -5023,7 +5023,7 @@
         <v>323.99</v>
       </c>
       <c r="J109" t="n">
-        <v>321.45</v>
+        <v>321.52</v>
       </c>
       <c r="K109" t="n">
         <v>323.75</v>
@@ -5065,7 +5065,7 @@
         <v>319.54</v>
       </c>
       <c r="J110" t="n">
-        <v>316.11</v>
+        <v>316.02</v>
       </c>
       <c r="K110" t="n">
         <v>321.07</v>
@@ -5107,7 +5107,7 @@
         <v>322.79</v>
       </c>
       <c r="J111" t="n">
-        <v>315.07</v>
+        <v>315.08</v>
       </c>
       <c r="K111" t="n">
         <v>320.12</v>
@@ -5149,7 +5149,7 @@
         <v>323.27</v>
       </c>
       <c r="J112" t="n">
-        <v>317.81</v>
+        <v>317.9</v>
       </c>
       <c r="K112" t="n">
         <v>321.22</v>
@@ -5191,7 +5191,7 @@
         <v>322.76</v>
       </c>
       <c r="J113" t="n">
-        <v>318.5</v>
+        <v>318.65</v>
       </c>
       <c r="K113" t="n">
         <v>322.69</v>
@@ -5233,7 +5233,7 @@
         <v>322.76</v>
       </c>
       <c r="J114" t="n">
-        <v>322.15</v>
+        <v>322.36</v>
       </c>
       <c r="K114" t="n">
         <v>324.8</v>
@@ -5275,7 +5275,7 @@
         <v>323.17</v>
       </c>
       <c r="J115" t="n">
-        <v>321.48</v>
+        <v>321.69</v>
       </c>
       <c r="K115" t="n">
         <v>325.13</v>
@@ -5315,7 +5315,7 @@
         <v>325.97</v>
       </c>
       <c r="J116" t="n">
-        <v>322.51</v>
+        <v>322.72</v>
       </c>
       <c r="K116" t="n">
         <v>327.02</v>
@@ -5357,7 +5357,7 @@
         <v>327.35</v>
       </c>
       <c r="J117" t="n">
-        <v>321.57</v>
+        <v>321.75</v>
       </c>
       <c r="K117" t="n">
         <v>325.45</v>
@@ -5441,7 +5441,7 @@
         <v>324</v>
       </c>
       <c r="J119" t="n">
-        <v>321.06</v>
+        <v>321.11</v>
       </c>
       <c r="K119" t="n">
         <v>325.1</v>
@@ -5483,7 +5483,7 @@
         <v>324</v>
       </c>
       <c r="J120" t="n">
-        <v>316.5</v>
+        <v>316.43</v>
       </c>
       <c r="K120" t="n">
         <v>320.8</v>
@@ -5525,7 +5525,7 @@
         <v>324</v>
       </c>
       <c r="J121" t="n">
-        <v>316.5</v>
+        <v>316.43</v>
       </c>
       <c r="K121" t="n">
         <v>320.09</v>
@@ -5567,7 +5567,7 @@
         <v>320.24</v>
       </c>
       <c r="J122" t="n">
-        <v>316.17</v>
+        <v>316.11</v>
       </c>
       <c r="K122" t="n">
         <v>317.76</v>
@@ -5607,7 +5607,7 @@
         <v>315.52</v>
       </c>
       <c r="J123" t="n">
-        <v>314.36</v>
+        <v>314.29</v>
       </c>
       <c r="K123" t="n">
         <v>316.17</v>
@@ -5649,7 +5649,7 @@
         <v>314.3</v>
       </c>
       <c r="J124" t="n">
-        <v>312.81</v>
+        <v>312.72</v>
       </c>
       <c r="K124" t="n">
         <v>315.22</v>
@@ -5691,7 +5691,7 @@
         <v>313.54</v>
       </c>
       <c r="J125" t="n">
-        <v>309.71</v>
+        <v>309.58</v>
       </c>
       <c r="K125" t="n">
         <v>311.63</v>
@@ -5733,7 +5733,7 @@
         <v>313.54</v>
       </c>
       <c r="J126" t="n">
-        <v>312.52</v>
+        <v>312.46</v>
       </c>
       <c r="K126" t="n">
         <v>314.37</v>
@@ -5775,7 +5775,7 @@
         <v>315.21</v>
       </c>
       <c r="J127" t="n">
-        <v>311.3</v>
+        <v>311.2</v>
       </c>
       <c r="K127" t="n">
         <v>315.49</v>
@@ -5817,7 +5817,7 @@
         <v>316.77</v>
       </c>
       <c r="J128" t="n">
-        <v>311.59</v>
+        <v>311.54</v>
       </c>
       <c r="K128" t="n">
         <v>316.22</v>
@@ -5859,7 +5859,7 @@
         <v>316.77</v>
       </c>
       <c r="J129" t="n">
-        <v>311.59</v>
+        <v>311.54</v>
       </c>
       <c r="K129" t="n">
         <v>316.22</v>
@@ -5941,7 +5941,7 @@
         <v>319.88</v>
       </c>
       <c r="J131" t="n">
-        <v>310.94</v>
+        <v>310.75</v>
       </c>
       <c r="K131" t="n">
         <v>317.22</v>
@@ -5983,7 +5983,7 @@
         <v>319.57</v>
       </c>
       <c r="J132" t="n">
-        <v>311.26</v>
+        <v>311.21</v>
       </c>
       <c r="K132" t="n">
         <v>313.28</v>
@@ -6025,7 +6025,7 @@
         <v>319.5</v>
       </c>
       <c r="J133" t="n">
-        <v>312.79</v>
+        <v>312.74</v>
       </c>
       <c r="K133" t="n">
         <v>316.71</v>
@@ -6067,7 +6067,7 @@
         <v>319.67</v>
       </c>
       <c r="J134" t="n">
-        <v>313.72</v>
+        <v>313.68</v>
       </c>
       <c r="K134" t="n">
         <v>316.96</v>
@@ -6109,7 +6109,7 @@
         <v>319.67</v>
       </c>
       <c r="J135" t="n">
-        <v>313.72</v>
+        <v>313.68</v>
       </c>
       <c r="K135" t="n">
         <v>315.67</v>
@@ -6193,7 +6193,7 @@
         <v>321.63</v>
       </c>
       <c r="J137" t="n">
-        <v>318.7</v>
+        <v>318.78</v>
       </c>
       <c r="K137" t="n">
         <v>317.31</v>
@@ -6235,7 +6235,7 @@
         <v>321.66</v>
       </c>
       <c r="J138" t="n">
-        <v>318.26</v>
+        <v>318.3</v>
       </c>
       <c r="K138" t="n">
         <v>318.47</v>
@@ -6277,7 +6277,7 @@
         <v>321.66</v>
       </c>
       <c r="J139" t="n">
-        <v>315.91</v>
+        <v>315.97</v>
       </c>
       <c r="K139" t="n">
         <v>315.65</v>
@@ -6319,7 +6319,7 @@
         <v>322.2</v>
       </c>
       <c r="J140" t="n">
-        <v>316.36</v>
+        <v>316.44</v>
       </c>
       <c r="K140" t="n">
         <v>316.15</v>
@@ -6361,7 +6361,7 @@
         <v>322.65</v>
       </c>
       <c r="J141" t="n">
-        <v>316.76</v>
+        <v>316.86</v>
       </c>
       <c r="K141" t="n">
         <v>315.97</v>
@@ -6403,7 +6403,7 @@
         <v>322.35</v>
       </c>
       <c r="J142" t="n">
-        <v>316.61</v>
+        <v>316.74</v>
       </c>
       <c r="K142" t="n">
         <v>315.56</v>
@@ -6445,7 +6445,7 @@
         <v>324.32</v>
       </c>
       <c r="J143" t="n">
-        <v>315.32</v>
+        <v>315.52</v>
       </c>
       <c r="K143" t="n">
         <v>314.83</v>
@@ -6487,7 +6487,7 @@
         <v>323.94</v>
       </c>
       <c r="J144" t="n">
-        <v>318.49</v>
+        <v>318.79</v>
       </c>
       <c r="K144" t="n">
         <v>315.33</v>
@@ -6525,7 +6525,7 @@
         <v>319.63</v>
       </c>
       <c r="J145" t="n">
-        <v>315.14</v>
+        <v>315.52</v>
       </c>
       <c r="K145" t="n">
         <v>311.48</v>
@@ -6567,7 +6567,7 @@
         <v>315.39</v>
       </c>
       <c r="J146" t="n">
-        <v>309.25</v>
+        <v>309.24</v>
       </c>
       <c r="K146" t="n">
         <v>312.09</v>
@@ -6609,7 +6609,7 @@
         <v>315.39</v>
       </c>
       <c r="J147" t="n">
-        <v>309.25</v>
+        <v>309.24</v>
       </c>
       <c r="K147" t="n">
         <v>312.09</v>
@@ -6651,7 +6651,7 @@
         <v>320.82</v>
       </c>
       <c r="J148" t="n">
-        <v>317.03</v>
+        <v>317.09</v>
       </c>
       <c r="K148" t="n">
         <v>315.67</v>
@@ -6693,7 +6693,7 @@
         <v>320.82</v>
       </c>
       <c r="J149" t="n">
-        <v>317.03</v>
+        <v>317.09</v>
       </c>
       <c r="K149" t="n">
         <v>315.67</v>
@@ -6735,7 +6735,7 @@
         <v>317.77</v>
       </c>
       <c r="J150" t="n">
-        <v>317.03</v>
+        <v>317.09</v>
       </c>
       <c r="K150" t="n">
         <v>315.67</v>
@@ -6777,7 +6777,7 @@
         <v>317.77</v>
       </c>
       <c r="J151" t="n">
-        <v>317.03</v>
+        <v>317.09</v>
       </c>
       <c r="K151" t="n">
         <v>315.67</v>
@@ -6819,7 +6819,7 @@
         <v>320.84</v>
       </c>
       <c r="J152" t="n">
-        <v>320.9</v>
+        <v>320.96</v>
       </c>
       <c r="K152" t="n">
         <v>318.46</v>
@@ -6859,7 +6859,7 @@
         <v>319.58</v>
       </c>
       <c r="J153" t="n">
-        <v>317.66</v>
+        <v>317.62</v>
       </c>
       <c r="K153" t="n">
         <v>319.59</v>
@@ -6901,7 +6901,7 @@
         <v>319.58</v>
       </c>
       <c r="J154" t="n">
-        <v>317.66</v>
+        <v>317.62</v>
       </c>
       <c r="K154" t="n">
         <v>318.78</v>
@@ -6943,7 +6943,7 @@
         <v>321.57</v>
       </c>
       <c r="J155" t="n">
-        <v>319.43</v>
+        <v>319.4</v>
       </c>
       <c r="K155" t="n">
         <v>321.43</v>
@@ -6985,7 +6985,7 @@
         <v>319.55</v>
       </c>
       <c r="J156" t="n">
-        <v>317.95</v>
+        <v>317.85</v>
       </c>
       <c r="K156" t="n">
         <v>319.75</v>
@@ -7027,7 +7027,7 @@
         <v>318.78</v>
       </c>
       <c r="J157" t="n">
-        <v>316.98</v>
+        <v>316.93</v>
       </c>
       <c r="K157" t="n">
         <v>320.42</v>
@@ -7069,7 +7069,7 @@
         <v>321.21</v>
       </c>
       <c r="J158" t="n">
-        <v>317.62</v>
+        <v>317.64</v>
       </c>
       <c r="K158" t="n">
         <v>320.42</v>
@@ -7111,7 +7111,7 @@
         <v>318.71</v>
       </c>
       <c r="J159" t="n">
-        <v>315.62</v>
+        <v>315.63</v>
       </c>
       <c r="K159" t="n">
         <v>318.54</v>
@@ -7153,7 +7153,7 @@
         <v>319.45</v>
       </c>
       <c r="J160" t="n">
-        <v>317.01</v>
+        <v>317</v>
       </c>
       <c r="K160" t="n">
         <v>320.54</v>
@@ -7195,7 +7195,7 @@
         <v>319.59</v>
       </c>
       <c r="J161" t="n">
-        <v>317.01</v>
+        <v>317</v>
       </c>
       <c r="K161" t="n">
         <v>320.54</v>
@@ -7237,7 +7237,7 @@
         <v>319.59</v>
       </c>
       <c r="J162" t="n">
-        <v>317.01</v>
+        <v>317</v>
       </c>
       <c r="K162" t="n">
         <v>320.54</v>
@@ -7279,7 +7279,7 @@
         <v>321.01</v>
       </c>
       <c r="J163" t="n">
-        <v>320.09</v>
+        <v>320.14</v>
       </c>
       <c r="K163" t="n">
         <v>323.62</v>
@@ -7321,7 +7321,7 @@
         <v>319.93</v>
       </c>
       <c r="J164" t="n">
-        <v>319.64</v>
+        <v>319.73</v>
       </c>
       <c r="K164" t="n">
         <v>323.21</v>
@@ -7363,7 +7363,7 @@
         <v>321.39</v>
       </c>
       <c r="J165" t="n">
-        <v>320.96</v>
+        <v>321.08</v>
       </c>
       <c r="K165" t="n">
         <v>323.78</v>
@@ -7405,7 +7405,7 @@
         <v>321.94</v>
       </c>
       <c r="J166" t="n">
-        <v>320.9</v>
+        <v>321.02</v>
       </c>
       <c r="K166" t="n">
         <v>324.45</v>
@@ -7447,7 +7447,7 @@
         <v>322.75</v>
       </c>
       <c r="J167" t="n">
-        <v>321.3</v>
+        <v>321.42</v>
       </c>
       <c r="K167" t="n">
         <v>324.56</v>
@@ -7489,7 +7489,7 @@
         <v>324.34</v>
       </c>
       <c r="J168" t="n">
-        <v>323.09</v>
+        <v>323.28</v>
       </c>
       <c r="K168" t="n">
         <v>325.4</v>
@@ -7531,7 +7531,7 @@
         <v>328.12</v>
       </c>
       <c r="J169" t="n">
-        <v>327.78</v>
+        <v>328.08</v>
       </c>
       <c r="K169" t="n">
         <v>331.53</v>
@@ -7573,7 +7573,7 @@
         <v>322.83</v>
       </c>
       <c r="J170" t="n">
-        <v>320.62</v>
+        <v>321.03</v>
       </c>
       <c r="K170" t="n">
         <v>335.01</v>
@@ -7615,7 +7615,7 @@
         <v>319.83</v>
       </c>
       <c r="J171" t="n">
-        <v>316.3</v>
+        <v>316.57</v>
       </c>
       <c r="K171" t="n">
         <v>327.21</v>
@@ -7657,7 +7657,7 @@
         <v>317.73</v>
       </c>
       <c r="J172" t="n">
-        <v>312.26</v>
+        <v>312.56</v>
       </c>
       <c r="K172" t="n">
         <v>318.06</v>
@@ -7699,7 +7699,7 @@
         <v>321.12</v>
       </c>
       <c r="J173" t="n">
-        <v>316.57</v>
+        <v>316.86</v>
       </c>
       <c r="K173" t="n">
         <v>321.47</v>
@@ -7741,7 +7741,7 @@
         <v>320.37</v>
       </c>
       <c r="J174" t="n">
-        <v>315.16</v>
+        <v>315.39</v>
       </c>
       <c r="K174" t="n">
         <v>320.52</v>
@@ -7781,7 +7781,7 @@
         <v>321.6</v>
       </c>
       <c r="J175" t="n">
-        <v>317.64</v>
+        <v>317.71</v>
       </c>
       <c r="K175" t="n">
         <v>322.57</v>
@@ -7823,7 +7823,7 @@
         <v>323.54</v>
       </c>
       <c r="J176" t="n">
-        <v>320.14</v>
+        <v>320.22</v>
       </c>
       <c r="K176" t="n">
         <v>326.49</v>
@@ -7937,7 +7937,7 @@
         <v>322.05</v>
       </c>
       <c r="J179" t="n">
-        <v>323.48</v>
+        <v>323.27</v>
       </c>
       <c r="K179" t="n">
         <v>308.09</v>
@@ -7979,7 +7979,7 @@
         <v>322.05</v>
       </c>
       <c r="J180" t="n">
-        <v>323.48</v>
+        <v>323.27</v>
       </c>
       <c r="K180" t="n">
         <v>305.45</v>
@@ -8021,7 +8021,7 @@
         <v>322.05</v>
       </c>
       <c r="J181" t="n">
-        <v>323.48</v>
+        <v>323.27</v>
       </c>
       <c r="K181" t="n">
         <v>305.45</v>
@@ -8063,7 +8063,7 @@
         <v>320.16</v>
       </c>
       <c r="J182" t="n">
-        <v>320.8</v>
+        <v>320.77</v>
       </c>
       <c r="K182" t="n">
         <v>307.72</v>
@@ -8105,7 +8105,7 @@
         <v>320.16</v>
       </c>
       <c r="J183" t="n">
-        <v>320.8</v>
+        <v>320.77</v>
       </c>
       <c r="K183" t="n">
         <v>307.72</v>
@@ -8147,7 +8147,7 @@
         <v>324.19</v>
       </c>
       <c r="J184" t="n">
-        <v>323.49</v>
+        <v>323.58</v>
       </c>
       <c r="K184" t="n">
         <v>311.83</v>
@@ -8189,7 +8189,7 @@
         <v>320.19</v>
       </c>
       <c r="J185" t="n">
-        <v>320.06</v>
+        <v>320.03</v>
       </c>
       <c r="K185" t="n">
         <v>311.83</v>
@@ -8231,7 +8231,7 @@
         <v>319.28</v>
       </c>
       <c r="J186" t="n">
-        <v>318.25</v>
+        <v>318.2</v>
       </c>
       <c r="K186" t="n">
         <v>313.91</v>
@@ -8273,7 +8273,7 @@
         <v>319.98</v>
       </c>
       <c r="J187" t="n">
-        <v>317.38</v>
+        <v>317.35</v>
       </c>
       <c r="K187" t="n">
         <v>314.08</v>
@@ -8315,7 +8315,7 @@
         <v>319.21</v>
       </c>
       <c r="J188" t="n">
-        <v>316.77</v>
+        <v>316.73</v>
       </c>
       <c r="K188" t="n">
         <v>317.29</v>
@@ -8357,7 +8357,7 @@
         <v>321.25</v>
       </c>
       <c r="J189" t="n">
-        <v>318.91</v>
+        <v>318.83</v>
       </c>
       <c r="K189" t="n">
         <v>320.62</v>
@@ -8399,7 +8399,7 @@
         <v>321.36</v>
       </c>
       <c r="J190" t="n">
-        <v>319.2</v>
+        <v>319.18</v>
       </c>
       <c r="K190" t="n">
         <v>323.88</v>
@@ -8441,7 +8441,7 @@
         <v>321.65</v>
       </c>
       <c r="J191" t="n">
-        <v>320.54</v>
+        <v>320.55</v>
       </c>
       <c r="K191" t="n">
         <v>325.44</v>
@@ -8483,7 +8483,7 @@
         <v>320.62</v>
       </c>
       <c r="J192" t="n">
-        <v>319.69</v>
+        <v>319.64</v>
       </c>
       <c r="K192" t="n">
         <v>325.72</v>
@@ -8525,7 +8525,7 @@
         <v>320.7</v>
       </c>
       <c r="J193" t="n">
-        <v>318.95</v>
+        <v>318.89</v>
       </c>
       <c r="K193" t="n">
         <v>325.59</v>
@@ -8567,7 +8567,7 @@
         <v>320.7</v>
       </c>
       <c r="J194" t="n">
-        <v>318.95</v>
+        <v>318.89</v>
       </c>
       <c r="K194" t="n">
         <v>325.59</v>
@@ -8609,7 +8609,7 @@
         <v>320.57</v>
       </c>
       <c r="J195" t="n">
-        <v>319.08</v>
+        <v>318.98</v>
       </c>
       <c r="K195" t="n">
         <v>326.76</v>
@@ -8651,7 +8651,7 @@
         <v>319.99</v>
       </c>
       <c r="J196" t="n">
-        <v>318.46</v>
+        <v>318.35</v>
       </c>
       <c r="K196" t="n">
         <v>325.58</v>
@@ -8693,7 +8693,7 @@
         <v>320.95</v>
       </c>
       <c r="J197" t="n">
-        <v>318.84</v>
+        <v>318.73</v>
       </c>
       <c r="K197" t="n">
         <v>325.21</v>
@@ -8735,7 +8735,7 @@
         <v>320.17</v>
       </c>
       <c r="J198" t="n">
-        <v>318.15</v>
+        <v>318.09</v>
       </c>
       <c r="K198" t="n">
         <v>323.08</v>
@@ -8777,7 +8777,7 @@
         <v>321.31</v>
       </c>
       <c r="J199" t="n">
-        <v>318.66</v>
+        <v>318.59</v>
       </c>
       <c r="K199" t="n">
         <v>323.33</v>
@@ -8819,7 +8819,7 @@
         <v>320.42</v>
       </c>
       <c r="J200" t="n">
-        <v>316.22</v>
+        <v>316.18</v>
       </c>
       <c r="K200" t="n">
         <v>320.09</v>
@@ -8861,7 +8861,7 @@
         <v>320.31</v>
       </c>
       <c r="J201" t="n">
-        <v>316.51</v>
+        <v>316.45</v>
       </c>
       <c r="K201" t="n">
         <v>320.6</v>
@@ -8903,7 +8903,7 @@
         <v>320.53</v>
       </c>
       <c r="J202" t="n">
-        <v>316.73</v>
+        <v>316.7</v>
       </c>
       <c r="K202" t="n">
         <v>320.56</v>
@@ -8945,7 +8945,7 @@
         <v>320.27</v>
       </c>
       <c r="J203" t="n">
-        <v>316.61</v>
+        <v>316.57</v>
       </c>
       <c r="K203" t="n">
         <v>320.44</v>
@@ -8987,7 +8987,7 @@
         <v>319.03</v>
       </c>
       <c r="J204" t="n">
-        <v>315.02</v>
+        <v>314.97</v>
       </c>
       <c r="K204" t="n">
         <v>319.06</v>
@@ -9029,7 +9029,7 @@
         <v>319.2</v>
       </c>
       <c r="J205" t="n">
-        <v>315.19</v>
+        <v>315.17</v>
       </c>
       <c r="K205" t="n">
         <v>319.06</v>
@@ -9071,7 +9071,7 @@
         <v>318.61</v>
       </c>
       <c r="J206" t="n">
-        <v>313.82</v>
+        <v>313.75</v>
       </c>
       <c r="K206" t="n">
         <v>317.54</v>
@@ -9113,7 +9113,7 @@
         <v>318.76</v>
       </c>
       <c r="J207" t="n">
-        <v>314.32</v>
+        <v>314.28</v>
       </c>
       <c r="K207" t="n">
         <v>317.84</v>
@@ -9155,7 +9155,7 @@
         <v>319.34</v>
       </c>
       <c r="J208" t="n">
-        <v>315.27</v>
+        <v>315.24</v>
       </c>
       <c r="K208" t="n">
         <v>318.55</v>
@@ -9197,7 +9197,7 @@
         <v>320.59</v>
       </c>
       <c r="J209" t="n">
-        <v>316.54</v>
+        <v>316.51</v>
       </c>
       <c r="K209" t="n">
         <v>318.55</v>
@@ -9239,7 +9239,7 @@
         <v>320.54</v>
       </c>
       <c r="J210" t="n">
-        <v>316.73</v>
+        <v>316.7</v>
       </c>
       <c r="K210" t="n">
         <v>318.07</v>
@@ -9281,7 +9281,7 @@
         <v>321.07</v>
       </c>
       <c r="J211" t="n">
-        <v>316.76</v>
+        <v>316.78</v>
       </c>
       <c r="K211" t="n">
         <v>316.7</v>
@@ -9323,7 +9323,7 @@
         <v>322.57</v>
       </c>
       <c r="J212" t="n">
-        <v>318.46</v>
+        <v>318.51</v>
       </c>
       <c r="K212" t="n">
         <v>320.01</v>
@@ -9365,7 +9365,7 @@
         <v>323.05</v>
       </c>
       <c r="J213" t="n">
-        <v>318.93</v>
+        <v>318.99</v>
       </c>
       <c r="K213" t="n">
         <v>320.6</v>
@@ -9407,7 +9407,7 @@
         <v>323.7</v>
       </c>
       <c r="J214" t="n">
-        <v>321.93</v>
+        <v>321.98</v>
       </c>
       <c r="K214" t="n">
         <v>323.82</v>
@@ -9449,7 +9449,7 @@
         <v>323.51</v>
       </c>
       <c r="J215" t="n">
-        <v>322.73</v>
+        <v>322.77</v>
       </c>
       <c r="K215" t="n">
         <v>324.62</v>
@@ -9491,7 +9491,7 @@
         <v>326.69</v>
       </c>
       <c r="J216" t="n">
-        <v>324.76</v>
+        <v>324.9</v>
       </c>
       <c r="K216" t="n">
         <v>326.33</v>
@@ -9533,7 +9533,7 @@
         <v>326.2</v>
       </c>
       <c r="J217" t="n">
-        <v>324.54</v>
+        <v>324.69</v>
       </c>
       <c r="K217" t="n">
         <v>328.22</v>
@@ -9575,7 +9575,7 @@
         <v>320.69</v>
       </c>
       <c r="J218" t="n">
-        <v>319.59</v>
+        <v>319.71</v>
       </c>
       <c r="K218" t="n">
         <v>325.03</v>
@@ -9617,7 +9617,7 @@
         <v>322.64</v>
       </c>
       <c r="J219" t="n">
-        <v>320.8</v>
+        <v>320.87</v>
       </c>
       <c r="K219" t="n">
         <v>325.91</v>
@@ -9659,7 +9659,7 @@
         <v>322.44</v>
       </c>
       <c r="J220" t="n">
-        <v>320.74</v>
+        <v>320.87</v>
       </c>
       <c r="K220" t="n">
         <v>325.26</v>
@@ -9701,7 +9701,7 @@
         <v>320.96</v>
       </c>
       <c r="J221" t="n">
-        <v>319.27</v>
+        <v>319.34</v>
       </c>
       <c r="K221" t="n">
         <v>323.69</v>
@@ -9743,7 +9743,7 @@
         <v>319.95</v>
       </c>
       <c r="J222" t="n">
-        <v>318.2</v>
+        <v>318.3</v>
       </c>
       <c r="K222" t="n">
         <v>322.68</v>
@@ -9785,7 +9785,7 @@
         <v>318.75</v>
       </c>
       <c r="J223" t="n">
-        <v>316.46</v>
+        <v>316.49</v>
       </c>
       <c r="K223" t="n">
         <v>320.13</v>
@@ -9827,7 +9827,7 @@
         <v>318.75</v>
       </c>
       <c r="J224" t="n">
-        <v>316.46</v>
+        <v>316.49</v>
       </c>
       <c r="K224" t="n">
         <v>320.13</v>
@@ -9869,7 +9869,7 @@
         <v>317.54</v>
       </c>
       <c r="J225" t="n">
-        <v>314.05</v>
+        <v>314.09</v>
       </c>
       <c r="K225" t="n">
         <v>318.3</v>
@@ -9911,7 +9911,7 @@
         <v>317.31</v>
       </c>
       <c r="J226" t="n">
-        <v>314.05</v>
+        <v>314.09</v>
       </c>
       <c r="K226" t="n">
         <v>317.92</v>
@@ -9953,7 +9953,7 @@
         <v>318.24</v>
       </c>
       <c r="J227" t="n">
-        <v>314.05</v>
+        <v>314.09</v>
       </c>
       <c r="K227" t="n">
         <v>317.92</v>
@@ -9995,7 +9995,7 @@
         <v>319.1</v>
       </c>
       <c r="J228" t="n">
-        <v>315.46</v>
+        <v>315.47</v>
       </c>
       <c r="K228" t="n">
         <v>318.97</v>
@@ -10037,7 +10037,7 @@
         <v>321.18</v>
       </c>
       <c r="J229" t="n">
-        <v>316.19</v>
+        <v>316.03</v>
       </c>
       <c r="K229" t="n">
         <v>315.45</v>
@@ -10079,7 +10079,7 @@
         <v>323.98</v>
       </c>
       <c r="J230" t="n">
-        <v>319.76</v>
+        <v>319.7</v>
       </c>
       <c r="K230" t="n">
         <v>319.37</v>
@@ -10121,7 +10121,7 @@
         <v>326.19</v>
       </c>
       <c r="J231" t="n">
-        <v>322.12</v>
+        <v>322.07</v>
       </c>
       <c r="K231" t="n">
         <v>323.04</v>
@@ -10163,7 +10163,7 @@
         <v>323.62</v>
       </c>
       <c r="J232" t="n">
-        <v>317.43</v>
+        <v>317.41</v>
       </c>
       <c r="K232" t="n">
         <v>321.2</v>
@@ -10205,7 +10205,7 @@
         <v>323.71</v>
       </c>
       <c r="J233" t="n">
-        <v>317.13</v>
+        <v>317.19</v>
       </c>
       <c r="K233" t="n">
         <v>321.73</v>
@@ -10247,7 +10247,7 @@
         <v>322.61</v>
       </c>
       <c r="J234" t="n">
-        <v>314.87</v>
+        <v>314.98</v>
       </c>
       <c r="K234" t="n">
         <v>318.9</v>
@@ -10289,7 +10289,7 @@
         <v>320.44</v>
       </c>
       <c r="J235" t="n">
-        <v>314.27</v>
+        <v>314.31</v>
       </c>
       <c r="K235" t="n">
         <v>318.59</v>
@@ -10331,7 +10331,7 @@
         <v>320.44</v>
       </c>
       <c r="J236" t="n">
-        <v>314.27</v>
+        <v>314.31</v>
       </c>
       <c r="K236" t="n">
         <v>318.59</v>
@@ -10373,7 +10373,7 @@
         <v>320.44</v>
       </c>
       <c r="J237" t="n">
-        <v>314.27</v>
+        <v>314.31</v>
       </c>
       <c r="K237" t="n">
         <v>318.59</v>
@@ -10415,7 +10415,7 @@
         <v>320.92</v>
       </c>
       <c r="J238" t="n">
-        <v>315.16</v>
+        <v>315.17</v>
       </c>
       <c r="K238" t="n">
         <v>319.65</v>
@@ -10457,7 +10457,7 @@
         <v>320.71</v>
       </c>
       <c r="J239" t="n">
-        <v>314.99</v>
+        <v>314.96</v>
       </c>
       <c r="K239" t="n">
         <v>320.2</v>
@@ -10499,7 +10499,7 @@
         <v>320.68</v>
       </c>
       <c r="J240" t="n">
-        <v>314.82</v>
+        <v>314.77</v>
       </c>
       <c r="K240" t="n">
         <v>321.19</v>
@@ -10541,7 +10541,7 @@
         <v>318.04</v>
       </c>
       <c r="J241" t="n">
-        <v>312.65</v>
+        <v>312.59</v>
       </c>
       <c r="K241" t="n">
         <v>317.07</v>
@@ -10583,7 +10583,7 @@
         <v>318.02</v>
       </c>
       <c r="J242" t="n">
-        <v>312.38</v>
+        <v>312.3</v>
       </c>
       <c r="K242" t="n">
         <v>317.07</v>
@@ -10625,7 +10625,7 @@
         <v>319.1</v>
       </c>
       <c r="J243" t="n">
-        <v>316.85</v>
+        <v>316.77</v>
       </c>
       <c r="K243" t="n">
         <v>321.23</v>
@@ -10667,7 +10667,7 @@
         <v>320.63</v>
       </c>
       <c r="J244" t="n">
-        <v>319.09</v>
+        <v>318.94</v>
       </c>
       <c r="K244" t="n">
         <v>324.64</v>
@@ -10709,7 +10709,7 @@
         <v>322.67</v>
       </c>
       <c r="J245" t="n">
-        <v>321.19</v>
+        <v>321.12</v>
       </c>
       <c r="K245" t="n">
         <v>326.11</v>
@@ -10751,7 +10751,7 @@
         <v>322.67</v>
       </c>
       <c r="J246" t="n">
-        <v>321.19</v>
+        <v>321.12</v>
       </c>
       <c r="K246" t="n">
         <v>326.21</v>
@@ -10793,7 +10793,7 @@
         <v>320.65</v>
       </c>
       <c r="J247" t="n">
-        <v>319.21</v>
+        <v>319.14</v>
       </c>
       <c r="K247" t="n">
         <v>323.73</v>
@@ -10835,7 +10835,7 @@
         <v>319.1</v>
       </c>
       <c r="J248" t="n">
-        <v>318.14</v>
+        <v>318.07</v>
       </c>
       <c r="K248" t="n">
         <v>322.71</v>
@@ -10877,7 +10877,7 @@
         <v>321.83</v>
       </c>
       <c r="J249" t="n">
-        <v>318.14</v>
+        <v>318.07</v>
       </c>
       <c r="K249" t="n">
         <v>322.71</v>
@@ -11003,7 +11003,7 @@
         <v>322.94</v>
       </c>
       <c r="J252" t="n">
-        <v>318.83</v>
+        <v>318.91</v>
       </c>
       <c r="K252" t="n">
         <v>322.63</v>
@@ -11045,7 +11045,7 @@
         <v>322.82</v>
       </c>
       <c r="J253" t="n">
-        <v>320.02</v>
+        <v>320.12</v>
       </c>
       <c r="K253" t="n">
         <v>322.63</v>
@@ -11087,7 +11087,7 @@
         <v>322.82</v>
       </c>
       <c r="J254" t="n">
-        <v>320.02</v>
+        <v>320.12</v>
       </c>
       <c r="K254" t="n">
         <v>322.63</v>
@@ -11129,7 +11129,7 @@
         <v>323.64</v>
       </c>
       <c r="J255" t="n">
-        <v>320.69</v>
+        <v>320.79</v>
       </c>
       <c r="K255" t="n">
         <v>323.97</v>
@@ -11171,7 +11171,7 @@
         <v>324.07</v>
       </c>
       <c r="J256" t="n">
-        <v>320.63</v>
+        <v>320.7</v>
       </c>
       <c r="K256" t="n">
         <v>322.24</v>
@@ -11213,7 +11213,7 @@
         <v>325.05</v>
       </c>
       <c r="J257" t="n">
-        <v>321.8</v>
+        <v>321.89</v>
       </c>
       <c r="K257" t="n">
         <v>322.31</v>
@@ -11255,7 +11255,7 @@
         <v>325.46</v>
       </c>
       <c r="J258" t="n">
-        <v>325.39</v>
+        <v>325.49</v>
       </c>
       <c r="K258" t="n">
         <v>325.73</v>
@@ -11297,7 +11297,7 @@
         <v>326.59</v>
       </c>
       <c r="J259" t="n">
-        <v>323.79</v>
+        <v>323.88</v>
       </c>
       <c r="K259" t="n">
         <v>325.09</v>
@@ -11339,7 +11339,7 @@
         <v>327.06</v>
       </c>
       <c r="J260" t="n">
-        <v>325.18</v>
+        <v>325.21</v>
       </c>
       <c r="K260" t="n">
         <v>326.35</v>
@@ -11381,7 +11381,7 @@
         <v>327</v>
       </c>
       <c r="J261" t="n">
-        <v>325.18</v>
+        <v>325.21</v>
       </c>
       <c r="K261" t="n">
         <v>326.35</v>
@@ -11423,7 +11423,7 @@
         <v>327.15</v>
       </c>
       <c r="J262" t="n">
-        <v>325.05</v>
+        <v>325.04</v>
       </c>
       <c r="K262" t="n">
         <v>326.73</v>
@@ -11465,7 +11465,7 @@
         <v>326.48</v>
       </c>
       <c r="J263" t="n">
-        <v>324.56</v>
+        <v>324.53</v>
       </c>
       <c r="K263" t="n">
         <v>325.9</v>
@@ -11507,7 +11507,7 @@
         <v>326.51</v>
       </c>
       <c r="J264" t="n">
-        <v>324.13</v>
+        <v>324.16</v>
       </c>
       <c r="K264" t="n">
         <v>325.04</v>
@@ -11549,7 +11549,7 @@
         <v>326.79</v>
       </c>
       <c r="J265" t="n">
-        <v>323.37</v>
+        <v>323.48</v>
       </c>
       <c r="K265" t="n">
         <v>323.16</v>
@@ -11591,7 +11591,7 @@
         <v>327.3</v>
       </c>
       <c r="J266" t="n">
-        <v>323.36</v>
+        <v>323.49</v>
       </c>
       <c r="K266" t="n">
         <v>323.16</v>
@@ -11633,7 +11633,7 @@
         <v>327.4</v>
       </c>
       <c r="J267" t="n">
-        <v>322.62</v>
+        <v>322.72</v>
       </c>
       <c r="K267" t="n">
         <v>322.35</v>
@@ -11675,7 +11675,7 @@
         <v>327.4</v>
       </c>
       <c r="J268" t="n">
-        <v>322.62</v>
+        <v>322.72</v>
       </c>
       <c r="K268" t="n">
         <v>322.35</v>
@@ -11717,7 +11717,7 @@
         <v>326.37</v>
       </c>
       <c r="J269" t="n">
-        <v>321.67</v>
+        <v>321.73</v>
       </c>
       <c r="K269" t="n">
         <v>322.22</v>
@@ -11759,7 +11759,7 @@
         <v>325.96</v>
       </c>
       <c r="J270" t="n">
-        <v>321.22</v>
+        <v>321.32</v>
       </c>
       <c r="K270" t="n">
         <v>323.53</v>
@@ -11801,7 +11801,7 @@
         <v>326.89</v>
       </c>
       <c r="J271" t="n">
-        <v>322.47</v>
+        <v>322.55</v>
       </c>
       <c r="K271" t="n">
         <v>324.73</v>
@@ -11843,7 +11843,7 @@
         <v>326.21</v>
       </c>
       <c r="J272" t="n">
-        <v>321.76</v>
+        <v>321.77</v>
       </c>
       <c r="K272" t="n">
         <v>325.15</v>
@@ -11885,7 +11885,7 @@
         <v>325.64</v>
       </c>
       <c r="J273" t="n">
-        <v>320.5</v>
+        <v>320.51</v>
       </c>
       <c r="K273" t="n">
         <v>324.22</v>
@@ -11927,7 +11927,7 @@
         <v>326</v>
       </c>
       <c r="J274" t="n">
-        <v>321.02</v>
+        <v>321.03</v>
       </c>
       <c r="K274" t="n">
         <v>325.13</v>
@@ -11969,7 +11969,7 @@
         <v>325.12</v>
       </c>
       <c r="J275" t="n">
-        <v>320.32</v>
+        <v>320.33</v>
       </c>
       <c r="K275" t="n">
         <v>323.94</v>
@@ -12053,7 +12053,7 @@
         <v>326.98</v>
       </c>
       <c r="J277" t="n">
-        <v>321.99</v>
+        <v>321.97</v>
       </c>
       <c r="K277" t="n">
         <v>328.36</v>
@@ -12095,7 +12095,7 @@
         <v>323.96</v>
       </c>
       <c r="J278" t="n">
-        <v>320.22</v>
+        <v>320.11</v>
       </c>
       <c r="K278" t="n">
         <v>328.09</v>
@@ -12137,7 +12137,7 @@
         <v>324.72</v>
       </c>
       <c r="J279" t="n">
-        <v>320.57</v>
+        <v>320.49</v>
       </c>
       <c r="K279" t="n">
         <v>327.97</v>
@@ -12179,7 +12179,7 @@
         <v>326.21</v>
       </c>
       <c r="J280" t="n">
-        <v>322.04</v>
+        <v>321.91</v>
       </c>
       <c r="K280" t="n">
         <v>327.86</v>
@@ -12221,7 +12221,7 @@
         <v>328.47</v>
       </c>
       <c r="J281" t="n">
-        <v>324.58</v>
+        <v>324.53</v>
       </c>
       <c r="K281" t="n">
         <v>329.28</v>
@@ -12263,7 +12263,7 @@
         <v>328.47</v>
       </c>
       <c r="J282" t="n">
-        <v>324.58</v>
+        <v>324.53</v>
       </c>
       <c r="K282" t="n">
         <v>329.28</v>
@@ -12305,7 +12305,7 @@
         <v>327.69</v>
       </c>
       <c r="J283" t="n">
-        <v>325.22</v>
+        <v>325.19</v>
       </c>
       <c r="K283" t="n">
         <v>329.91</v>
@@ -12389,7 +12389,7 @@
         <v>324.79</v>
       </c>
       <c r="J285" t="n">
-        <v>323.46</v>
+        <v>323.47</v>
       </c>
       <c r="K285" t="n">
         <v>328.06</v>
@@ -12431,7 +12431,7 @@
         <v>324.44</v>
       </c>
       <c r="J286" t="n">
-        <v>322.66</v>
+        <v>322.77</v>
       </c>
       <c r="K286" t="n">
         <v>324.24</v>
@@ -12473,7 +12473,7 @@
         <v>325.71</v>
       </c>
       <c r="J287" t="n">
-        <v>324.2</v>
+        <v>324.33</v>
       </c>
       <c r="K287" t="n">
         <v>326.2</v>
@@ -12515,7 +12515,7 @@
         <v>325.15</v>
       </c>
       <c r="J288" t="n">
-        <v>323.38</v>
+        <v>323.46</v>
       </c>
       <c r="K288" t="n">
         <v>324.62</v>
@@ -12557,7 +12557,7 @@
         <v>324.8</v>
       </c>
       <c r="J289" t="n">
-        <v>323.34</v>
+        <v>323.41</v>
       </c>
       <c r="K289" t="n">
         <v>323.89</v>
@@ -12599,7 +12599,7 @@
         <v>325.27</v>
       </c>
       <c r="J290" t="n">
-        <v>323.3</v>
+        <v>323.37</v>
       </c>
       <c r="K290" t="n">
         <v>323.5</v>
@@ -12641,7 +12641,7 @@
         <v>322.83</v>
       </c>
       <c r="J291" t="n">
-        <v>321.05</v>
+        <v>321.14</v>
       </c>
       <c r="K291" t="n">
         <v>320.64</v>
@@ -12683,7 +12683,7 @@
         <v>324.1</v>
       </c>
       <c r="J292" t="n">
-        <v>321.83</v>
+        <v>321.87</v>
       </c>
       <c r="K292" t="n">
         <v>323.61</v>
@@ -12725,7 +12725,7 @@
         <v>324.1</v>
       </c>
       <c r="J293" t="n">
-        <v>321.83</v>
+        <v>321.87</v>
       </c>
       <c r="K293" t="n">
         <v>324.37</v>
@@ -12767,7 +12767,7 @@
         <v>323.47</v>
       </c>
       <c r="J294" t="n">
-        <v>321.02</v>
+        <v>321.09</v>
       </c>
       <c r="K294" t="n">
         <v>322.31</v>
@@ -12809,7 +12809,7 @@
         <v>321.82</v>
       </c>
       <c r="J295" t="n">
-        <v>317.89</v>
+        <v>317.97</v>
       </c>
       <c r="K295" t="n">
         <v>319.86</v>
@@ -12851,7 +12851,7 @@
         <v>321.69</v>
       </c>
       <c r="J296" t="n">
-        <v>317.37</v>
+        <v>317.47</v>
       </c>
       <c r="K296" t="n">
         <v>318.57</v>
@@ -12893,7 +12893,7 @@
         <v>319.75</v>
       </c>
       <c r="J297" t="n">
-        <v>314.15</v>
+        <v>314.26</v>
       </c>
       <c r="K297" t="n">
         <v>316.77</v>
@@ -12935,7 +12935,7 @@
         <v>320.25</v>
       </c>
       <c r="J298" t="n">
-        <v>314.53</v>
+        <v>314.61</v>
       </c>
       <c r="K298" t="n">
         <v>316.52</v>
@@ -12977,7 +12977,7 @@
         <v>321</v>
       </c>
       <c r="J299" t="n">
-        <v>312.85</v>
+        <v>313.03</v>
       </c>
       <c r="K299" t="n">
         <v>309.46</v>
@@ -13019,7 +13019,7 @@
         <v>322.04</v>
       </c>
       <c r="J300" t="n">
-        <v>314.85</v>
+        <v>314.91</v>
       </c>
       <c r="K300" t="n">
         <v>313.19</v>
@@ -13061,7 +13061,7 @@
         <v>323.54</v>
       </c>
       <c r="J301" t="n">
-        <v>316.72</v>
+        <v>316.8</v>
       </c>
       <c r="K301" t="n">
         <v>315.4</v>
@@ -13103,7 +13103,7 @@
         <v>325.02</v>
       </c>
       <c r="J302" t="n">
-        <v>318.68</v>
+        <v>318.74</v>
       </c>
       <c r="K302" t="n">
         <v>317.89</v>
@@ -13145,7 +13145,7 @@
         <v>325.81</v>
       </c>
       <c r="J303" t="n">
-        <v>320.34</v>
+        <v>320.41</v>
       </c>
       <c r="K303" t="n">
         <v>319.04</v>
@@ -13187,7 +13187,7 @@
         <v>324.68</v>
       </c>
       <c r="J304" t="n">
-        <v>319.43</v>
+        <v>319.46</v>
       </c>
       <c r="K304" t="n">
         <v>318.61</v>
@@ -13229,7 +13229,7 @@
         <v>323.12</v>
       </c>
       <c r="J305" t="n">
-        <v>317.9</v>
+        <v>317.95</v>
       </c>
       <c r="K305" t="n">
         <v>318.61</v>
@@ -13271,7 +13271,7 @@
         <v>322.73</v>
       </c>
       <c r="J306" t="n">
-        <v>316.56</v>
+        <v>316.64</v>
       </c>
       <c r="K306" t="n">
         <v>316.44</v>
@@ -13313,7 +13313,7 @@
         <v>323.71</v>
       </c>
       <c r="J307" t="n">
-        <v>317.69</v>
+        <v>317.79</v>
       </c>
       <c r="K307" t="n">
         <v>317.61</v>
@@ -13355,7 +13355,7 @@
         <v>324.14</v>
       </c>
       <c r="J308" t="n">
-        <v>318.52</v>
+        <v>318.62</v>
       </c>
       <c r="K308" t="n">
         <v>319.58</v>
@@ -13397,7 +13397,7 @@
         <v>324.14</v>
       </c>
       <c r="J309" t="n">
-        <v>318.52</v>
+        <v>318.62</v>
       </c>
       <c r="K309" t="n">
         <v>320.05</v>
@@ -13439,7 +13439,7 @@
         <v>324.72</v>
       </c>
       <c r="J310" t="n">
-        <v>319.87</v>
+        <v>319.98</v>
       </c>
       <c r="K310" t="n">
         <v>321.35</v>
@@ -13481,7 +13481,7 @@
         <v>325.1</v>
       </c>
       <c r="J311" t="n">
-        <v>320.17</v>
+        <v>320.3</v>
       </c>
       <c r="K311" t="n">
         <v>322.01</v>
@@ -13523,7 +13523,7 @@
         <v>323.94</v>
       </c>
       <c r="J312" t="n">
-        <v>318.69</v>
+        <v>318.85</v>
       </c>
       <c r="K312" t="n">
         <v>322.37</v>
@@ -13565,7 +13565,7 @@
         <v>324.19</v>
       </c>
       <c r="J313" t="n">
-        <v>318.38</v>
+        <v>318.58</v>
       </c>
       <c r="K313" t="n">
         <v>322.3</v>
@@ -13607,7 +13607,7 @@
         <v>320.58</v>
       </c>
       <c r="J314" t="n">
-        <v>313.21</v>
+        <v>313.43</v>
       </c>
       <c r="K314" t="n">
         <v>317.27</v>
@@ -13649,7 +13649,7 @@
         <v>321.92</v>
       </c>
       <c r="J315" t="n">
-        <v>314.05</v>
+        <v>314.29</v>
       </c>
       <c r="K315" t="n">
         <v>316.82</v>
@@ -13691,7 +13691,7 @@
         <v>322.36</v>
       </c>
       <c r="J316" t="n">
-        <v>314.35</v>
+        <v>314.61</v>
       </c>
       <c r="K316" t="n">
         <v>314.53</v>
@@ -13733,7 +13733,7 @@
         <v>323.55</v>
       </c>
       <c r="J317" t="n">
-        <v>316.7</v>
+        <v>316.96</v>
       </c>
       <c r="K317" t="n">
         <v>316.88</v>
@@ -13775,7 +13775,7 @@
         <v>322.7</v>
       </c>
       <c r="J318" t="n">
-        <v>314.8</v>
+        <v>315.05</v>
       </c>
       <c r="K318" t="n">
         <v>312.37</v>
@@ -13817,7 +13817,7 @@
         <v>322.56</v>
       </c>
       <c r="J319" t="n">
-        <v>314.82</v>
+        <v>315.05</v>
       </c>
       <c r="K319" t="n">
         <v>312.05</v>
@@ -13859,7 +13859,7 @@
         <v>322.56</v>
       </c>
       <c r="J320" t="n">
-        <v>314.82</v>
+        <v>315.05</v>
       </c>
       <c r="K320" t="n">
         <v>311.86</v>
@@ -13901,7 +13901,7 @@
         <v>322.07</v>
       </c>
       <c r="J321" t="n">
-        <v>313.63</v>
+        <v>313.86</v>
       </c>
       <c r="K321" t="n">
         <v>311.8</v>
@@ -13943,7 +13943,7 @@
         <v>321.26</v>
       </c>
       <c r="J322" t="n">
-        <v>313.41</v>
+        <v>313.62</v>
       </c>
       <c r="K322" t="n">
         <v>311.44</v>
@@ -13985,7 +13985,7 @@
         <v>321.07</v>
       </c>
       <c r="J323" t="n">
-        <v>314.19</v>
+        <v>314.34</v>
       </c>
       <c r="K323" t="n">
         <v>310.72</v>
@@ -14027,7 +14027,7 @@
         <v>319.83</v>
       </c>
       <c r="J324" t="n">
-        <v>312.78</v>
+        <v>312.9</v>
       </c>
       <c r="K324" t="n">
         <v>310.72</v>
@@ -14069,7 +14069,7 @@
         <v>320.72</v>
       </c>
       <c r="J325" t="n">
-        <v>313.57</v>
+        <v>313.7</v>
       </c>
       <c r="K325" t="n">
         <v>312.14</v>
@@ -14111,7 +14111,7 @@
         <v>320.72</v>
       </c>
       <c r="J326" t="n">
-        <v>313.57</v>
+        <v>313.7</v>
       </c>
       <c r="K326" t="n">
         <v>312.14</v>
@@ -14153,7 +14153,7 @@
         <v>320.35</v>
       </c>
       <c r="J327" t="n">
-        <v>313.83</v>
+        <v>313.97</v>
       </c>
       <c r="K327" t="n">
         <v>312.16</v>
@@ -14195,7 +14195,7 @@
         <v>321.47</v>
       </c>
       <c r="J328" t="n">
-        <v>316.1</v>
+        <v>316.18</v>
       </c>
       <c r="K328" t="n">
         <v>315.92</v>
@@ -14237,7 +14237,7 @@
         <v>321.98</v>
       </c>
       <c r="J329" t="n">
-        <v>316.3</v>
+        <v>316.34</v>
       </c>
       <c r="K329" t="n">
         <v>316.46</v>
@@ -14279,7 +14279,7 @@
         <v>322.35</v>
       </c>
       <c r="J330" t="n">
-        <v>315.65</v>
+        <v>315.71</v>
       </c>
       <c r="K330" t="n">
         <v>316.72</v>
@@ -14321,7 +14321,7 @@
         <v>322.49</v>
       </c>
       <c r="J331" t="n">
-        <v>315.81</v>
+        <v>315.86</v>
       </c>
       <c r="K331" t="n">
         <v>317.02</v>
@@ -14363,7 +14363,7 @@
         <v>322.58</v>
       </c>
       <c r="J332" t="n">
-        <v>315.96</v>
+        <v>315.95</v>
       </c>
       <c r="K332" t="n">
         <v>320.14</v>
@@ -14405,7 +14405,7 @@
         <v>322.6</v>
       </c>
       <c r="J333" t="n">
-        <v>316.09</v>
+        <v>316.06</v>
       </c>
       <c r="K333" t="n">
         <v>320.28</v>
@@ -14447,7 +14447,7 @@
         <v>323.67</v>
       </c>
       <c r="J334" t="n">
-        <v>317.76</v>
+        <v>317.7</v>
       </c>
       <c r="K334" t="n">
         <v>322.3</v>
@@ -14489,7 +14489,7 @@
         <v>324.69</v>
       </c>
       <c r="J335" t="n">
-        <v>317.86</v>
+        <v>317.81</v>
       </c>
       <c r="K335" t="n">
         <v>322.88</v>
@@ -14531,7 +14531,7 @@
         <v>325.08</v>
       </c>
       <c r="J336" t="n">
-        <v>317.66</v>
+        <v>317.67</v>
       </c>
       <c r="K336" t="n">
         <v>322.88</v>
@@ -14573,7 +14573,7 @@
         <v>325.12</v>
       </c>
       <c r="J337" t="n">
-        <v>317.85</v>
+        <v>317.9</v>
       </c>
       <c r="K337" t="n">
         <v>326.2</v>
@@ -14615,7 +14615,7 @@
         <v>324.53</v>
       </c>
       <c r="J338" t="n">
-        <v>316.8</v>
+        <v>316.87</v>
       </c>
       <c r="K338" t="n">
         <v>324.84</v>
@@ -14657,7 +14657,7 @@
         <v>323.86</v>
       </c>
       <c r="J339" t="n">
-        <v>316.82</v>
+        <v>316.87</v>
       </c>
       <c r="K339" t="n">
         <v>326.07</v>
@@ -14699,7 +14699,7 @@
         <v>323.66</v>
       </c>
       <c r="J340" t="n">
-        <v>315.94</v>
+        <v>316.04</v>
       </c>
       <c r="K340" t="n">
         <v>326.86</v>
@@ -14741,7 +14741,7 @@
         <v>323.43</v>
       </c>
       <c r="J341" t="n">
-        <v>316.69</v>
+        <v>316.77</v>
       </c>
       <c r="K341" t="n">
         <v>326.62</v>
@@ -14783,7 +14783,7 @@
         <v>321.01</v>
       </c>
       <c r="J342" t="n">
-        <v>315.28</v>
+        <v>315.4</v>
       </c>
       <c r="K342" t="n">
         <v>325.88</v>
@@ -14825,7 +14825,7 @@
         <v>321.79</v>
       </c>
       <c r="J343" t="n">
-        <v>315.63</v>
+        <v>315.8</v>
       </c>
       <c r="K343" t="n">
         <v>326.88</v>
@@ -14867,7 +14867,7 @@
         <v>322.27</v>
       </c>
       <c r="J344" t="n">
-        <v>316.24</v>
+        <v>316.37</v>
       </c>
       <c r="K344" t="n">
         <v>326.25</v>
@@ -14909,7 +14909,7 @@
         <v>322.27</v>
       </c>
       <c r="J345" t="n">
-        <v>319.28</v>
+        <v>319.45</v>
       </c>
       <c r="K345" t="n">
         <v>327.24</v>
@@ -14951,7 +14951,7 @@
         <v>323.02</v>
       </c>
       <c r="J346" t="n">
-        <v>321.53</v>
+        <v>321.65</v>
       </c>
       <c r="K346" t="n">
         <v>325.81</v>
@@ -14993,7 +14993,7 @@
         <v>323.74</v>
       </c>
       <c r="J347" t="n">
-        <v>323.22</v>
+        <v>323.29</v>
       </c>
       <c r="K347" t="n">
         <v>326.53</v>
@@ -15035,7 +15035,7 @@
         <v>323.34</v>
       </c>
       <c r="J348" t="n">
-        <v>324.33</v>
+        <v>324.43</v>
       </c>
       <c r="K348" t="n">
         <v>326.39</v>
@@ -15077,7 +15077,7 @@
         <v>325.05</v>
       </c>
       <c r="J349" t="n">
-        <v>324.8</v>
+        <v>324.89</v>
       </c>
       <c r="K349" t="n">
         <v>327.27</v>
@@ -15119,7 +15119,7 @@
         <v>325.05</v>
       </c>
       <c r="J350" t="n">
-        <v>324.8</v>
+        <v>324.89</v>
       </c>
       <c r="K350" t="n">
         <v>327.64</v>
@@ -15161,7 +15161,7 @@
         <v>326.06</v>
       </c>
       <c r="J351" t="n">
-        <v>324.93</v>
+        <v>325.03</v>
       </c>
       <c r="K351" t="n">
         <v>327.6</v>
@@ -15203,7 +15203,7 @@
         <v>326.55</v>
       </c>
       <c r="J352" t="n">
-        <v>325.72</v>
+        <v>325.79</v>
       </c>
       <c r="K352" t="n">
         <v>327.46</v>
@@ -15245,7 +15245,7 @@
         <v>328.41</v>
       </c>
       <c r="J353" t="n">
-        <v>327.38</v>
+        <v>327.47</v>
       </c>
       <c r="K353" t="n">
         <v>328.58</v>
@@ -15287,7 +15287,7 @@
         <v>329.97</v>
       </c>
       <c r="J354" t="n">
-        <v>327.23</v>
+        <v>327.33</v>
       </c>
       <c r="K354" t="n">
         <v>328.08</v>
@@ -15329,7 +15329,7 @@
         <v>329.64</v>
       </c>
       <c r="J355" t="n">
-        <v>325.8</v>
+        <v>325.93</v>
       </c>
       <c r="K355" t="n">
         <v>327.15</v>
@@ -15371,7 +15371,7 @@
         <v>327.06</v>
       </c>
       <c r="J356" t="n">
-        <v>323.3</v>
+        <v>323.35</v>
       </c>
       <c r="K356" t="n">
         <v>325.32</v>
@@ -15413,7 +15413,7 @@
         <v>325.56</v>
       </c>
       <c r="J357" t="n">
-        <v>322.47</v>
+        <v>322.49</v>
       </c>
       <c r="K357" t="n">
         <v>324.99</v>
@@ -15455,7 +15455,7 @@
         <v>325.01</v>
       </c>
       <c r="J358" t="n">
-        <v>321.79</v>
+        <v>321.78</v>
       </c>
       <c r="K358" t="n">
         <v>324.77</v>
@@ -15497,7 +15497,7 @@
         <v>324.37</v>
       </c>
       <c r="J359" t="n">
-        <v>319.66</v>
+        <v>319.6</v>
       </c>
       <c r="K359" t="n">
         <v>324.13</v>
@@ -15539,7 +15539,7 @@
         <v>321.16</v>
       </c>
       <c r="J360" t="n">
-        <v>316.37</v>
+        <v>316.34</v>
       </c>
       <c r="K360" t="n">
         <v>318.88</v>
@@ -15581,7 +15581,7 @@
         <v>321.04</v>
       </c>
       <c r="J361" t="n">
-        <v>317</v>
+        <v>316.97</v>
       </c>
       <c r="K361" t="n">
         <v>318.35</v>
@@ -15623,7 +15623,7 @@
         <v>322.15</v>
       </c>
       <c r="J362" t="n">
-        <v>317</v>
+        <v>316.97</v>
       </c>
       <c r="K362" t="n">
         <v>318.35</v>
@@ -15665,7 +15665,7 @@
         <v>323.16</v>
       </c>
       <c r="J363" t="n">
-        <v>318.4</v>
+        <v>318.33</v>
       </c>
       <c r="K363" t="n">
         <v>320.56</v>
@@ -15707,7 +15707,7 @@
         <v>323.42</v>
       </c>
       <c r="J364" t="n">
-        <v>319.21</v>
+        <v>319.15</v>
       </c>
       <c r="K364" t="n">
         <v>321.2</v>
@@ -15749,7 +15749,7 @@
         <v>323.41</v>
       </c>
       <c r="J365" t="n">
-        <v>319.88</v>
+        <v>319.82</v>
       </c>
       <c r="K365" t="n">
         <v>321.48</v>
@@ -15791,7 +15791,7 @@
         <v>324.1</v>
       </c>
       <c r="J366" t="n">
-        <v>320.35</v>
+        <v>320.33</v>
       </c>
       <c r="K366" t="n">
         <v>322.09</v>
@@ -15833,7 +15833,7 @@
         <v>324.71</v>
       </c>
       <c r="J367" t="n">
-        <v>320.81</v>
+        <v>320.8</v>
       </c>
       <c r="K367" t="n">
         <v>322.59</v>
@@ -15875,7 +15875,7 @@
         <v>324.48</v>
       </c>
       <c r="J368" t="n">
-        <v>321.8</v>
+        <v>321.72</v>
       </c>
       <c r="K368" t="n">
         <v>323.71</v>
@@ -15917,7 +15917,7 @@
         <v>324.63</v>
       </c>
       <c r="J369" t="n">
-        <v>322.28</v>
+        <v>322.2</v>
       </c>
       <c r="K369" t="n">
         <v>324.26</v>
@@ -16001,7 +16001,7 @@
         <v>325.33</v>
       </c>
       <c r="J371" t="n">
-        <v>323.72</v>
+        <v>323.7</v>
       </c>
       <c r="K371" t="n">
         <v>325.45</v>
@@ -16043,7 +16043,7 @@
         <v>326.77</v>
       </c>
       <c r="J372" t="n">
-        <v>324.57</v>
+        <v>324.59</v>
       </c>
       <c r="K372" t="n">
         <v>325.74</v>
@@ -16085,7 +16085,7 @@
         <v>326.58</v>
       </c>
       <c r="J373" t="n">
-        <v>324.38</v>
+        <v>324.4</v>
       </c>
       <c r="K373" t="n">
         <v>325.52</v>
@@ -16127,7 +16127,7 @@
         <v>325.18</v>
       </c>
       <c r="J374" t="n">
-        <v>321.41</v>
+        <v>321.44</v>
       </c>
       <c r="K374" t="n">
         <v>323.94</v>
@@ -16211,7 +16211,7 @@
         <v>325.44</v>
       </c>
       <c r="J376" t="n">
-        <v>320.8</v>
+        <v>320.81</v>
       </c>
       <c r="K376" t="n">
         <v>323.89</v>
@@ -16253,7 +16253,7 @@
         <v>325.07</v>
       </c>
       <c r="J377" t="n">
-        <v>320.56</v>
+        <v>320.55</v>
       </c>
       <c r="K377" t="n">
         <v>323.89</v>
@@ -16295,7 +16295,7 @@
         <v>325.54</v>
       </c>
       <c r="J378" t="n">
-        <v>320.94</v>
+        <v>320.91</v>
       </c>
       <c r="K378" t="n">
         <v>324.89</v>
@@ -16337,7 +16337,7 @@
         <v>324.8</v>
       </c>
       <c r="J379" t="n">
-        <v>320.47</v>
+        <v>320.44</v>
       </c>
       <c r="K379" t="n">
         <v>324.02</v>
@@ -16379,7 +16379,7 @@
         <v>325.25</v>
       </c>
       <c r="J380" t="n">
-        <v>319.96</v>
+        <v>319.95</v>
       </c>
       <c r="K380" t="n">
         <v>323.88</v>
@@ -16421,7 +16421,7 @@
         <v>324.75</v>
       </c>
       <c r="J381" t="n">
-        <v>320.45</v>
+        <v>320.41</v>
       </c>
       <c r="K381" t="n">
         <v>323.53</v>
@@ -16463,7 +16463,7 @@
         <v>325.07</v>
       </c>
       <c r="J382" t="n">
-        <v>320.51</v>
+        <v>320.46</v>
       </c>
       <c r="K382" t="n">
         <v>323.82</v>
@@ -16505,7 +16505,7 @@
         <v>325.04</v>
       </c>
       <c r="J383" t="n">
-        <v>320.32</v>
+        <v>320.27</v>
       </c>
       <c r="K383" t="n">
         <v>323.15</v>
@@ -16547,7 +16547,7 @@
         <v>324.82</v>
       </c>
       <c r="J384" t="n">
-        <v>320.16</v>
+        <v>320.12</v>
       </c>
       <c r="K384" t="n">
         <v>322.74</v>
@@ -16589,7 +16589,7 @@
         <v>325.1</v>
       </c>
       <c r="J385" t="n">
-        <v>320.12</v>
+        <v>320.08</v>
       </c>
       <c r="K385" t="n">
         <v>322.28</v>
@@ -16631,7 +16631,7 @@
         <v>325.12</v>
       </c>
       <c r="J386" t="n">
-        <v>320.54</v>
+        <v>320.51</v>
       </c>
       <c r="K386" t="n">
         <v>322.14</v>
@@ -16715,7 +16715,7 @@
         <v>325.93</v>
       </c>
       <c r="J388" t="n">
-        <v>320</v>
+        <v>320.01</v>
       </c>
       <c r="K388" t="n">
         <v>321.01</v>
@@ -16757,7 +16757,7 @@
         <v>324.6</v>
       </c>
       <c r="J389" t="n">
-        <v>319.43</v>
+        <v>319.41</v>
       </c>
       <c r="K389" t="n">
         <v>320.87</v>
@@ -16799,7 +16799,7 @@
         <v>324.02</v>
       </c>
       <c r="J390" t="n">
-        <v>318.96</v>
+        <v>318.92</v>
       </c>
       <c r="K390" t="n">
         <v>320.69</v>
@@ -16841,7 +16841,7 @@
         <v>323.97</v>
       </c>
       <c r="J391" t="n">
-        <v>319.03</v>
+        <v>319.01</v>
       </c>
       <c r="K391" t="n">
         <v>320.38</v>
@@ -16883,7 +16883,7 @@
         <v>323.96</v>
       </c>
       <c r="J392" t="n">
-        <v>318.97</v>
+        <v>318.96</v>
       </c>
       <c r="K392" t="n">
         <v>320.2</v>
@@ -16925,7 +16925,7 @@
         <v>323.64</v>
       </c>
       <c r="J393" t="n">
-        <v>318.3</v>
+        <v>318.31</v>
       </c>
       <c r="K393" t="n">
         <v>319.38</v>
@@ -17009,7 +17009,7 @@
         <v>325.03</v>
       </c>
       <c r="J395" t="n">
-        <v>320.19</v>
+        <v>320.2</v>
       </c>
       <c r="K395" t="n">
         <v>320.49</v>
@@ -17051,7 +17051,7 @@
         <v>325.37</v>
       </c>
       <c r="J396" t="n">
-        <v>320.81</v>
+        <v>320.82</v>
       </c>
       <c r="K396" t="n">
         <v>320.81</v>
@@ -17177,7 +17177,7 @@
         <v>325.85</v>
       </c>
       <c r="J399" t="n">
-        <v>322.4</v>
+        <v>322.38</v>
       </c>
       <c r="K399" t="n">
         <v>323.16</v>
@@ -17219,7 +17219,7 @@
         <v>325.99</v>
       </c>
       <c r="J400" t="n">
-        <v>322.27</v>
+        <v>322.26</v>
       </c>
       <c r="K400" t="n">
         <v>323.28</v>
@@ -17303,7 +17303,7 @@
         <v>326.57</v>
       </c>
       <c r="J402" t="n">
-        <v>323.19</v>
+        <v>323.17</v>
       </c>
       <c r="K402" t="n">
         <v>324.76</v>
@@ -17345,7 +17345,7 @@
         <v>326.56</v>
       </c>
       <c r="J403" t="n">
-        <v>323.28</v>
+        <v>323.31</v>
       </c>
       <c r="K403" t="n">
         <v>323.95</v>
@@ -17387,7 +17387,7 @@
         <v>326.66</v>
       </c>
       <c r="J404" t="n">
-        <v>323.23</v>
+        <v>323.3</v>
       </c>
       <c r="K404" t="n">
         <v>323.65</v>
@@ -17429,7 +17429,7 @@
         <v>326.59</v>
       </c>
       <c r="J405" t="n">
-        <v>323.3</v>
+        <v>323.37</v>
       </c>
       <c r="K405" t="n">
         <v>323.71</v>
@@ -17471,7 +17471,7 @@
         <v>326.47</v>
       </c>
       <c r="J406" t="n">
-        <v>323.46</v>
+        <v>323.5</v>
       </c>
       <c r="K406" t="n">
         <v>324.45</v>
@@ -17513,7 +17513,7 @@
         <v>326.84</v>
       </c>
       <c r="J407" t="n">
-        <v>323.82</v>
+        <v>323.87</v>
       </c>
       <c r="K407" t="n">
         <v>325.06</v>
@@ -17555,7 +17555,7 @@
         <v>326.83</v>
       </c>
       <c r="J408" t="n">
-        <v>323.62</v>
+        <v>323.7</v>
       </c>
       <c r="K408" t="n">
         <v>325.11</v>
@@ -17597,7 +17597,7 @@
         <v>326.95</v>
       </c>
       <c r="J409" t="n">
-        <v>323.64</v>
+        <v>323.71</v>
       </c>
       <c r="K409" t="n">
         <v>325.4</v>
@@ -17639,7 +17639,7 @@
         <v>327.09</v>
       </c>
       <c r="J410" t="n">
-        <v>323.68</v>
+        <v>323.75</v>
       </c>
       <c r="K410" t="n">
         <v>325.85</v>
@@ -17681,7 +17681,7 @@
         <v>326.92</v>
       </c>
       <c r="J411" t="n">
-        <v>323.71</v>
+        <v>323.78</v>
       </c>
       <c r="K411" t="n">
         <v>326.13</v>
@@ -17723,7 +17723,7 @@
         <v>326.97</v>
       </c>
       <c r="J412" t="n">
-        <v>323.66</v>
+        <v>323.73</v>
       </c>
       <c r="K412" t="n">
         <v>326.55</v>
@@ -17765,7 +17765,7 @@
         <v>326.84</v>
       </c>
       <c r="J413" t="n">
-        <v>323.19</v>
+        <v>323.27</v>
       </c>
       <c r="K413" t="n">
         <v>327.36</v>
@@ -17807,7 +17807,7 @@
         <v>327.01</v>
       </c>
       <c r="J414" t="n">
-        <v>323.44</v>
+        <v>323.49</v>
       </c>
       <c r="K414" t="n">
         <v>327.7</v>
@@ -17849,7 +17849,7 @@
         <v>326.73</v>
       </c>
       <c r="J415" t="n">
-        <v>323.1</v>
+        <v>323.15</v>
       </c>
       <c r="K415" t="n">
         <v>327.83</v>
@@ -17891,7 +17891,7 @@
         <v>326.73</v>
       </c>
       <c r="J416" t="n">
-        <v>323.1</v>
+        <v>323.15</v>
       </c>
       <c r="K416" t="n">
         <v>327.83</v>
@@ -17933,7 +17933,7 @@
         <v>326.92</v>
       </c>
       <c r="J417" t="n">
-        <v>323.27</v>
+        <v>323.3</v>
       </c>
       <c r="K417" t="n">
         <v>327.63</v>
@@ -17975,7 +17975,7 @@
         <v>327.34</v>
       </c>
       <c r="J418" t="n">
-        <v>323.7</v>
+        <v>323.74</v>
       </c>
       <c r="K418" t="n">
         <v>327.7</v>
@@ -18017,7 +18017,7 @@
         <v>327.76</v>
       </c>
       <c r="J419" t="n">
-        <v>323.97</v>
+        <v>324</v>
       </c>
       <c r="K419" t="n">
         <v>328.12</v>
@@ -18059,7 +18059,7 @@
         <v>329.8</v>
       </c>
       <c r="J420" t="n">
-        <v>326.24</v>
+        <v>326.27</v>
       </c>
       <c r="K420" t="n">
         <v>331.77</v>
@@ -18101,7 +18101,7 @@
         <v>329.18</v>
       </c>
       <c r="J421" t="n">
-        <v>324.87</v>
+        <v>324.93</v>
       </c>
       <c r="K421" t="n">
         <v>330.75</v>
@@ -18143,7 +18143,7 @@
         <v>328.5</v>
       </c>
       <c r="J422" t="n">
-        <v>323.63</v>
+        <v>323.66</v>
       </c>
       <c r="K422" t="n">
         <v>329.53</v>
@@ -18185,7 +18185,7 @@
         <v>327.91</v>
       </c>
       <c r="J423" t="n">
-        <v>322.93</v>
+        <v>322.97</v>
       </c>
       <c r="K423" t="n">
         <v>329.18</v>
@@ -18227,7 +18227,7 @@
         <v>327.44</v>
       </c>
       <c r="J424" t="n">
-        <v>321.47</v>
+        <v>321.45</v>
       </c>
       <c r="K424" t="n">
         <v>328.33</v>
@@ -18269,7 +18269,7 @@
         <v>327.44</v>
       </c>
       <c r="J425" t="n">
-        <v>321.47</v>
+        <v>321.45</v>
       </c>
       <c r="K425" t="n">
         <v>328.33</v>
@@ -18311,7 +18311,7 @@
         <v>326.73</v>
       </c>
       <c r="J426" t="n">
-        <v>320.51</v>
+        <v>320.54</v>
       </c>
       <c r="K426" t="n">
         <v>326.58</v>
@@ -18353,7 +18353,7 @@
         <v>326.6</v>
       </c>
       <c r="J427" t="n">
-        <v>318.8</v>
+        <v>318.79</v>
       </c>
       <c r="K427" t="n">
         <v>324.92</v>
@@ -18395,7 +18395,7 @@
         <v>326.6</v>
       </c>
       <c r="J428" t="n">
-        <v>319.04</v>
+        <v>319.05</v>
       </c>
       <c r="K428" t="n">
         <v>324.77</v>
@@ -18479,7 +18479,7 @@
         <v>325.98</v>
       </c>
       <c r="J430" t="n">
-        <v>318.88</v>
+        <v>318.87</v>
       </c>
       <c r="K430" t="n">
         <v>323.86</v>
@@ -18563,7 +18563,7 @@
         <v>325.76</v>
       </c>
       <c r="J432" t="n">
-        <v>318.65</v>
+        <v>318.68</v>
       </c>
       <c r="K432" t="n">
         <v>323.28</v>
@@ -18605,7 +18605,7 @@
         <v>325.51</v>
       </c>
       <c r="J433" t="n">
-        <v>318.76</v>
+        <v>318.82</v>
       </c>
       <c r="K433" t="n">
         <v>323.25</v>
@@ -18647,7 +18647,7 @@
         <v>323.83</v>
       </c>
       <c r="J434" t="n">
-        <v>316.84</v>
+        <v>316.92</v>
       </c>
       <c r="K434" t="n">
         <v>322.14</v>
@@ -18689,7 +18689,7 @@
         <v>322.45</v>
       </c>
       <c r="J435" t="n">
-        <v>315.36</v>
+        <v>315.47</v>
       </c>
       <c r="K435" t="n">
         <v>323.3</v>
@@ -18731,7 +18731,7 @@
         <v>322.14</v>
       </c>
       <c r="J436" t="n">
-        <v>315.02</v>
+        <v>315.08</v>
       </c>
       <c r="K436" t="n">
         <v>322.45</v>
@@ -18773,7 +18773,7 @@
         <v>320.32</v>
       </c>
       <c r="J437" t="n">
-        <v>314.52</v>
+        <v>314.64</v>
       </c>
       <c r="K437" t="n">
         <v>322.34</v>
@@ -18815,7 +18815,7 @@
         <v>319.84</v>
       </c>
       <c r="J438" t="n">
-        <v>313.57</v>
+        <v>313.7</v>
       </c>
       <c r="K438" t="n">
         <v>321.11</v>
@@ -18857,7 +18857,7 @@
         <v>320.15</v>
       </c>
       <c r="J439" t="n">
-        <v>313.43</v>
+        <v>313.59</v>
       </c>
       <c r="K439" t="n">
         <v>321.19</v>
@@ -18899,7 +18899,7 @@
         <v>319.14</v>
       </c>
       <c r="J440" t="n">
-        <v>311.56</v>
+        <v>311.71</v>
       </c>
       <c r="K440" t="n">
         <v>320.78</v>
@@ -18941,7 +18941,7 @@
         <v>317.37</v>
       </c>
       <c r="J441" t="n">
-        <v>310.56</v>
+        <v>310.66</v>
       </c>
       <c r="K441" t="n">
         <v>320.36</v>
@@ -18983,7 +18983,7 @@
         <v>317.23</v>
       </c>
       <c r="J442" t="n">
-        <v>309.54</v>
+        <v>309.66</v>
       </c>
       <c r="K442" t="n">
         <v>318.98</v>
@@ -19025,7 +19025,7 @@
         <v>318</v>
       </c>
       <c r="J443" t="n">
-        <v>309.32</v>
+        <v>309.46</v>
       </c>
       <c r="K443" t="n">
         <v>319.27</v>
@@ -19067,7 +19067,7 @@
         <v>315.95</v>
       </c>
       <c r="J444" t="n">
-        <v>308.75</v>
+        <v>308.83</v>
       </c>
       <c r="K444" t="n">
         <v>318.14</v>
@@ -19109,7 +19109,7 @@
         <v>316.39</v>
       </c>
       <c r="J445" t="n">
-        <v>309.47</v>
+        <v>309.54</v>
       </c>
       <c r="K445" t="n">
         <v>318.43</v>
@@ -19151,7 +19151,7 @@
         <v>318.48</v>
       </c>
       <c r="J446" t="n">
-        <v>311.78</v>
+        <v>311.84</v>
       </c>
       <c r="K446" t="n">
         <v>319.98</v>
@@ -19193,7 +19193,7 @@
         <v>318.16</v>
       </c>
       <c r="J447" t="n">
-        <v>312</v>
+        <v>312.02</v>
       </c>
       <c r="K447" t="n">
         <v>318.81</v>
@@ -19235,7 +19235,7 @@
         <v>319.82</v>
       </c>
       <c r="J448" t="n">
-        <v>315.59</v>
+        <v>315.51</v>
       </c>
       <c r="K448" t="n">
         <v>321.15</v>
@@ -19277,7 +19277,7 @@
         <v>319.89</v>
       </c>
       <c r="J449" t="n">
-        <v>316.06</v>
+        <v>316.02</v>
       </c>
       <c r="K449" t="n">
         <v>321.27</v>
@@ -19319,7 +19319,7 @@
         <v>319.76</v>
       </c>
       <c r="J450" t="n">
-        <v>316.51</v>
+        <v>316.45</v>
       </c>
       <c r="K450" t="n">
         <v>321.28</v>
@@ -19361,7 +19361,7 @@
         <v>319.56</v>
       </c>
       <c r="J451" t="n">
-        <v>315.68</v>
+        <v>315.62</v>
       </c>
       <c r="K451" t="n">
         <v>321.36</v>
@@ -19403,7 +19403,7 @@
         <v>319.54</v>
       </c>
       <c r="J452" t="n">
-        <v>315.65</v>
+        <v>315.57</v>
       </c>
       <c r="K452" t="n">
         <v>320.74</v>
@@ -19445,7 +19445,7 @@
         <v>319.79</v>
       </c>
       <c r="J453" t="n">
-        <v>316.62</v>
+        <v>316.56</v>
       </c>
       <c r="K453" t="n">
         <v>320.35</v>
@@ -19487,7 +19487,7 @@
         <v>320.16</v>
       </c>
       <c r="J454" t="n">
-        <v>316.56</v>
+        <v>316.5</v>
       </c>
       <c r="K454" t="n">
         <v>320.41</v>
@@ -19529,7 +19529,7 @@
         <v>320.84</v>
       </c>
       <c r="J455" t="n">
-        <v>317.09</v>
+        <v>317.02</v>
       </c>
       <c r="K455" t="n">
         <v>320.87</v>
@@ -19571,7 +19571,7 @@
         <v>322.62</v>
       </c>
       <c r="J456" t="n">
-        <v>318.53</v>
+        <v>318.5</v>
       </c>
       <c r="K456" t="n">
         <v>321.16</v>
@@ -19613,7 +19613,7 @@
         <v>322.42</v>
       </c>
       <c r="J457" t="n">
-        <v>319.19</v>
+        <v>319.13</v>
       </c>
       <c r="K457" t="n">
         <v>321.95</v>
@@ -19655,7 +19655,7 @@
         <v>322.7</v>
       </c>
       <c r="J458" t="n">
-        <v>319.26</v>
+        <v>319.21</v>
       </c>
       <c r="K458" t="n">
         <v>321.39</v>
@@ -19697,7 +19697,7 @@
         <v>323.22</v>
       </c>
       <c r="J459" t="n">
-        <v>319.64</v>
+        <v>319.55</v>
       </c>
       <c r="K459" t="n">
         <v>321</v>
@@ -19739,7 +19739,7 @@
         <v>324.93</v>
       </c>
       <c r="J460" t="n">
-        <v>320.37</v>
+        <v>320.33</v>
       </c>
       <c r="K460" t="n">
         <v>320.68</v>
@@ -19781,7 +19781,7 @@
         <v>325.01</v>
       </c>
       <c r="J461" t="n">
-        <v>320.75</v>
+        <v>320.7</v>
       </c>
       <c r="K461" t="n">
         <v>321.04</v>
@@ -19823,7 +19823,7 @@
         <v>323.68</v>
       </c>
       <c r="J462" t="n">
-        <v>319.65</v>
+        <v>319.6</v>
       </c>
       <c r="K462" t="n">
         <v>320.01</v>
@@ -19865,7 +19865,7 @@
         <v>323.68</v>
       </c>
       <c r="J463" t="n">
-        <v>319.65</v>
+        <v>319.6</v>
       </c>
       <c r="K463" t="n">
         <v>320.01</v>
@@ -19907,7 +19907,7 @@
         <v>323.68</v>
       </c>
       <c r="J464" t="n">
-        <v>319.65</v>
+        <v>319.6</v>
       </c>
       <c r="K464" t="n">
         <v>320.01</v>
@@ -19949,7 +19949,7 @@
         <v>324.89</v>
       </c>
       <c r="J465" t="n">
-        <v>320.44</v>
+        <v>320.45</v>
       </c>
       <c r="K465" t="n">
         <v>320.01</v>
@@ -19991,7 +19991,7 @@
         <v>326.33</v>
       </c>
       <c r="J466" t="n">
-        <v>320.07</v>
+        <v>320.13</v>
       </c>
       <c r="K466" t="n">
         <v>319.01</v>
@@ -20033,7 +20033,7 @@
         <v>326.58</v>
       </c>
       <c r="J467" t="n">
-        <v>320.82</v>
+        <v>320.86</v>
       </c>
       <c r="K467" t="n">
         <v>320.01</v>
@@ -20075,7 +20075,7 @@
         <v>327.3</v>
       </c>
       <c r="J468" t="n">
-        <v>321.83</v>
+        <v>321.86</v>
       </c>
       <c r="K468" t="n">
         <v>320.92</v>
@@ -20117,7 +20117,7 @@
         <v>327.86</v>
       </c>
       <c r="J469" t="n">
-        <v>322.79</v>
+        <v>322.83</v>
       </c>
       <c r="K469" t="n">
         <v>322.16</v>
@@ -20159,7 +20159,7 @@
         <v>327.87</v>
       </c>
       <c r="J470" t="n">
-        <v>322.86</v>
+        <v>322.87</v>
       </c>
       <c r="K470" t="n">
         <v>322.46</v>
@@ -20201,7 +20201,7 @@
         <v>328.16</v>
       </c>
       <c r="J471" t="n">
-        <v>323.9</v>
+        <v>323.94</v>
       </c>
       <c r="K471" t="n">
         <v>322.31</v>
@@ -20285,7 +20285,7 @@
         <v>327.85</v>
       </c>
       <c r="J473" t="n">
-        <v>325.08</v>
+        <v>325.11</v>
       </c>
       <c r="K473" t="n">
         <v>323.61</v>
@@ -20327,7 +20327,7 @@
         <v>327.82</v>
       </c>
       <c r="J474" t="n">
-        <v>325.31</v>
+        <v>325.28</v>
       </c>
       <c r="K474" t="n">
         <v>325.02</v>
@@ -20369,7 +20369,7 @@
         <v>328.02</v>
       </c>
       <c r="J475" t="n">
-        <v>325.21</v>
+        <v>325.22</v>
       </c>
       <c r="K475" t="n">
         <v>324.67</v>
@@ -20411,7 +20411,7 @@
         <v>329.17</v>
       </c>
       <c r="J476" t="n">
-        <v>326.11</v>
+        <v>326.14</v>
       </c>
       <c r="K476" t="n">
         <v>325.51</v>
@@ -20453,7 +20453,7 @@
         <v>329.73</v>
       </c>
       <c r="J477" t="n">
-        <v>327.4</v>
+        <v>327.43</v>
       </c>
       <c r="K477" t="n">
         <v>326.93</v>
@@ -20495,7 +20495,7 @@
         <v>330.24</v>
       </c>
       <c r="J478" t="n">
-        <v>328.02</v>
+        <v>328.05</v>
       </c>
       <c r="K478" t="n">
         <v>327.85</v>
@@ -20537,7 +20537,7 @@
         <v>330.19</v>
       </c>
       <c r="J479" t="n">
-        <v>327.93</v>
+        <v>327.96</v>
       </c>
       <c r="K479" t="n">
         <v>327.96</v>
@@ -20579,7 +20579,7 @@
         <v>330.31</v>
       </c>
       <c r="J480" t="n">
-        <v>327.97</v>
+        <v>327.99</v>
       </c>
       <c r="K480" t="n">
         <v>328.04</v>
@@ -20621,7 +20621,7 @@
         <v>330.18</v>
       </c>
       <c r="J481" t="n">
-        <v>327.92</v>
+        <v>327.95</v>
       </c>
       <c r="K481" t="n">
         <v>327.58</v>
@@ -20663,7 +20663,7 @@
         <v>329.54</v>
       </c>
       <c r="J482" t="n">
-        <v>327.7</v>
+        <v>327.69</v>
       </c>
       <c r="K482" t="n">
         <v>327.62</v>
@@ -20705,7 +20705,7 @@
         <v>329.54</v>
       </c>
       <c r="J483" t="n">
-        <v>327.7</v>
+        <v>327.69</v>
       </c>
       <c r="K483" t="n">
         <v>327.62</v>
@@ -20747,7 +20747,7 @@
         <v>328.89</v>
       </c>
       <c r="J484" t="n">
-        <v>327.73</v>
+        <v>327.67</v>
       </c>
       <c r="K484" t="n">
         <v>328.02</v>
@@ -20789,7 +20789,7 @@
         <v>327.6</v>
       </c>
       <c r="J485" t="n">
-        <v>326.02</v>
+        <v>326</v>
       </c>
       <c r="K485" t="n">
         <v>325.78</v>
@@ -20837,6 +20837,48 @@
         <v>324.92</v>
       </c>
       <c r="L486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>408.25</v>
+      </c>
+      <c r="C487" t="n">
+        <v>308.48</v>
+      </c>
+      <c r="D487" t="n">
+        <v>309.42</v>
+      </c>
+      <c r="E487" t="n">
+        <v>322.13</v>
+      </c>
+      <c r="F487" t="n">
+        <v>329.23</v>
+      </c>
+      <c r="G487" t="n">
+        <v>326.86</v>
+      </c>
+      <c r="H487" t="n">
+        <v>328.09</v>
+      </c>
+      <c r="I487" t="n">
+        <v>326.71</v>
+      </c>
+      <c r="J487" t="n">
+        <v>324.54</v>
+      </c>
+      <c r="K487" t="n">
+        <v>324.99</v>
+      </c>
+      <c r="L487" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20853,7 +20895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25911,6 +25953,16 @@
       </c>
       <c r="B505" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -26078,34 +26130,34 @@
         <v>0.115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0721</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.781318236915872</v>
+        <v>2.791529624019222</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K2" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2518007738107337</v>
+        <v>0.2537651149474579</v>
       </c>
       <c r="M2" t="n">
-        <v>31.09512720259562</v>
+        <v>31.07498222509106</v>
       </c>
       <c r="N2" t="n">
-        <v>1352.335358623981</v>
+        <v>1351.009477511481</v>
       </c>
       <c r="O2" t="n">
-        <v>36.77411261504459</v>
+        <v>36.75608082360633</v>
       </c>
       <c r="P2" t="n">
-        <v>308.3161457998918</v>
+        <v>308.2138555952969</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26156,34 +26208,34 @@
         <v>0.155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1158</v>
+        <v>0.1165</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0122908099710841</v>
+        <v>0.01044416603699831</v>
       </c>
       <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
         <v>485</v>
       </c>
-      <c r="K3" t="n">
-        <v>484</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.0004645323062637541</v>
+        <v>0.0003360284926885448</v>
       </c>
       <c r="M3" t="n">
-        <v>3.389150814931611</v>
+        <v>3.391569087239907</v>
       </c>
       <c r="N3" t="n">
-        <v>19.12404893291706</v>
+        <v>19.13272669323711</v>
       </c>
       <c r="O3" t="n">
-        <v>4.373105182009353</v>
+        <v>4.374097243230552</v>
       </c>
       <c r="P3" t="n">
-        <v>313.0027591196666</v>
+        <v>313.0212255779539</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26234,34 +26286,34 @@
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0837</v>
       </c>
       <c r="H4" t="n">
         <v>0.1302</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01512372346745403</v>
+        <v>-0.01770309237006796</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K4" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000744516146501728</v>
+        <v>0.001018812444021688</v>
       </c>
       <c r="M4" t="n">
-        <v>3.38673370113474</v>
+        <v>3.392888965189627</v>
       </c>
       <c r="N4" t="n">
-        <v>18.02855494061192</v>
+        <v>18.0850793576516</v>
       </c>
       <c r="O4" t="n">
-        <v>4.24600458556181</v>
+        <v>4.252655565367551</v>
       </c>
       <c r="P4" t="n">
-        <v>316.5836316428849</v>
+        <v>316.6094438375889</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26312,34 +26364,34 @@
         <v>0.12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0898</v>
+        <v>0.0901</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1705</v>
+        <v>0.1707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03385633326848986</v>
+        <v>-0.03528365617391441</v>
       </c>
       <c r="J5" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K5" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004214442889480696</v>
+        <v>0.004586423330025124</v>
       </c>
       <c r="M5" t="n">
-        <v>3.128188885883247</v>
+        <v>3.128662695361589</v>
       </c>
       <c r="N5" t="n">
-        <v>15.90547101825396</v>
+        <v>15.90141103585459</v>
       </c>
       <c r="O5" t="n">
-        <v>3.988166372940573</v>
+        <v>3.987657336815011</v>
       </c>
       <c r="P5" t="n">
-        <v>326.761196350926</v>
+        <v>326.775479820306</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26390,34 +26442,34 @@
         <v>0.125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0934</v>
+        <v>0.0936</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1822</v>
+        <v>0.1817</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04596091378187262</v>
+        <v>-0.0465348034859075</v>
       </c>
       <c r="J6" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K6" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00939589232400706</v>
+        <v>0.009666212797693419</v>
       </c>
       <c r="M6" t="n">
-        <v>2.862878161322491</v>
+        <v>2.859953110041742</v>
       </c>
       <c r="N6" t="n">
-        <v>13.07917784528671</v>
+        <v>13.05690042115588</v>
       </c>
       <c r="O6" t="n">
-        <v>3.616514599070037</v>
+        <v>3.613433328727109</v>
       </c>
       <c r="P6" t="n">
-        <v>331.9464828614419</v>
+        <v>331.9522258758529</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26468,34 +26520,34 @@
         <v>0.145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1154</v>
+        <v>0.1162</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1941</v>
+        <v>0.1982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04203675465416015</v>
+        <v>0.04212271393008438</v>
       </c>
       <c r="J7" t="n">
+        <v>486</v>
+      </c>
+      <c r="K7" t="n">
         <v>485</v>
       </c>
-      <c r="K7" t="n">
-        <v>484</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.007047975208045454</v>
+        <v>0.007105930752180356</v>
       </c>
       <c r="M7" t="n">
-        <v>3.090963595212082</v>
+        <v>3.084980560956976</v>
       </c>
       <c r="N7" t="n">
-        <v>14.63621169630905</v>
+        <v>14.60613813198466</v>
       </c>
       <c r="O7" t="n">
-        <v>3.825730217397595</v>
+        <v>3.821797761784977</v>
       </c>
       <c r="P7" t="n">
-        <v>325.5265995486097</v>
+        <v>325.5257393564075</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26546,34 +26598,34 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1534</v>
+        <v>0.1543</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09986287657047421</v>
+        <v>0.1003093466080414</v>
       </c>
       <c r="J8" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K8" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04150301929920586</v>
+        <v>0.04201816165208216</v>
       </c>
       <c r="M8" t="n">
-        <v>3.107548240945302</v>
+        <v>3.103170168019049</v>
       </c>
       <c r="N8" t="n">
-        <v>13.60176083684219</v>
+        <v>13.57637124005483</v>
       </c>
       <c r="O8" t="n">
-        <v>3.688056512154089</v>
+        <v>3.684612766635706</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2885987551874</v>
+        <v>324.2841370983749</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26624,34 +26676,34 @@
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1458</v>
+        <v>0.1463</v>
       </c>
       <c r="H9" t="n">
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.176990294330023</v>
+        <v>0.1776485104475591</v>
       </c>
       <c r="J9" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K9" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1327359491626595</v>
+        <v>0.1340170983602555</v>
       </c>
       <c r="M9" t="n">
-        <v>2.765742632558639</v>
+        <v>2.762980192385939</v>
       </c>
       <c r="N9" t="n">
-        <v>12.06653705557467</v>
+        <v>12.04773364230687</v>
       </c>
       <c r="O9" t="n">
-        <v>3.473692135980774</v>
+        <v>3.470984535014074</v>
       </c>
       <c r="P9" t="n">
-        <v>320.3302428105823</v>
+        <v>320.3236669732736</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26699,37 +26751,37 @@
         <v>0.8887846038123444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0917</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1423</v>
+        <v>0.1446</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0501744220631572</v>
+        <v>0.05100135596204515</v>
       </c>
       <c r="J10" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K10" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008160895239340049</v>
+        <v>0.008467802485301545</v>
       </c>
       <c r="M10" t="n">
-        <v>3.46508695494329</v>
+        <v>3.467262313301041</v>
       </c>
       <c r="N10" t="n">
-        <v>18.03803164743383</v>
+        <v>17.99420473999362</v>
       </c>
       <c r="O10" t="n">
-        <v>4.247120394742046</v>
+        <v>4.241957654196188</v>
       </c>
       <c r="P10" t="n">
-        <v>318.7501894173523</v>
+        <v>318.7822618269396</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26780,34 +26832,34 @@
         <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0668</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0833</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06432331075700189</v>
+        <v>0.0651826610583332</v>
       </c>
       <c r="J11" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K11" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008944879853065468</v>
+        <v>0.009217792185355789</v>
       </c>
       <c r="M11" t="n">
-        <v>4.036671578846237</v>
+        <v>4.032361200760572</v>
       </c>
       <c r="N11" t="n">
-        <v>26.92161567081146</v>
+        <v>26.87661301743536</v>
       </c>
       <c r="O11" t="n">
-        <v>5.188604404925419</v>
+        <v>5.184265909213702</v>
       </c>
       <c r="P11" t="n">
-        <v>321.042759481512</v>
+        <v>321.0341598130913</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26845,7 +26897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L486"/>
+  <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26963,7 +27015,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-46.77897058160678,168.52421583642652</t>
+          <t>-46.7789689735922,168.52421236620953</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -27025,7 +27077,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-46.77894485336167,168.52416031298029</t>
+          <t>-46.778945255365706,168.5241611805337</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -27087,7 +27139,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-46.77893947655727,168.52414870945438</t>
+          <t>-46.77893952680778,168.52414881789855</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -27149,7 +27201,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-46.778927818435484,168.52412355041577</t>
+          <t>-46.77892817018924,168.52412430952452</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -27211,7 +27263,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-46.77892043160565,168.5241076091341</t>
+          <t>-46.778920733108954,168.52410825979857</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -27273,7 +27325,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-46.778922592379224,168.52411227222964</t>
+          <t>-46.778922994383585,168.52411313978234</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -27335,7 +27387,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-46.778909828737405,168.5240847274383</t>
+          <t>-46.77891043174425,168.5240860287667</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -27397,7 +27449,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-46.7788954068197,168.524053604009</t>
+          <t>-46.77889600982686,168.5240549053367</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -27459,7 +27511,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-46.77889656258341,168.52405609822046</t>
+          <t>-46.77889731634235,168.52405772488018</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -27521,7 +27573,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-46.77888435168575,168.5240297463395</t>
+          <t>-46.778884954693176,168.52403104766665</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -27583,7 +27635,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-46.77891123575335,168.52408776387134</t>
+          <t>-46.77891103475107,168.52408733009517</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -27645,7 +27697,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-46.77892580841397,168.5241192126516</t>
+          <t>-46.77892555716127,168.5241186704311</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -27707,7 +27759,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-46.77893143647383,168.52413135839208</t>
+          <t>-46.778931386223306,168.52413124994797</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -27769,7 +27821,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-46.77892384864284,168.52411498333188</t>
+          <t>-46.778923597390126,168.5241144411114</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -27831,7 +27883,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-46.77893369774755,168.52413623837782</t>
+          <t>-46.77893364749703,168.52413612993368</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -27893,7 +27945,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-46.77892550691074,168.52411856198702</t>
+          <t>-46.778925255658024,168.52411801976652</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -27955,7 +28007,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-46.7789208838606,168.5241085851308</t>
+          <t>-46.7789207833595,168.52410836824265</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -28017,7 +28069,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-46.778913848782736,168.52409340296168</t>
+          <t>-46.77891394928387,168.5240936198498</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -28079,7 +28131,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-46.77890686395357,168.52407832924064</t>
+          <t>-46.77890736645933,168.52407941368085</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -28141,7 +28193,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-46.77890430117406,168.52407279859577</t>
+          <t>-46.77890465292812,168.52407355770384</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -28203,7 +28255,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-46.778894351557106,168.52405132668554</t>
+          <t>-46.778894753561914,168.52405219423733</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -28265,7 +28317,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-46.778889024992935,168.52403983162583</t>
+          <t>-46.77888967825088,168.52404124139719</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -28327,7 +28379,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-46.778888673238654,168.52403907251818</t>
+          <t>-46.77888882399049,168.52403939785003</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -28389,7 +28441,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-46.77890425092348,168.52407269015177</t>
+          <t>-46.77890465292812,168.52407355770384</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -28451,7 +28503,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-46.778903497164755,168.52407106349162</t>
+          <t>-46.77890339666358,168.5240708466036</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -28513,7 +28565,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-46.77892415014611,168.52411563399642</t>
+          <t>-46.77892430089774,168.5241159593287</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -28575,7 +28627,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-46.77892922545046,168.52412658685085</t>
+          <t>-46.7789289741978,168.52412604463032</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -28637,7 +28689,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-46.778922843631946,168.52411281445006</t>
+          <t>-46.7789228938825,168.52411292289415</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -28699,7 +28751,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-46.77892867269459,168.52412539396565</t>
+          <t>-46.77892912494939,168.52412636996263</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -28761,7 +28813,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-46.7789208838606,168.5241085851308</t>
+          <t>-46.77892093411114,168.5241086935749</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -28823,7 +28875,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-46.77892530590857,168.5241181282106</t>
+          <t>-46.7789253561591,168.52411823665472</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -28885,7 +28937,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-46.77894711463422,168.5241651929685</t>
+          <t>-46.77894696388273,168.52416486763593</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -28947,7 +28999,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-46.77895872249693,168.5241902435813</t>
+          <t>-46.778957817988335,168.5241882915851</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -29009,7 +29061,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-46.77892595916559,168.5241195379839</t>
+          <t>-46.77892605966668,168.52411975487212</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -29071,7 +29123,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-46.778888321484374,168.52403831341059</t>
+          <t>-46.778889024992935,168.52403983162583</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -29133,7 +29185,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-46.778908873976555,168.52408266700166</t>
+          <t>-46.778909929238544,168.52408494432635</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -29195,7 +29247,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-46.778918220581346,168.52410283759488</t>
+          <t>-46.77891877333745,168.52410403047963</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -29257,7 +29309,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-46.77891997935069,168.5241066331374</t>
+          <t>-46.77892058235731,168.52410793446634</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -29319,7 +29371,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-46.77894676288073,168.5241644338592</t>
+          <t>-46.778946511628234,168.52416389163824</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -29381,7 +29433,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-46.77895977775694,168.52419252091028</t>
+          <t>-46.778959828007416,168.5241926293545</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -29443,7 +29495,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-46.77895515471283,168.52418254404114</t>
+          <t>-46.77895545621575,168.52418319470647</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -29505,7 +29557,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-46.778951285425315,168.52417419383676</t>
+          <t>-46.77895118492434,168.52417397694836</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -29567,7 +29619,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-46.77895686322923,168.52418623114474</t>
+          <t>-46.77895666222731,168.5241857973678</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -29629,7 +29681,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-46.77894811964419,168.52416736185228</t>
+          <t>-46.77894816989468,168.52416747029648</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -29691,7 +29743,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-46.77894610962423,168.5241630240848</t>
+          <t>-46.778946612129246,168.52416410852663</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -29753,7 +29805,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-46.77893425050332,168.52413743126328</t>
+          <t>-46.7789348535096,168.52413873259292</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -29815,7 +29867,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-46.77893570776847,168.52414057614325</t>
+          <t>-46.778936511776784,168.52414231124956</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -29877,7 +29929,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-46.778939677559315,168.52414914323103</t>
+          <t>-46.77894033081598,168.5241505530051</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -29939,7 +29991,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-46.77892394914393,168.52411520022005</t>
+          <t>-46.77892455215044,168.52411650154917</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -30001,7 +30053,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-46.77892394914393,168.52411520022005</t>
+          <t>-46.77892455215044,168.52411650154917</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -30063,7 +30115,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-46.77892711492797,168.52412203219828</t>
+          <t>-46.77892751693227,168.52412289975112</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -30125,7 +30177,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-46.7789279691871,168.5241238757481</t>
+          <t>-46.77892862244406,168.52412528552154</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -30187,7 +30239,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-46.77893093396854,168.52413027395087</t>
+          <t>-46.77893143647383,168.52413135839208</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -30249,7 +30301,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-46.778939677559315,168.52414914323103</t>
+          <t>-46.77894023031496,168.52415033611678</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -30311,7 +30363,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-46.77893716503353,168.52414372102345</t>
+          <t>-46.778937667538706,168.5241448054649</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -30373,7 +30425,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-46.778953345695385,168.5241786400493</t>
+          <t>-46.778953546697316,168.5241790738262</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -30435,7 +30487,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-46.77895952650455,168.52419197868906</t>
+          <t>-46.778959727506454,168.52419241246602</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -30497,7 +30549,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-46.77895374769926,168.52417950760304</t>
+          <t>-46.77895384820025,168.52417972449146</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -30559,7 +30611,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-46.778956913479725,168.52418633958897</t>
+          <t>-46.778957114481635,168.52418677336587</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -30621,7 +30673,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-46.77896028026167,168.52419360535268</t>
+          <t>-46.77896058176452,168.52419425601812</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -30683,7 +30735,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-46.778957114481635,168.52418677336587</t>
+          <t>-46.77895731548355,168.5241872071428</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -30745,7 +30797,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-46.778957114481635,168.52418677336587</t>
+          <t>-46.77895731548355,168.5241872071428</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -30807,7 +30859,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-46.77896384804508,168.52420130489435</t>
+          <t>-46.778964049046934,168.52420173867137</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -30869,7 +30921,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-46.77896384804508,168.52420130489435</t>
+          <t>-46.778964049046934,168.52420173867137</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -30931,7 +30983,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-46.77896384804508,168.52420130489435</t>
+          <t>-46.778964049046934,168.52420173867137</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -30993,7 +31045,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-46.77896500380578,168.52420379911229</t>
+          <t>-46.778965456059964,168.52420477511066</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -31055,7 +31107,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-46.778959627005506,168.52419219557757</t>
+          <t>-46.77896012951027,168.52419328001997</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -31117,7 +31169,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-46.77895103417287,168.52417365161574</t>
+          <t>-46.77895133567581,168.52417430228098</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -31179,7 +31231,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-46.778952692439034,168.52417723027457</t>
+          <t>-46.77895314469342,168.52417820627247</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -31241,7 +31293,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-46.77895249143708,168.52417679649773</t>
+          <t>-46.77895289344099,168.5241776640514</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -31303,7 +31355,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-46.77895249143708,168.52417679649773</t>
+          <t>-46.77895289344099,168.5241776640514</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -31365,7 +31417,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-46.77894977791055,168.52417094051071</t>
+          <t>-46.77895058191844,168.5241726756179</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -31427,7 +31479,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-46.77893781829025,168.52414513079736</t>
+          <t>-46.778938722799545,168.5241470827921</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -31489,7 +31541,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-46.77893781829025,168.52414513079736</t>
+          <t>-46.778938722799545,168.5241470827921</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -31551,7 +31603,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-46.7789228938825,168.52411292289415</t>
+          <t>-46.778923396387945,168.52411400733504</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -31613,7 +31665,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-46.7789228938825,168.52411292289415</t>
+          <t>-46.778923396387945,168.52411400733504</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -31675,7 +31727,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-46.77892867269459,168.52412539396565</t>
+          <t>-46.77892932595153,168.5241268037391</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -31737,7 +31789,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-46.77892706467744,168.52412192375417</t>
+          <t>-46.77892771793441,168.52412333352754</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -31799,7 +31851,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-46.77894143632723,168.52415293877664</t>
+          <t>-46.778941989082824,168.52415413166247</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -31861,7 +31913,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-46.77895088342139,168.52417332628315</t>
+          <t>-46.77895158692827,168.524174844502</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -31923,7 +31975,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-46.77894691363225,168.52416475919173</t>
+          <t>-46.778947064383736,168.52416508452433</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -31985,7 +32037,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-46.77895525521382,168.52418276092956</t>
+          <t>-46.778955707468164,168.52418373692754</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -32047,7 +32099,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-46.778968672089455,168.52421171554388</t>
+          <t>-46.77896907409311,168.5242125830981</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -32109,7 +32161,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-46.778968672089455,168.52421171554388</t>
+          <t>-46.77896907409311,168.5242125830981</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -32171,7 +32223,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-46.77896289328619,168.5241992444535</t>
+          <t>-46.778963194789,168.52419989511904</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -32233,7 +32285,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-46.77896324503946,168.5242000035633</t>
+          <t>-46.77896359679274,168.52420076267308</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -32295,7 +32347,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-46.77896359679274,168.52420076267308</t>
+          <t>-46.77896394854601,168.52420152178286</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -32357,7 +32409,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-46.77896641081877,168.52420683555167</t>
+          <t>-46.778966762572,168.52420759466156</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -32419,7 +32471,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-46.77896832033625,168.52421095643396</t>
+          <t>-46.778968621839,168.5242116070996</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -32481,7 +32533,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-46.77896877259037,168.52421193243245</t>
+          <t>-46.7789689735922,168.52421236620953</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -32543,7 +32595,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-46.7789663605683,168.5242067271074</t>
+          <t>-46.77896651131969,168.5242070524402</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -32605,7 +32657,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-46.77896997860133,168.52421453509513</t>
+          <t>-46.77897028010405,168.52421518576082</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -32667,7 +32719,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-46.7789721393708,168.5242191981994</t>
+          <t>-46.77897208912035,168.52421908975515</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -32729,7 +32781,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-46.778962491282435,168.5241983768995</t>
+          <t>-46.77896224003009,168.52419783467826</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -32791,7 +32843,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-46.778967265076595,168.52420867910425</t>
+          <t>-46.77896716457569,168.5242084622157</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -32853,7 +32905,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-46.7789734458825,168.52422201775104</t>
+          <t>-46.77897324488071,168.52422158397385</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -32915,7 +32967,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-46.77897178761764,168.5242184390894</t>
+          <t>-46.77897153636539,168.52421789686795</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -32977,7 +33029,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-46.77896912434358,168.52421269154237</t>
+          <t>-46.77896872233991,168.52421182398817</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -33039,7 +33091,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-46.77896912434358,168.52421269154237</t>
+          <t>-46.77896872233991,168.52421182398817</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -33163,7 +33215,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>-46.77898801850853,168.52425346660544</t>
+          <t>-46.77898806875896,168.52425357504978</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -33225,7 +33277,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>-46.778989073767335,168.52425574393695</t>
+          <t>-46.77898927476901,168.5242561777144</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -33287,7 +33339,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>-46.77897842067644,168.5242327537373</t>
+          <t>-46.778978671928634,168.5242332959589</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -33349,7 +33401,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>-46.778978370426,168.52423264529298</t>
+          <t>-46.778978621678185,168.5242331875146</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -33473,7 +33525,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>-46.77896068226547,168.52419447290663</t>
+          <t>-46.77896123502066,168.5241956657933</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -33535,7 +33587,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-46.778953345695385,168.5241786400493</t>
+          <t>-46.77895399895171,168.5241800498241</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -33597,7 +33649,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>-46.778945607119226,168.52416193964297</t>
+          <t>-46.77894595887272,168.52416269875224</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -33659,7 +33711,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>-46.77891877333745,168.52410403047963</t>
+          <t>-46.77891832108245,168.52410305448302</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -33721,7 +33773,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>-46.77891354727935,168.52409275229738</t>
+          <t>-46.778913597529936,168.52409286074143</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -33783,7 +33835,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>-46.77892731593013,168.52412246597467</t>
+          <t>-46.77892776818496,168.52412344197165</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -33845,7 +33897,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-46.77893078321694,168.52412994861848</t>
+          <t>-46.778931536974895,168.52413157528034</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -33907,7 +33959,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>-46.77894912465411,168.52416953073615</t>
+          <t>-46.7789501799145,168.52417180806432</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -33969,7 +34021,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>-46.77894575787072,168.52416226497553</t>
+          <t>-46.77894681313123,168.52416454230337</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -34027,7 +34079,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>-46.77895093367189,168.52417343472735</t>
+          <t>-46.77895198893218,168.52417571205567</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -34089,7 +34141,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>-46.77894621012523,168.52416324097314</t>
+          <t>-46.77894711463422,168.5241651929685</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -34213,7 +34265,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>-46.77894364734957,168.52415771032008</t>
+          <t>-46.778943898602094,168.52415825254093</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -34275,7 +34327,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>-46.778920733108954,168.52410825979857</t>
+          <t>-46.7789203813551,168.52410750069004</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -34337,7 +34389,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-46.778920733108954,168.52410825979857</t>
+          <t>-46.7789203813551,168.52410750069004</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -34399,7 +34451,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>-46.77891907484076,168.52410468114408</t>
+          <t>-46.77891877333745,168.52410403047963</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -34457,7 +34509,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>-46.778909979489114,168.52408505277037</t>
+          <t>-46.77890962773512,168.52408429366216</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -34519,7 +34571,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>-46.77890219064957,168.52406824394748</t>
+          <t>-46.778901738394296,168.52406726795147</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -34581,7 +34633,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>-46.77888661296352,168.52403462631653</t>
+          <t>-46.77888595970551,168.52403321654535</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -34643,7 +34695,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>-46.77890073338256,168.52406509907146</t>
+          <t>-46.77890043187903,168.5240644484075</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -34705,7 +34757,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>-46.77889460281011,168.52405186890542</t>
+          <t>-46.77889410030411,168.52405078446571</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -34767,7 +34819,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>-46.77889606007745,168.52405501378067</t>
+          <t>-46.77889580882446,168.5240544715608</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -34829,7 +34881,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>-46.77889606007745,168.52405501378067</t>
+          <t>-46.77889580882446,168.5240544715608</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -34949,7 +35001,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-46.77889279378846,168.52404796492254</t>
+          <t>-46.778891839026976,168.52404590448728</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -35011,7 +35063,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>-46.778894401807705,168.5240514351295</t>
+          <t>-46.7788941505547,168.52405089290966</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -35073,7 +35125,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>-46.77890209014839,168.52406802705949</t>
+          <t>-46.778901838895464,168.52406748483946</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -35135,7 +35187,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-46.77890676345242,168.52407811235258</t>
+          <t>-46.77890656245011,168.5240776785765</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -35197,7 +35249,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>-46.77890676345242,168.52407811235258</t>
+          <t>-46.77890656245011,168.5240776785765</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -35321,7 +35373,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-46.77893178822754,168.52413211750093</t>
+          <t>-46.77893219023177,168.52413298505394</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -35383,7 +35435,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>-46.77892957720419,168.52412734595967</t>
+          <t>-46.778929778206326,168.52412777973615</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -35445,7 +35497,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>-46.77891776832635,168.52410186159827</t>
+          <t>-46.77891806982968,168.52410251226266</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -35507,7 +35559,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-46.778920029601245,168.52410674158148</t>
+          <t>-46.77892043160565,168.5241076091341</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -35569,7 +35621,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>-46.77892203962321,168.5241110793447</t>
+          <t>-46.77892254212867,168.52411216378553</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -35631,7 +35683,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>-46.77892128586499,168.52410945268346</t>
+          <t>-46.77892193912212,168.52411086245652</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -35693,7 +35745,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>-46.77891480354342,168.52409546339868</t>
+          <t>-46.778915808554615,168.52409763227982</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -35755,7 +35807,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>-46.77893073296642,168.52412984017437</t>
+          <t>-46.778932240482284,168.52413309349805</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -35809,7 +35861,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>-46.7789138990333,168.52409351140574</t>
+          <t>-46.778915808554615,168.52409763227982</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -35871,7 +35923,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>-46.77888430143512,168.52402963789555</t>
+          <t>-46.778884251184515,168.5240295294516</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -35933,7 +35985,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>-46.77888430143512,168.52402963789555</t>
+          <t>-46.778884251184515,168.5240295294516</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -35995,7 +36047,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>-46.778923396387945,168.52411400733504</t>
+          <t>-46.77892369789121,168.5241146579996</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -36057,7 +36109,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>-46.778923396387945,168.52411400733504</t>
+          <t>-46.77892369789121,168.5241146579996</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -36119,7 +36171,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>-46.778923396387945,168.52411400733504</t>
+          <t>-46.77892369789121,168.5241146579996</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -36181,7 +36233,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>-46.778923396387945,168.52411400733504</t>
+          <t>-46.77892369789121,168.5241146579996</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -36243,7 +36295,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>-46.77894284334146,168.52415597521332</t>
+          <t>-46.77894314484451,168.52415662587833</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -36301,7 +36353,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>-46.77892656217206,168.52412083931313</t>
+          <t>-46.77892636116991,168.5241204055367</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -36363,7 +36415,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>-46.77892656217206,168.52412083931313</t>
+          <t>-46.77892636116991,168.5241204055367</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -36425,7 +36477,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>-46.77893545651585,168.52414003392258</t>
+          <t>-46.778935305764286,168.52413970859016</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -36487,7 +36539,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>-46.77892801943763,168.52412398419222</t>
+          <t>-46.77892751693227,168.52412289975112</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -36549,7 +36601,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>-46.77892314513523,168.5241134651146</t>
+          <t>-46.7789228938825,168.52411292289415</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -36611,7 +36663,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-46.77892636116991,168.5241204055367</t>
+          <t>-46.77892646167097,168.5241206224249</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -36673,7 +36725,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>-46.778916311060215,168.5240987167204</t>
+          <t>-46.778916361310756,168.5240988251645</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -36735,7 +36787,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>-46.778923295886855,168.52411379044688</t>
+          <t>-46.778923245636314,168.5241136820028</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -36797,7 +36849,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>-46.778923295886855,168.52411379044688</t>
+          <t>-46.778923245636314,168.5241136820028</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -36859,7 +36911,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>-46.778923295886855,168.52411379044688</t>
+          <t>-46.778923245636314,168.5241136820028</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -36921,7 +36973,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>-46.778938773050065,168.52414719123624</t>
+          <t>-46.77893902430263,168.52414773345703</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -36983,7 +37035,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>-46.778936511776784,168.52414231124956</t>
+          <t>-46.77893696403145,168.52414328724686</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -37045,7 +37097,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>-46.77894314484451,168.52415662587833</t>
+          <t>-46.778943747850576,168.5241579272084</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -37107,7 +37159,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>-46.77894284334146,168.52415597521332</t>
+          <t>-46.77894344634755,168.52415727654338</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -37169,7 +37221,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>-46.77894485336167,168.52416031298029</t>
+          <t>-46.778945456367715,168.5241616143104</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -37231,7 +37283,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>-46.77895384820025,168.52417972449146</t>
+          <t>-46.778954802959454,168.52418178493159</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -37293,7 +37345,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>-46.77897741566764,168.52423058485104</t>
+          <t>-46.778978923180816,168.52423383818046</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -37355,7 +37407,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>-46.77894143632723,168.52415293877664</t>
+          <t>-46.778943496598046,168.52415738498755</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -37417,7 +37469,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>-46.77891972809793,168.52410609091703</t>
+          <t>-46.77892108486279,168.52410901890713</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -37479,7 +37531,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>-46.77889942686724,168.52406227952764</t>
+          <t>-46.77890093438491,168.5240655328475</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -37541,7 +37593,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-46.77892108486279,168.52410901890713</t>
+          <t>-46.77892254212867,168.52411216378553</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -37603,7 +37655,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>-46.778913999534424,168.52409372829385</t>
+          <t>-46.77891515529735,168.52409622250707</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -37661,7 +37713,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>-46.77892646167097,168.5241206224249</t>
+          <t>-46.77892681342475,168.52412138153366</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -37723,7 +37775,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>-46.77893902430263,168.52414773345703</t>
+          <t>-46.77893942630674,168.52414860101024</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -37885,7 +37937,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>-46.77895580796911,168.52418395381602</t>
+          <t>-46.77895475270897,168.52418167648736</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -37947,7 +37999,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>-46.77895580796911,168.52418395381602</t>
+          <t>-46.77895475270897,168.52418167648736</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -38009,7 +38061,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>-46.77895580796911,168.52418395381602</t>
+          <t>-46.77895475270897,168.52418167648736</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -38071,7 +38123,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>-46.77894234083638,168.52415489077163</t>
+          <t>-46.77894219008486,168.52415456543912</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -38133,7 +38185,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>-46.77894234083638,168.52415489077163</t>
+          <t>-46.77894219008486,168.52415456543912</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -38195,7 +38247,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>-46.77895585821961,168.52418406226022</t>
+          <t>-46.77895631047394,168.52418503825825</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -38257,7 +38309,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>-46.77893862229852,168.5241468659038</t>
+          <t>-46.77893847154697,168.52414654057134</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -38319,7 +38371,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>-46.77892952695366,168.52412723751556</t>
+          <t>-46.778929275701,168.524126695295</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -38381,7 +38433,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>-46.77892515515695,168.52411780287832</t>
+          <t>-46.778925004405316,168.52411747754604</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -38443,7 +38495,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>-46.77892208987375,168.52411118778878</t>
+          <t>-46.77892188887157,168.52411075401244</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -38505,7 +38557,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>-46.77893284348862,168.5241343948276</t>
+          <t>-46.7789324414844,168.52413352727459</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -38567,7 +38619,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>-46.77893430075384,168.52413753970743</t>
+          <t>-46.77893420025279,168.52413732281914</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -38629,7 +38681,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>-46.77894103432314,168.52415207122334</t>
+          <t>-46.77894108457366,168.5241521796675</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -38691,7 +38743,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>-46.778936763029385,168.52414285347027</t>
+          <t>-46.778936511776784,168.52414231124956</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -38753,7 +38805,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-46.778933044490714,168.52413482860413</t>
+          <t>-46.77893274298756,168.52413417793935</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -38815,7 +38867,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>-46.778933044490714,168.52413482860413</t>
+          <t>-46.77893274298756,168.52413417793935</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -38877,7 +38929,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>-46.77893369774755,168.52413623837782</t>
+          <t>-46.778933195242296,168.52413515393653</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -38939,7 +38991,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>-46.77893058221484,168.52412951484203</t>
+          <t>-46.778930029458984,168.52412832195674</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -39001,7 +39053,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-46.77893249173493,168.52413363571873</t>
+          <t>-46.77893193897911,168.52413244283332</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -39063,7 +39115,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-46.778929024448324,168.5241261530744</t>
+          <t>-46.77892872294512,168.52412550240973</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -39125,7 +39177,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>-46.77893158722542,168.52413168372445</t>
+          <t>-46.77893123547173,168.52413092461558</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -39187,7 +39239,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>-46.77891932609352,168.52410522336442</t>
+          <t>-46.77891912509131,168.52410478958814</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -39249,7 +39301,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>-46.7789207833595,168.52410836824265</t>
+          <t>-46.7789204818562,168.52410771757818</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -39311,7 +39363,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>-46.77892188887157,168.52411075401244</t>
+          <t>-46.77892173811993,168.5241104286802</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -39373,7 +39425,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-46.77892128586499,168.52410945268346</t>
+          <t>-46.77892108486279,168.52410901890713</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -39435,7 +39487,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>-46.778913296026545,168.52409221007713</t>
+          <t>-46.778913044773724,168.5240916678569</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -39497,7 +39549,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>-46.77891415028612,168.524094053626</t>
+          <t>-46.77891404978499,168.52409383673788</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -39559,7 +39611,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>-46.77890726595818,168.52407919679283</t>
+          <t>-46.77890691420415,168.52407843768464</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -39621,7 +39673,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>-46.77890977848685,168.52408461899424</t>
+          <t>-46.778909577484555,168.52408418521813</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -39683,7 +39735,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-46.77891455229061,168.5240949211784</t>
+          <t>-46.778914401538934,168.52409459584626</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -39745,7 +39797,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>-46.77892093411114,168.5241086935749</t>
+          <t>-46.7789207833595,168.52410836824265</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -39807,7 +39859,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>-46.77892188887157,168.52411075401244</t>
+          <t>-46.77892173811993,168.5241104286802</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -39869,7 +39921,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-46.77892203962321,168.5241110793447</t>
+          <t>-46.77892214012431,168.52411129623286</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -39931,7 +39983,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>-46.77893058221484,168.52412951484203</t>
+          <t>-46.77893083346748,168.52413005706262</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -39993,7 +40045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>-46.77893294398966,168.52413461171585</t>
+          <t>-46.77893324549282,168.52413526238064</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -40055,7 +40107,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>-46.7789480191432,168.52416714496388</t>
+          <t>-46.77894827039568,168.52416768718487</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -40117,7 +40169,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>-46.77895203918267,168.52417582049983</t>
+          <t>-46.77895224018464,168.52417625427668</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -40179,7 +40231,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>-46.77896224003009,168.52419783467826</t>
+          <t>-46.778962943536655,168.52419935289777</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -40241,7 +40293,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>-46.77896113451971,168.5241954489048</t>
+          <t>-46.7789618882768,168.5241970755685</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -40303,7 +40355,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-46.77893626052419,168.52414176902886</t>
+          <t>-46.778936863530426,168.52414307035858</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -40365,7 +40417,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>-46.77894234083638,168.52415489077163</t>
+          <t>-46.77894269258995,168.5241556498808</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -40427,7 +40479,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>-46.77894203933334,168.52415424010664</t>
+          <t>-46.77894269258995,168.5241556498808</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -40489,7 +40541,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>-46.778934652507495,168.52413829881638</t>
+          <t>-46.77893500426115,168.52413905792534</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -40551,7 +40603,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>-46.778929275701,168.524126695295</t>
+          <t>-46.778929778206326,168.52412777973615</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -40613,7 +40665,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>-46.77892053210675,168.52410782602223</t>
+          <t>-46.7789206828584,168.52410815135448</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -40675,7 +40727,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>-46.77892053210675,168.52410782602223</t>
+          <t>-46.7789206828584,168.52410815135448</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -40737,7 +40789,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>-46.77890842172139,168.52408169100542</t>
+          <t>-46.77890862272369,168.52408212478153</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -40799,7 +40851,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>-46.77890842172139,168.52408169100542</t>
+          <t>-46.77890862272369,168.52408212478153</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -40861,7 +40913,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>-46.77890842172139,168.52408169100542</t>
+          <t>-46.77890862272369,168.52408212478153</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -40923,7 +40975,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>-46.77891550705126,168.52409698161546</t>
+          <t>-46.77891555730182,168.52409709005954</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -40985,7 +41037,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>-46.778919175341855,168.52410489803222</t>
+          <t>-46.778918371333006,168.52410316292708</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -41047,7 +41099,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>-46.77893711478301,168.52414361257928</t>
+          <t>-46.77893681327989,168.52414296191444</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -41109,7 +41161,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-46.77894897390264,168.52416920540358</t>
+          <t>-46.77894872265014,168.5241686631826</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -41171,7 +41223,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-46.77892540640965,168.5241183450988</t>
+          <t>-46.77892530590857,168.5241181282106</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -41233,7 +41285,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-46.77892389889338,168.52411509177597</t>
+          <t>-46.77892420039664,168.5241157424405</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -41295,7 +41347,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>-46.778912542268074,168.52409058341644</t>
+          <t>-46.778913095024286,168.52409177630096</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -41357,7 +41409,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>-46.77890952723398,168.52408407677407</t>
+          <t>-46.778909728236265,168.5240845105502</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -41419,7 +41471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-46.77890952723398,168.52408407677407</t>
+          <t>-46.778909728236265,168.5240845105502</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -41481,7 +41533,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-46.77890952723398,168.52408407677407</t>
+          <t>-46.778909728236265,168.5240845105502</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -41543,7 +41595,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>-46.778913999534424,168.52409372829385</t>
+          <t>-46.77891404978499,168.52409383673788</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -41605,7 +41657,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-46.77891314527487,168.524091884745</t>
+          <t>-46.77891299452316,168.52409155941285</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -41667,7 +41719,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>-46.778912291015246,168.52409004119622</t>
+          <t>-46.778912039762425,168.524089498976</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -41729,7 +41781,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>-46.778901386640186,168.52406650884345</t>
+          <t>-46.77890108513666,168.52406585817948</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -41791,7 +41843,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>-46.778900029874315,168.52406358085554</t>
+          <t>-46.778899627869585,168.52406271330358</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -41853,7 +41905,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>-46.778922491878134,168.52411205534145</t>
+          <t>-46.77892208987375,168.52411118778878</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -41915,7 +41967,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>-46.77893374799807,168.52413634682196</t>
+          <t>-46.77893299424019,168.52413472016</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -41977,7 +42029,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>-46.778944300606135,168.5241591200943</t>
+          <t>-46.77894394885259,168.5241583609851</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -42039,7 +42091,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>-46.778944300606135,168.5241591200943</t>
+          <t>-46.77894394885259,168.5241583609851</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -42101,7 +42153,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>-46.77893435100435,168.52413764815154</t>
+          <t>-46.7789339992507,168.52413688904264</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -42163,7 +42215,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>-46.7789289741978,168.52412604463032</t>
+          <t>-46.77892862244406,168.52412528552154</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -42225,7 +42277,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>-46.7789289741978,168.52412604463032</t>
+          <t>-46.77892862244406,168.52412528552154</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -42411,7 +42463,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>-46.7789324414844,168.52413352727459</t>
+          <t>-46.77893284348862,168.5241343948276</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -42473,7 +42525,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>-46.77893842129646,168.52414643212717</t>
+          <t>-46.778938923801604,168.52414751656872</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -42535,7 +42587,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>-46.77893842129646,168.52414643212717</t>
+          <t>-46.778938923801604,168.52414751656872</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -42597,7 +42649,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>-46.77894178808079,168.5241536978858</t>
+          <t>-46.778942290585874,168.52415478232746</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -42659,7 +42711,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>-46.778941486577736,168.5241530472208</t>
+          <t>-46.77894183833131,168.52415380632996</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -42721,7 +42773,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>-46.77894736588673,168.52416573518946</t>
+          <t>-46.77894781814121,168.52416671118715</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -42783,7 +42835,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>-46.7789654058095,168.52420466666638</t>
+          <t>-46.77896590831413,168.524205751109</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -42845,7 +42897,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>-46.77895736573404,168.52418731558703</t>
+          <t>-46.778957817988335,168.5241882915851</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -42907,7 +42959,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>-46.77896435054974,168.52420238933692</t>
+          <t>-46.77896450130113,168.52420271466968</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -42969,7 +43021,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>-46.77896435054974,168.52420238933692</t>
+          <t>-46.77896450130113,168.52420271466968</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -43031,7 +43083,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>-46.778963697293676,168.52420097956158</t>
+          <t>-46.778963647043206,168.52420087111733</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -43093,7 +43145,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>-46.77896123502066,168.5241956657933</t>
+          <t>-46.77896108426925,168.52419534046058</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -43155,7 +43207,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>-46.778959074250274,168.52419100269094</t>
+          <t>-46.77895922500171,168.52419132802368</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -43217,7 +43269,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>-46.77895525521382,168.52418276092956</t>
+          <t>-46.77895580796911,168.52418395381602</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -43279,7 +43331,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>-46.778955204963324,168.52418265248534</t>
+          <t>-46.77895585821961,168.52418406226022</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -43341,7 +43393,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>-46.77895148642729,168.52417462761358</t>
+          <t>-46.77895198893218,168.52417571205567</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -43403,7 +43455,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>-46.77895148642729,168.52417462761358</t>
+          <t>-46.77895198893218,168.52417571205567</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -43465,7 +43517,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>-46.77894671263024,168.524164325415</t>
+          <t>-46.77894701413322,168.52416497608013</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -43527,7 +43579,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>-46.77894445135765,168.52415944542685</t>
+          <t>-46.77894495386269,168.52416052986862</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -43589,7 +43641,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>-46.77895073266991,168.52417300095053</t>
+          <t>-46.77895113467385,168.52417386850416</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -43651,7 +43703,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>-46.77894716488473,168.52416530141267</t>
+          <t>-46.77894721513524,168.52416540985686</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -43713,7 +43765,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>-46.778940833321094,168.5241516374467</t>
+          <t>-46.77894088357162,168.52415174589083</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -43775,7 +43827,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>-46.77894344634755,168.52415727654338</t>
+          <t>-46.778943496598046,168.52415738498755</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -43837,7 +43889,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>-46.77893992881189,168.52414968545182</t>
+          <t>-46.77893997906239,168.52414979389596</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -43961,7 +44013,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>-46.77894832064618,168.52416779562904</t>
+          <t>-46.77894822014519,168.52416757874067</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -44023,7 +44075,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>-46.77893942630674,168.52414860101024</t>
+          <t>-46.7789388735511,168.52414740812455</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -44085,7 +44137,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>-46.77894118507468,168.52415239655582</t>
+          <t>-46.77894078307059,168.52415152900252</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -44147,7 +44199,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>-46.778948571898674,168.52416833785</t>
+          <t>-46.7789479186422,168.52416692807552</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -44209,7 +44261,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>-46.7789613355216,168.5241958826818</t>
+          <t>-46.77896108426925,168.52419534046058</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -44271,7 +44323,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>-46.7789613355216,168.5241958826818</t>
+          <t>-46.77896108426925,168.52419534046058</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -44333,7 +44385,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>-46.778964551551596,168.52420282311394</t>
+          <t>-46.778964400800206,168.52420249778118</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -44457,7 +44509,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>-46.778955707468164,168.52418373692754</t>
+          <t>-46.77895575771864,168.5241838453718</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -44519,7 +44571,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>-46.778951687429256,168.5241750613904</t>
+          <t>-46.77895224018464,168.52417625427668</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -44581,7 +44633,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>-46.77895942600361,168.5241917618006</t>
+          <t>-46.778960079259775,168.52419317157572</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -44643,7 +44695,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>-46.7789553054643,168.5241828693738</t>
+          <t>-46.778955707468164,168.52418373692754</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -44705,7 +44757,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>-46.778955104462355,168.5241824355969</t>
+          <t>-46.77895545621575,168.52418319470647</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -44767,7 +44819,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>-46.77895490346042,168.52418200182</t>
+          <t>-46.77895525521382,168.52418276092956</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -44829,7 +44881,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>-46.778943597099065,168.52415760187588</t>
+          <t>-46.77894404935362,168.52415857787346</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -44891,7 +44943,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>-46.77894751663822,168.524166060522</t>
+          <t>-46.77894771764022,168.52416649429875</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -44953,7 +45005,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>-46.77894751663822,168.524166060522</t>
+          <t>-46.77894771764022,168.52416649429875</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -45015,7 +45067,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>-46.77894344634755,168.52415727654338</t>
+          <t>-46.77894379810109,168.52415803565256</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -45077,7 +45129,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>-46.77892771793441,168.52412333352754</t>
+          <t>-46.778928119938705,168.5241242010804</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -45139,7 +45191,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>-46.778925104906406,168.5241176944342</t>
+          <t>-46.778925607411814,168.5241187788752</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -45201,7 +45253,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>-46.778908924227125,168.5240827754457</t>
+          <t>-46.77890947698341,168.52408396833007</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -45263,7 +45315,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>-46.778910833748796,168.524086896319</t>
+          <t>-46.77891123575335,168.52408776387134</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -45325,7 +45377,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>-46.778902391651904,168.52406867772348</t>
+          <t>-46.778903296162426,168.5240706297156</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -45387,7 +45439,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>-46.77891244176695,168.52409036652833</t>
+          <t>-46.77891274327034,168.52409101719263</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -45449,7 +45501,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>-46.77892183862102,168.52411064556836</t>
+          <t>-46.77892224062539,168.52411151312103</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -45511,7 +45563,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>-46.778931687726484,168.5241319006127</t>
+          <t>-46.77893198922965,168.52413255127746</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -45573,7 +45625,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>-46.778940029312906,168.52414990234013</t>
+          <t>-46.778940381066484,168.52415066144926</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -45635,7 +45687,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>-46.77893545651585,168.52414003392258</t>
+          <t>-46.77893560726743,168.524140359255</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -45697,7 +45749,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>-46.77892776818496,168.52412344197165</t>
+          <t>-46.77892801943763,168.52412398419222</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -45759,7 +45811,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>-46.77892103461226,168.52410891046304</t>
+          <t>-46.77892143661664,168.52410977801568</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -45821,7 +45873,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>-46.778926712923685,168.5241211646454</t>
+          <t>-46.77892721542906,168.52412224908647</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -45883,7 +45935,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>-46.77893088371802,168.52413016550676</t>
+          <t>-46.778931386223306,168.52413124994797</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -45945,7 +45997,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>-46.77893088371802,168.52413016550676</t>
+          <t>-46.778931386223306,168.52413124994797</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -46007,7 +46059,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>-46.778937667538706,168.5241448054649</t>
+          <t>-46.778938220294386,168.52414599835058</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -46069,7 +46121,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>-46.77893917505418,168.52414805878948</t>
+          <t>-46.77893982831086,168.52414946856348</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -46131,7 +46183,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>-46.77893173797701,168.5241320090568</t>
+          <t>-46.778932541985455,168.52413374416284</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -46193,7 +46245,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>-46.77893018021057,168.52412864728907</t>
+          <t>-46.77893118522119,168.52413081617146</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -46255,7 +46307,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>-46.7789042006729,168.52407258170774</t>
+          <t>-46.77890530618567,168.52407496747603</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -46317,7 +46369,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>-46.77890842172139,168.52408169100542</t>
+          <t>-46.77890962773512,168.52408429366216</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -46379,7 +46431,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>-46.778909929238544,168.52408494432635</t>
+          <t>-46.77891123575335,168.52408776387134</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -46441,7 +46493,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>-46.77892173811993,168.5241104286802</t>
+          <t>-46.77892304463413,168.52411324822643</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -46503,7 +46555,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>-46.77891219051412,168.52408982430813</t>
+          <t>-46.77891344677824,168.52409253540927</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -46565,7 +46617,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>-46.778912291015246,168.52409004119622</t>
+          <t>-46.77891344677824,168.52409253540927</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -46627,7 +46679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>-46.778912291015246,168.52409004119622</t>
+          <t>-46.77891344677824,168.52409253540927</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -46689,7 +46741,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>-46.778906311197225,168.5240771363564</t>
+          <t>-46.77890746696049,168.5240796305689</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -46751,7 +46803,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>-46.7789052056845,168.524074750588</t>
+          <t>-46.77890626094664,168.5240770279124</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -46813,7 +46865,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>-46.77890912522941,168.52408320922183</t>
+          <t>-46.77890987898798,168.52408483588232</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -46875,7 +46927,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>-46.77890203989781,168.52406791861546</t>
+          <t>-46.77890264290484,168.5240692199435</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -46937,7 +46989,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>-46.77890600969376,168.5240764856923</t>
+          <t>-46.77890666295127,168.52407789546456</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -46999,7 +47051,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>-46.77890600969376,168.5240764856923</t>
+          <t>-46.77890666295127,168.52407789546456</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -47061,7 +47113,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>-46.778907316208766,168.52407930523682</t>
+          <t>-46.7789080197168,168.5240808234532</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -47123,7 +47175,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>-46.77891872308689,168.52410392203558</t>
+          <t>-46.77891912509131,168.52410478958814</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -47185,7 +47237,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>-46.77891972809793,168.52410609091703</t>
+          <t>-46.77891992910015,168.52410652469334</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -47247,7 +47299,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>-46.77891646181188,168.5240990420526</t>
+          <t>-46.77891676331523,168.52409969271696</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -47309,7 +47361,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>-46.77891726582079,168.5241007771576</t>
+          <t>-46.77891751707358,168.52410131937793</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -47371,7 +47423,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>-46.778918019579116,168.5241024038186</t>
+          <t>-46.77891796932858,168.52410229537455</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -47433,7 +47485,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>-46.778918672836326,168.5241038135915</t>
+          <t>-46.778918522084666,168.52410348825927</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -47495,7 +47547,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>-46.77892706467744,168.52412192375417</t>
+          <t>-46.77892676317421,168.52412127308955</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -47557,7 +47609,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>-46.778927567182805,168.5241230081952</t>
+          <t>-46.77892731593013,168.52412246597467</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -47619,7 +47671,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>-46.77892656217206,168.52412083931313</t>
+          <t>-46.7789266124226,168.52412094775724</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -47681,7 +47733,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>-46.77892751693227,168.52412289975112</t>
+          <t>-46.77892776818496,168.52412344197165</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -47743,7 +47795,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>-46.77892224062539,168.52411151312103</t>
+          <t>-46.778922592379224,168.52411227222964</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -47805,7 +47857,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>-46.778922341126496,168.5241117300092</t>
+          <t>-46.778922592379224,168.52411227222964</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -47867,7 +47919,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>-46.77891791907802,168.52410218693046</t>
+          <t>-46.77891842158356,168.52410327137116</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -47929,7 +47981,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>-46.77892168786937,168.5241103202361</t>
+          <t>-46.77892208987375,168.52411118778878</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -47991,7 +48043,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>-46.77891460254118,168.5240950296225</t>
+          <t>-46.77891520554791,168.52409633095112</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -48053,7 +48105,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>-46.778916361310756,168.5240988251645</t>
+          <t>-46.778917215570225,168.52410066871354</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -48115,7 +48167,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>-46.778919426594626,168.52410544025258</t>
+          <t>-46.778920079851794,168.52410685002556</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -48177,7 +48229,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>-46.77893470275803,168.52413840726052</t>
+          <t>-46.77893555701691,168.52414025081086</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -48239,7 +48291,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>-46.778946009123224,168.52416280719643</t>
+          <t>-46.778946612129246,168.52416410852663</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -48301,7 +48353,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>-46.77895450145655,168.52418113426626</t>
+          <t>-46.77895485320995,168.52418189337578</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -48363,7 +48415,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>-46.778960079259775,168.52419317157572</t>
+          <t>-46.77896058176452,168.52419425601812</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -48425,7 +48477,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>-46.77896244103196,168.52419826845525</t>
+          <t>-46.77896289328619,168.5241992444535</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -48487,7 +48539,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>-46.77896244103196,168.52419826845525</t>
+          <t>-46.77896289328619,168.5241992444535</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -48549,7 +48601,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>-46.778963094288045,168.52419967823053</t>
+          <t>-46.77896359679274,168.52420076267308</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -48611,7 +48663,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>-46.77896706407477,168.52420824532717</t>
+          <t>-46.778967415827985,168.52420900443707</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -48673,7 +48725,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>-46.778975405649916,168.5242262470787</t>
+          <t>-46.77897585790392,168.52422722307747</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -48735,7 +48787,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>-46.77897465189324,168.5242246204142</t>
+          <t>-46.7789751543977,168.52422570485723</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -48797,7 +48849,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>-46.77896746607844,168.52420911288132</t>
+          <t>-46.77896811933441,168.52421052265686</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -48859,7 +48911,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>-46.77895490346042,168.52418200182</t>
+          <t>-46.77895515471283,168.52418254404114</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -48921,7 +48973,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>-46.77895073266991,168.52417300095053</t>
+          <t>-46.7789508331709,168.52417321783892</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -48983,7 +49035,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>-46.77894731563623,168.52416562674526</t>
+          <t>-46.778947265385725,168.52416551830106</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -49045,7 +49097,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>-46.778936612277825,168.52414252813784</t>
+          <t>-46.778936310774704,168.524141877473</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -49107,7 +49159,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>-46.778920079851794,168.52410685002556</t>
+          <t>-46.77891992910015,168.52410652469334</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -49169,7 +49221,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>-46.778923245636314,168.5241136820028</t>
+          <t>-46.778923094884675,168.5241133566705</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -49231,7 +49283,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>-46.778923245636314,168.5241136820028</t>
+          <t>-46.778923094884675,168.5241133566705</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -49293,7 +49345,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>-46.77893028071165,168.5241288641773</t>
+          <t>-46.77892992895792,168.52412810506848</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -49355,7 +49407,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>-46.77893435100435,168.52413764815154</t>
+          <t>-46.778934049501224,168.52413699748675</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -49417,7 +49469,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>-46.77893771778921,168.52414491390905</t>
+          <t>-46.77893741628612,168.52414426324418</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -49479,7 +49531,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>-46.778940079563405,168.5241500107843</t>
+          <t>-46.77893997906239,168.52414979389596</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -49541,7 +49593,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>-46.7789423910869,168.5241549992158</t>
+          <t>-46.77894234083638,168.52415489077163</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -49603,7 +49655,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>-46.77894736588673,168.52416573518946</t>
+          <t>-46.77894696388273,168.52416486763593</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -49665,7 +49717,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>-46.77894977791055,168.52417094051071</t>
+          <t>-46.77894937590659,168.52417007295713</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -49789,7 +49841,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>-46.77895701398068,168.52418655647742</t>
+          <t>-46.778956913479725,168.52418633958897</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -49851,7 +49903,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>-46.77896128527113,168.52419577423754</t>
+          <t>-46.77896138577208,168.52419599112605</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -49913,7 +49965,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>-46.77896033051215,168.5241937137969</t>
+          <t>-46.7789604310131,168.5241939306854</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -49975,7 +50027,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>-46.77894540611722,168.52416150586626</t>
+          <t>-46.77894555686871,168.5241618311988</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -50099,7 +50151,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>-46.77894234083638,168.52415489077163</t>
+          <t>-46.7789423910869,168.5241549992158</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -50161,7 +50213,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>-46.77894113482416,168.52415228811165</t>
+          <t>-46.77894108457366,168.5241521796675</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -50223,7 +50275,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>-46.778943044343485,168.52415640899</t>
+          <t>-46.77894289359197,168.5241560836575</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -50285,7 +50337,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>-46.77894068256956,168.52415131211418</t>
+          <t>-46.77894053181802,168.5241509867817</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -50347,7 +50399,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>-46.77893811979335,168.52414578146227</t>
+          <t>-46.77893806954284,168.52414567301813</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -50409,7 +50461,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>-46.77894058206854,168.52415109522587</t>
+          <t>-46.778940381066484,168.52415066144926</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -50471,7 +50523,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>-46.77894088357162,168.52415174589083</t>
+          <t>-46.77894063231904,168.52415120367004</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -50533,7 +50585,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>-46.77893992881189,168.52414968545182</t>
+          <t>-46.778939677559315,168.52414914323103</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -50595,7 +50647,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>-46.778939124803664,168.5241479503453</t>
+          <t>-46.778938923801604,168.52414751656872</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -50657,7 +50709,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>-46.778938923801604,168.52414751656872</t>
+          <t>-46.778938722799545,168.5241470827921</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -50719,7 +50771,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>-46.77894103432314,168.52415207122334</t>
+          <t>-46.77894088357162,168.52415174589083</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -50843,7 +50895,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>-46.778938320795426,168.52414621523886</t>
+          <t>-46.77893837104593,168.52414632368303</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -50905,7 +50957,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>-46.77893545651585,168.52414003392258</t>
+          <t>-46.77893535601481,168.5241398170343</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -50967,7 +51019,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>-46.77893309474125,168.52413493704827</t>
+          <t>-46.77893289373914,168.5241345032717</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -51029,7 +51081,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>-46.77893344649492,168.52413569615717</t>
+          <t>-46.77893334599388,168.5241354792689</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -51091,7 +51143,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>-46.77893314499177,168.5241350454924</t>
+          <t>-46.77893309474125,168.52413493704827</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -51153,7 +51205,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>-46.778929778206326,168.52412777973615</t>
+          <t>-46.77892982845685,168.52412788818026</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -51277,7 +51329,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>-46.7789392755552,168.52414827567776</t>
+          <t>-46.77893932580572,168.52414838412193</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -51339,7 +51391,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>-46.7789423910869,168.5241549992158</t>
+          <t>-46.778942441337406,168.52415510765996</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -51525,7 +51577,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>-46.77895038091646,168.52417224184111</t>
+          <t>-46.77895028041548,168.52417202495272</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -51587,7 +51639,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>-46.77894972766004,168.52417083206652</t>
+          <t>-46.77894967740956,168.52417072362232</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -51711,7 +51763,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>-46.77895435070509,168.5241808089336</t>
+          <t>-46.77895425020412,168.52418059204518</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -51773,7 +51825,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>-46.778954802959454,168.52418178493159</t>
+          <t>-46.778954953710915,168.52418211026423</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -51835,7 +51887,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>-46.77895455170703,168.52418124271048</t>
+          <t>-46.77895490346042,168.52418200182</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -51897,7 +51949,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>-46.77895490346042,168.52418200182</t>
+          <t>-46.77895525521382,168.52418276092956</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -51959,7 +52011,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>-46.778955707468164,168.52418373692754</t>
+          <t>-46.77895590847009,168.52418417070444</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -52021,7 +52073,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>-46.77895751648547,168.5241876409197</t>
+          <t>-46.778957767737865,168.52418818314086</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -52083,7 +52135,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>-46.77895651147587,168.52418547203513</t>
+          <t>-46.778956913479725,168.52418633958897</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -52145,7 +52197,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>-46.77895661197683,168.5241856889236</t>
+          <t>-46.778956963730195,168.5241864480332</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -52207,7 +52259,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>-46.77895681297875,168.5241861227005</t>
+          <t>-46.77895716473211,168.5241868818101</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -52269,7 +52321,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>-46.778956963730195,168.5241864480332</t>
+          <t>-46.77895731548355,168.5241872071428</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -52331,7 +52383,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>-46.7789567124778,168.52418590581206</t>
+          <t>-46.77895706423116,168.52418666492164</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -52393,7 +52445,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>-46.77895435070509,168.5241808089336</t>
+          <t>-46.77895475270897,168.52418167648736</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -52455,7 +52507,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>-46.778955606967195,168.52418352003912</t>
+          <t>-46.77895585821961,168.52418406226022</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -52517,7 +52569,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>-46.77895389845072,168.5241798329357</t>
+          <t>-46.778954149703154,168.52418037515673</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -52579,7 +52631,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>-46.77895389845072,168.5241798329357</t>
+          <t>-46.778954149703154,168.52418037515673</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -52641,7 +52693,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>-46.77895475270897,168.52418167648736</t>
+          <t>-46.77895490346042,168.52418200182</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -52703,7 +52755,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>-46.778956913479725,168.52418633958897</t>
+          <t>-46.778957114481635,168.52418677336587</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -52765,7 +52817,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>-46.77895827024264,168.52418926758318</t>
+          <t>-46.77895842099409,168.52418959291586</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -52827,7 +52879,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>-46.7789696770986,168.52421388442946</t>
+          <t>-46.77896982784996,168.52421420976228</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -52889,7 +52941,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>-46.77896279278525,168.524199027565</t>
+          <t>-46.778963094288045,168.52419967823053</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -52951,7 +53003,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>-46.77895656172635,168.52418558047938</t>
+          <t>-46.7789567124778,168.52418590581206</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -53013,7 +53065,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>-46.77895304419245,168.52417798938404</t>
+          <t>-46.778953245194394,168.5241784231609</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -53075,7 +53127,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>-46.778945707620224,168.52416215653133</t>
+          <t>-46.778945607119226,168.52416193964297</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -53137,7 +53189,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>-46.778945707620224,168.52416215653133</t>
+          <t>-46.778945607119226,168.52416193964297</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -53199,7 +53251,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>-46.77894088357162,168.52415174589083</t>
+          <t>-46.77894103432314,168.52415207122334</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -53261,7 +53313,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>-46.77893229073282,168.5241332019422</t>
+          <t>-46.778932240482284,168.52413309349805</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -53323,7 +53375,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>-46.77893349674546,168.5241358046013</t>
+          <t>-46.77893354699597,168.52413591304543</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -53447,7 +53499,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>-46.77893269273704,168.5241340694952</t>
+          <t>-46.77893264248651,168.5241339610511</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -53571,7 +53623,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>-46.778931536974895,168.52413157528034</t>
+          <t>-46.778931687726484,168.5241319006127</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -53633,7 +53685,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>-46.7789320897307,168.52413276816569</t>
+          <t>-46.77893239123387,168.52413341883047</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -53695,7 +53747,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>-46.77892244162757,168.5241119468974</t>
+          <t>-46.778922843631946,168.52411281445006</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -53757,7 +53809,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>-46.77891500454566,168.5240958971749</t>
+          <t>-46.77891555730182,168.52409709005954</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -53819,7 +53871,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>-46.778913296026545,168.52409221007713</t>
+          <t>-46.778913597529936,168.52409286074143</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -53881,7 +53933,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>-46.778910783498226,168.52408678787498</t>
+          <t>-46.77891138650505,168.52408808920345</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53943,7 +53995,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>-46.77890600969376,168.5240764856923</t>
+          <t>-46.77890666295127,168.52407789546456</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -54005,7 +54057,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>-46.77890530618567,168.52407496747603</t>
+          <t>-46.77890611019492,168.52407670258032</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -54067,7 +54119,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>-46.778895909325655,168.52405468844876</t>
+          <t>-46.778896663084616,168.52405631510842</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -54129,7 +54181,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>-46.77889088426546,168.52404384405207</t>
+          <t>-46.77889138677151,168.52404492849163</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -54191,7 +54243,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>-46.77888575870304,168.52403278276958</t>
+          <t>-46.77888636171045,168.52403408409685</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -54253,7 +54305,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>-46.77888465318946,168.5240303970031</t>
+          <t>-46.77888535669811,168.52403191521813</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -54315,7 +54367,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>-46.77888178890404,168.52402421569934</t>
+          <t>-46.77888219090901,168.5240250832507</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -54377,7 +54429,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>-46.778885406948724,168.52403202366204</t>
+          <t>-46.77888575870304,168.52403278276958</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54439,7 +54491,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>-46.77889701483879,168.52405707421627</t>
+          <t>-46.77889731634235,168.52405772488018</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -54501,7 +54553,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>-46.77889812035185,168.52405945998393</t>
+          <t>-46.77889822085303,168.5240596768719</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -54563,7 +54615,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>-46.77891616030853,168.52409839138824</t>
+          <t>-46.77891575830406,168.52409752383576</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -54625,7 +54677,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>-46.778918522084666,168.52410348825927</t>
+          <t>-46.77891832108245,168.52410305448302</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -54687,7 +54739,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>-46.7789207833595,168.52410836824265</t>
+          <t>-46.7789204818562,168.52410771757818</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54749,7 +54801,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>-46.77891661256355,168.52409936738476</t>
+          <t>-46.778916311060215,168.5240987167204</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -54811,7 +54863,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>-46.77891646181188,168.5240990420526</t>
+          <t>-46.77891605980742,168.52409817450012</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -54873,7 +54925,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>-46.778921336115545,168.52410956112755</t>
+          <t>-46.77892103461226,168.52410891046304</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -54935,7 +54987,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>-46.77892103461226,168.52410891046304</t>
+          <t>-46.778920733108954,168.52410825979857</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -54997,7 +55049,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>-46.77892369789121,168.5241146579996</t>
+          <t>-46.778923346137404,168.52411389889096</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -55059,7 +55111,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>-46.77893093396854,168.52413027395087</t>
+          <t>-46.77893078321694,168.52412994861848</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -55121,7 +55173,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>-46.77893425050332,168.52413743126328</t>
+          <t>-46.77893394900018,168.5241367805985</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -55183,7 +55235,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>-46.77893460225699,168.52413819037224</t>
+          <t>-46.77893435100435,168.52413764815154</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -55245,7 +55297,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>-46.778936511776784,168.52414231124956</t>
+          <t>-46.77893605952211,168.52414133525227</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -55307,7 +55359,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>-46.778940180064446,168.5241502276726</t>
+          <t>-46.77893997906239,168.52414979389596</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -55369,7 +55421,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>-46.77894208958384,168.52415434855078</t>
+          <t>-46.77894183833131,168.52415380632996</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -55431,7 +55483,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>-46.778936562027305,168.5241424196937</t>
+          <t>-46.778936310774704,168.524141877473</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -55493,7 +55545,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>-46.778936562027305,168.5241424196937</t>
+          <t>-46.778936310774704,168.524141877473</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -55555,7 +55607,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>-46.778936562027305,168.5241424196937</t>
+          <t>-46.778936310774704,168.524141877473</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -55617,7 +55669,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>-46.77894053181802,168.5241509867817</t>
+          <t>-46.77894058206854,168.52415109522587</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -55679,7 +55731,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>-46.77893867254903,168.52414697434793</t>
+          <t>-46.778938974052124,168.52414762501286</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -55741,7 +55793,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>-46.778942441337406,168.52415510765996</t>
+          <t>-46.77894264233944,168.52415554143664</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -55803,7 +55855,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>-46.77894751663822,168.524166060522</t>
+          <t>-46.77894766738971,168.52416638585458</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -55865,7 +55917,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>-46.77895234068562,168.5241764711651</t>
+          <t>-46.77895254168758,168.52417690494192</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -55927,7 +55979,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>-46.778952692439034,168.52417723027457</t>
+          <t>-46.77895274268951,168.52417733871877</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -55989,7 +56041,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>-46.778957918489304,168.52418850847357</t>
+          <t>-46.778958119491215,168.5241889422505</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -56113,7 +56165,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>-46.77896384804508,168.52420130489435</t>
+          <t>-46.77896399879647,168.5242016302271</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -56175,7 +56227,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>-46.77896500380578,168.52420379911229</t>
+          <t>-46.77896485305439,168.5242034737795</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -56237,7 +56289,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>-46.77896450130113,168.52420271466968</t>
+          <t>-46.778964551551596,168.52420282311394</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -56299,7 +56351,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>-46.778969023842656,168.52421247465384</t>
+          <t>-46.778969174594025,168.52421279998666</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -56361,7 +56413,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>-46.77897550615081,168.52422646396732</t>
+          <t>-46.77897565690215,168.52422678930023</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -56423,7 +56475,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>-46.778978621678185,168.5242331875146</t>
+          <t>-46.77897877242951,168.52423351284753</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -56485,7 +56537,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>-46.778978169424235,168.52423221151574</t>
+          <t>-46.77897832017556,168.52423253684867</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -56547,7 +56599,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>-46.778978370426,168.52423264529298</t>
+          <t>-46.77897847092688,168.52423286218163</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -56609,7 +56661,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>-46.77897811917379,168.52423210307143</t>
+          <t>-46.77897826992512,168.52423242840436</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -56671,7 +56723,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>-46.778977013664104,168.52422971729652</t>
+          <t>-46.778976963413655,168.52422960885224</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -56733,7 +56785,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>-46.778977013664104,168.52422971729652</t>
+          <t>-46.778976963413655,168.52422960885224</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -56795,7 +56847,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>-46.77897716441544,168.52423004262945</t>
+          <t>-46.778976862912785,168.5242293919636</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -56857,7 +56909,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>-46.778968571588535,168.52421149865535</t>
+          <t>-46.77896847108762,168.52421128176678</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -56928,6 +56980,68 @@
         </is>
       </c>
       <c r="L486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.777286083175156,168.53033941420014</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.776476906514134,168.5293152377916</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.776606628069345,168.52841357519276</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.776880748820545,168.52755305272296</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.77721342703237,168.52675614892613</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-46.77757400100377,168.52601111809562</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-46.777991379047656,168.52533421527178</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-46.77845260343318,168.52472487434335</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-46.77896113451971,168.5241954489048</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-46.779500424175424,168.52375174111347</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
